--- a/input_data/sna_country_data/URY/cei.xlsx
+++ b/input_data/sna_country_data/URY/cei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20746" uniqueCount="10583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21894" uniqueCount="11689">
   <si>
     <t>code</t>
   </si>
@@ -31510,6 +31510,3324 @@
   </si>
   <si>
     <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
   </si>
   <si>
     <t>Transferencia del BCU al Gobierno</t>
@@ -31818,36 +35136,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10030</v>
+        <v>11136</v>
       </c>
       <c r="B1" t="s">
-        <v>10067</v>
+        <v>11173</v>
       </c>
       <c r="C1" t="s">
-        <v>10103</v>
+        <v>11209</v>
       </c>
       <c r="D1" t="s">
-        <v>10104</v>
+        <v>11210</v>
       </c>
       <c r="E1" t="s">
-        <v>10105</v>
+        <v>11211</v>
       </c>
       <c r="F1" t="s">
-        <v>10106</v>
+        <v>11212</v>
       </c>
       <c r="G1" t="s">
-        <v>10107</v>
+        <v>11213</v>
       </c>
       <c r="H1" t="s">
-        <v>10108</v>
+        <v>11214</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10031</v>
+        <v>11137</v>
       </c>
       <c r="B2" t="s">
-        <v>10068</v>
+        <v>11174</v>
       </c>
       <c r="C2" s="1">
         <v>-35345.263380289784</v>
@@ -31862,10 +35180,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10032</v>
+        <v>11138</v>
       </c>
       <c r="B3" t="s">
-        <v>10069</v>
+        <v>11175</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -31884,10 +35202,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10033</v>
+        <v>11139</v>
       </c>
       <c r="B4" t="s">
-        <v>10070</v>
+        <v>11176</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -31904,10 +35222,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10034</v>
+        <v>11140</v>
       </c>
       <c r="B5" t="s">
-        <v>10071</v>
+        <v>11177</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -31924,10 +35242,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10035</v>
+        <v>11141</v>
       </c>
       <c r="B6" t="s">
-        <v>10072</v>
+        <v>11178</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -31940,10 +35258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10036</v>
+        <v>11142</v>
       </c>
       <c r="B7" t="s">
-        <v>10073</v>
+        <v>11179</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -31960,10 +35278,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10037</v>
+        <v>11143</v>
       </c>
       <c r="B8" t="s">
-        <v>10074</v>
+        <v>11180</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -31978,10 +35296,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10038</v>
+        <v>11144</v>
       </c>
       <c r="B9" t="s">
-        <v>10074</v>
+        <v>11180</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -31994,10 +35312,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10039</v>
+        <v>11145</v>
       </c>
       <c r="B10" t="s">
-        <v>10075</v>
+        <v>11181</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -32012,10 +35330,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10040</v>
+        <v>11146</v>
       </c>
       <c r="B11" t="s">
-        <v>10076</v>
+        <v>11182</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -32030,10 +35348,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10041</v>
+        <v>11147</v>
       </c>
       <c r="B12" t="s">
-        <v>10077</v>
+        <v>11183</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -32052,10 +35370,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10042</v>
+        <v>11148</v>
       </c>
       <c r="B13" t="s">
-        <v>10078</v>
+        <v>11184</v>
       </c>
       <c r="C13" s="1">
         <v>105254.84066842961</v>
@@ -32078,10 +35396,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10043</v>
+        <v>11149</v>
       </c>
       <c r="B14" t="s">
-        <v>10079</v>
+        <v>11185</v>
       </c>
       <c r="C14" s="1">
         <v>20118.629433262511</v>
@@ -32104,10 +35422,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10044</v>
+        <v>11150</v>
       </c>
       <c r="B15" t="s">
-        <v>10080</v>
+        <v>11186</v>
       </c>
       <c r="C15" s="1">
         <v>85136.211235167109</v>
@@ -32130,10 +35448,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10045</v>
+        <v>11151</v>
       </c>
       <c r="B16" t="s">
-        <v>10081</v>
+        <v>11187</v>
       </c>
       <c r="C16" s="1">
         <v>77979.086634604173</v>
@@ -32156,10 +35474,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10046</v>
+        <v>11152</v>
       </c>
       <c r="B17" t="s">
-        <v>10082</v>
+        <v>11188</v>
       </c>
       <c r="C17" s="1">
         <v>708.07373372999996</v>
@@ -32180,10 +35498,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10047</v>
+        <v>11153</v>
       </c>
       <c r="B18" t="s">
-        <v>10083</v>
+        <v>11189</v>
       </c>
       <c r="C18" s="1">
         <v>708.07373372999996</v>
@@ -32200,10 +35518,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10048</v>
+        <v>11154</v>
       </c>
       <c r="B19" t="s">
-        <v>10084</v>
+        <v>11190</v>
       </c>
       <c r="C19" s="1">
         <v>2128.9819248528388</v>
@@ -32226,10 +35544,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10049</v>
+        <v>11155</v>
       </c>
       <c r="B20" t="s">
-        <v>10085</v>
+        <v>11191</v>
       </c>
       <c r="C20" s="1">
         <v>610.943299077402</v>
@@ -32246,10 +35564,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10050</v>
+        <v>11156</v>
       </c>
       <c r="B21" t="s">
-        <v>10086</v>
+        <v>11192</v>
       </c>
       <c r="C21" s="1">
         <v>476.41603700000002</v>
@@ -32268,10 +35586,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10051</v>
+        <v>11157</v>
       </c>
       <c r="B22" t="s">
-        <v>10087</v>
+        <v>11193</v>
       </c>
       <c r="C22" s="1">
         <v>1041.622588775437</v>
@@ -32294,10 +35612,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10052</v>
+        <v>11158</v>
       </c>
       <c r="B23" t="s">
-        <v>10088</v>
+        <v>11194</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -32314,10 +35632,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10053</v>
+        <v>11159</v>
       </c>
       <c r="B24" t="s">
-        <v>10089</v>
+        <v>11195</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -32334,10 +35652,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10054</v>
+        <v>11160</v>
       </c>
       <c r="B25" t="s">
-        <v>10090</v>
+        <v>11196</v>
       </c>
       <c r="C25" s="1">
         <v>75685.254770642801</v>
@@ -32360,10 +35678,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10055</v>
+        <v>11161</v>
       </c>
       <c r="B26" t="s">
-        <v>10091</v>
+        <v>11197</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -32378,18 +35696,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10056</v>
+        <v>11162</v>
       </c>
       <c r="B27" t="s">
-        <v>10092</v>
+        <v>11198</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-3264.8749993161441</v>
+        <v>-3264.8749993161591</v>
       </c>
       <c r="F27" s="1">
-        <v>-3264.8749993161441</v>
+        <v>-3264.8749993161591</v>
       </c>
       <c r="G27" s="1">
         <v>65128.014697722727</v>
@@ -32400,10 +35718,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10057</v>
+        <v>11163</v>
       </c>
       <c r="B28" t="s">
-        <v>10093</v>
+        <v>11199</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -32418,10 +35736,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10058</v>
+        <v>11164</v>
       </c>
       <c r="B29" t="s">
-        <v>10094</v>
+        <v>11200</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -32440,10 +35758,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10059</v>
+        <v>11165</v>
       </c>
       <c r="B30" t="s">
-        <v>10095</v>
+        <v>11201</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -32458,18 +35776,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10060</v>
+        <v>11166</v>
       </c>
       <c r="B31" t="s">
-        <v>10096</v>
+        <v>11202</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-3264.8749993161591</v>
+        <v>-3264.8749993161441</v>
       </c>
       <c r="F31" s="1">
-        <v>-3264.8749993161591</v>
+        <v>-3264.8749993161441</v>
       </c>
       <c r="G31" s="1">
         <v>65128.014697722727</v>
@@ -32480,10 +35798,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10061</v>
+        <v>11167</v>
       </c>
       <c r="B32" t="s">
-        <v>10097</v>
+        <v>11203</v>
       </c>
       <c r="C32" s="1">
         <v>40339.991390353032</v>
@@ -32498,10 +35816,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10062</v>
+        <v>11168</v>
       </c>
       <c r="B33" t="s">
-        <v>10098</v>
+        <v>11204</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -32522,10 +35840,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10063</v>
+        <v>11169</v>
       </c>
       <c r="B34" t="s">
-        <v>10099</v>
+        <v>11205</v>
       </c>
       <c r="C34" s="1">
         <v>37886.776197581872</v>
@@ -32540,18 +35858,18 @@
         <v>-25147.551874929632</v>
       </c>
       <c r="G34" s="1">
-        <v>25446.753598644849</v>
+        <v>25446.753598644718</v>
       </c>
       <c r="H34" s="1">
-        <v>25446.753598644849</v>
+        <v>25446.753598644718</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10063</v>
+        <v>11169</v>
       </c>
       <c r="B35" t="s">
-        <v>10099</v>
+        <v>11205</v>
       </c>
       <c r="C35" s="1">
         <v>37886.776197581872</v>
@@ -32566,36 +35884,34 @@
         <v>-25147.551874929632</v>
       </c>
       <c r="G35" s="1">
-        <v>25446.753598644718</v>
+        <v>25446.753598644849</v>
       </c>
       <c r="H35" s="1">
-        <v>25446.753598644718</v>
+        <v>25446.753598644849</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10064</v>
+        <v>11170</v>
       </c>
       <c r="B36" t="s">
-        <v>10100</v>
+        <v>11206</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>79482.446760280014</v>
-      </c>
-      <c r="F36" s="1">
-        <v>79482.446760280014</v>
-      </c>
+        <v>926.5806651800001</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10065</v>
+        <v>11171</v>
       </c>
       <c r="B37" t="s">
-        <v>10101</v>
+        <v>11207</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -32610,17 +35926,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10066</v>
+        <v>11172</v>
       </c>
       <c r="B38" t="s">
-        <v>10102</v>
+        <v>11208</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>926.5806651800001</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>79482.446760280014</v>
+      </c>
+      <c r="F38" s="1">
+        <v>79482.446760280014</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -32635,36 +35953,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10109</v>
+        <v>11215</v>
       </c>
       <c r="B1" t="s">
-        <v>10146</v>
+        <v>11252</v>
       </c>
       <c r="C1" t="s">
-        <v>10182</v>
+        <v>11288</v>
       </c>
       <c r="D1" t="s">
-        <v>10183</v>
+        <v>11289</v>
       </c>
       <c r="E1" t="s">
-        <v>10184</v>
+        <v>11290</v>
       </c>
       <c r="F1" t="s">
-        <v>10185</v>
+        <v>11291</v>
       </c>
       <c r="G1" t="s">
-        <v>10186</v>
+        <v>11292</v>
       </c>
       <c r="H1" t="s">
-        <v>10187</v>
+        <v>11293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10110</v>
+        <v>11216</v>
       </c>
       <c r="B2" t="s">
-        <v>10147</v>
+        <v>11253</v>
       </c>
       <c r="C2" s="1">
         <v>-92111.334701685584</v>
@@ -32679,10 +35997,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10111</v>
+        <v>11217</v>
       </c>
       <c r="B3" t="s">
-        <v>10148</v>
+        <v>11254</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -32701,10 +36019,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10112</v>
+        <v>11218</v>
       </c>
       <c r="B4" t="s">
-        <v>10149</v>
+        <v>11255</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -32721,10 +36039,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10113</v>
+        <v>11219</v>
       </c>
       <c r="B5" t="s">
-        <v>10150</v>
+        <v>11256</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -32741,10 +36059,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10114</v>
+        <v>11220</v>
       </c>
       <c r="B6" t="s">
-        <v>10151</v>
+        <v>11257</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -32757,10 +36075,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10115</v>
+        <v>11221</v>
       </c>
       <c r="B7" t="s">
-        <v>10152</v>
+        <v>11258</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -32777,10 +36095,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10116</v>
+        <v>11222</v>
       </c>
       <c r="B8" t="s">
-        <v>10153</v>
+        <v>11259</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -32793,10 +36111,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10117</v>
+        <v>11223</v>
       </c>
       <c r="B9" t="s">
-        <v>10153</v>
+        <v>11259</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -32809,10 +36127,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10118</v>
+        <v>11224</v>
       </c>
       <c r="B10" t="s">
-        <v>10154</v>
+        <v>11260</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -32825,10 +36143,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10119</v>
+        <v>11225</v>
       </c>
       <c r="B11" t="s">
-        <v>10155</v>
+        <v>11261</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -32843,10 +36161,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10120</v>
+        <v>11226</v>
       </c>
       <c r="B12" t="s">
-        <v>10156</v>
+        <v>11262</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -32865,10 +36183,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10121</v>
+        <v>11227</v>
       </c>
       <c r="B13" t="s">
-        <v>10157</v>
+        <v>11263</v>
       </c>
       <c r="C13" s="1">
         <v>111912.2883479437</v>
@@ -32891,10 +36209,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10122</v>
+        <v>11228</v>
       </c>
       <c r="B14" t="s">
-        <v>10158</v>
+        <v>11264</v>
       </c>
       <c r="C14" s="1">
         <v>37196.900831416431</v>
@@ -32917,10 +36235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10123</v>
+        <v>11229</v>
       </c>
       <c r="B15" t="s">
-        <v>10159</v>
+        <v>11265</v>
       </c>
       <c r="C15" s="1">
         <v>74715.387516527291</v>
@@ -32943,10 +36261,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10124</v>
+        <v>11230</v>
       </c>
       <c r="B16" t="s">
-        <v>10160</v>
+        <v>11266</v>
       </c>
       <c r="C16" s="1">
         <v>81203.449470399617</v>
@@ -32969,10 +36287,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10125</v>
+        <v>11231</v>
       </c>
       <c r="B17" t="s">
-        <v>10161</v>
+        <v>11267</v>
       </c>
       <c r="C17" s="1">
         <v>1114.5240200000001</v>
@@ -32993,10 +36311,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10126</v>
+        <v>11232</v>
       </c>
       <c r="B18" t="s">
-        <v>10162</v>
+        <v>11268</v>
       </c>
       <c r="C18" s="1">
         <v>1114.5240200000001</v>
@@ -33015,10 +36333,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10127</v>
+        <v>11233</v>
       </c>
       <c r="B19" t="s">
-        <v>10163</v>
+        <v>11269</v>
       </c>
       <c r="C19" s="1">
         <v>17219.038211090661</v>
@@ -33041,10 +36359,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10128</v>
+        <v>11234</v>
       </c>
       <c r="B20" t="s">
-        <v>10164</v>
+        <v>11270</v>
       </c>
       <c r="C20" s="1">
         <v>98.619980999999996</v>
@@ -33063,10 +36381,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10129</v>
+        <v>11235</v>
       </c>
       <c r="B21" t="s">
-        <v>10165</v>
+        <v>11271</v>
       </c>
       <c r="C21" s="1">
         <v>1657.9772827899999</v>
@@ -33083,10 +36401,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10130</v>
+        <v>11236</v>
       </c>
       <c r="B22" t="s">
-        <v>10166</v>
+        <v>11272</v>
       </c>
       <c r="C22" s="1">
         <v>1009.104553</v>
@@ -33105,10 +36423,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10131</v>
+        <v>11237</v>
       </c>
       <c r="B23" t="s">
-        <v>10167</v>
+        <v>11273</v>
       </c>
       <c r="C23" s="1">
         <v>14453.336394300661</v>
@@ -33131,10 +36449,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10132</v>
+        <v>11238</v>
       </c>
       <c r="B24" t="s">
-        <v>10168</v>
+        <v>11274</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -33153,10 +36471,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10133</v>
+        <v>11239</v>
       </c>
       <c r="B25" t="s">
-        <v>10169</v>
+        <v>11275</v>
       </c>
       <c r="C25" s="1">
         <v>79087.001794051394</v>
@@ -33179,10 +36497,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10134</v>
+        <v>11240</v>
       </c>
       <c r="B26" t="s">
-        <v>10170</v>
+        <v>11276</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -33197,15 +36515,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10135</v>
+        <v>11241</v>
       </c>
       <c r="B27" t="s">
-        <v>10171</v>
+        <v>11277</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="F27" s="1">
         <v>-10570.43407502865</v>
@@ -33219,10 +36537,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10136</v>
+        <v>11242</v>
       </c>
       <c r="B28" t="s">
-        <v>10172</v>
+        <v>11278</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -33237,10 +36555,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10137</v>
+        <v>11243</v>
       </c>
       <c r="B29" t="s">
-        <v>10173</v>
+        <v>11279</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -33259,10 +36577,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10138</v>
+        <v>11244</v>
       </c>
       <c r="B30" t="s">
-        <v>10174</v>
+        <v>11280</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -33277,15 +36595,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10139</v>
+        <v>11245</v>
       </c>
       <c r="B31" t="s">
-        <v>10175</v>
+        <v>11281</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="F31" s="1">
         <v>-10570.434075028639</v>
@@ -33299,10 +36617,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10140</v>
+        <v>11246</v>
       </c>
       <c r="B32" t="s">
-        <v>10176</v>
+        <v>11282</v>
       </c>
       <c r="C32" s="1">
         <v>-13024.332907634191</v>
@@ -33317,10 +36635,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10141</v>
+        <v>11247</v>
       </c>
       <c r="B33" t="s">
-        <v>10177</v>
+        <v>11283</v>
       </c>
       <c r="C33" s="1">
         <v>181.0641172</v>
@@ -33343,10 +36661,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10142</v>
+        <v>11248</v>
       </c>
       <c r="B34" t="s">
-        <v>10178</v>
+        <v>11284</v>
       </c>
       <c r="C34" s="1">
         <v>-14574.43484844782</v>
@@ -33361,7 +36679,7 @@
         <v>-66950.582658753861</v>
       </c>
       <c r="G34" s="1">
-        <v>55330.055140544151</v>
+        <v>55330.055140544697</v>
       </c>
       <c r="H34" s="1">
         <v>55330.055140544697</v>
@@ -33369,10 +36687,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10142</v>
+        <v>11248</v>
       </c>
       <c r="B35" t="s">
-        <v>10178</v>
+        <v>11284</v>
       </c>
       <c r="C35" s="1">
         <v>-14574.434848447811</v>
@@ -33387,7 +36705,7 @@
         <v>-66950.582658753847</v>
       </c>
       <c r="G35" s="1">
-        <v>55330.055140544697</v>
+        <v>55330.055140544151</v>
       </c>
       <c r="H35" s="1">
         <v>55330.055140544151</v>
@@ -33395,10 +36713,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10143</v>
+        <v>11249</v>
       </c>
       <c r="B36" t="s">
-        <v>10179</v>
+        <v>11285</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -33415,10 +36733,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10144</v>
+        <v>11250</v>
       </c>
       <c r="B37" t="s">
-        <v>10180</v>
+        <v>11286</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -33433,10 +36751,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10145</v>
+        <v>11251</v>
       </c>
       <c r="B38" t="s">
-        <v>10181</v>
+        <v>11287</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -33458,36 +36776,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10188</v>
+        <v>11294</v>
       </c>
       <c r="B1" t="s">
-        <v>10225</v>
+        <v>11331</v>
       </c>
       <c r="C1" t="s">
-        <v>10261</v>
+        <v>11367</v>
       </c>
       <c r="D1" t="s">
-        <v>10262</v>
+        <v>11368</v>
       </c>
       <c r="E1" t="s">
-        <v>10263</v>
+        <v>11369</v>
       </c>
       <c r="F1" t="s">
-        <v>10264</v>
+        <v>11370</v>
       </c>
       <c r="G1" t="s">
-        <v>10265</v>
+        <v>11371</v>
       </c>
       <c r="H1" t="s">
-        <v>10266</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10189</v>
+        <v>11295</v>
       </c>
       <c r="B2" t="s">
-        <v>10226</v>
+        <v>11332</v>
       </c>
       <c r="C2" s="1">
         <v>-102236.23721409201</v>
@@ -33502,10 +36820,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10190</v>
+        <v>11296</v>
       </c>
       <c r="B3" t="s">
-        <v>10227</v>
+        <v>11333</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -33524,10 +36842,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10191</v>
+        <v>11297</v>
       </c>
       <c r="B4" t="s">
-        <v>10228</v>
+        <v>11334</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -33544,10 +36862,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10192</v>
+        <v>11298</v>
       </c>
       <c r="B5" t="s">
-        <v>10229</v>
+        <v>11335</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -33560,10 +36878,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10193</v>
+        <v>11299</v>
       </c>
       <c r="B6" t="s">
-        <v>10230</v>
+        <v>11336</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -33580,10 +36898,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10194</v>
+        <v>11300</v>
       </c>
       <c r="B7" t="s">
-        <v>10231</v>
+        <v>11337</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -33596,10 +36914,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10195</v>
+        <v>11301</v>
       </c>
       <c r="B8" t="s">
-        <v>10231</v>
+        <v>11337</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -33612,10 +36930,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10196</v>
+        <v>11302</v>
       </c>
       <c r="B9" t="s">
-        <v>10232</v>
+        <v>11338</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -33628,10 +36946,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10197</v>
+        <v>11303</v>
       </c>
       <c r="B10" t="s">
-        <v>10233</v>
+        <v>11339</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -33646,10 +36964,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10198</v>
+        <v>11304</v>
       </c>
       <c r="B11" t="s">
-        <v>10234</v>
+        <v>11340</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -33668,10 +36986,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10199</v>
+        <v>11305</v>
       </c>
       <c r="B12" t="s">
-        <v>10235</v>
+        <v>11341</v>
       </c>
       <c r="C12" s="1">
         <v>-83.070126027215935</v>
@@ -33690,10 +37008,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10200</v>
+        <v>11306</v>
       </c>
       <c r="B13" t="s">
-        <v>10236</v>
+        <v>11342</v>
       </c>
       <c r="C13" s="1">
         <v>144279.01796396461</v>
@@ -33716,10 +37034,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10201</v>
+        <v>11307</v>
       </c>
       <c r="B14" t="s">
-        <v>10237</v>
+        <v>11343</v>
       </c>
       <c r="C14" s="1">
         <v>32414.538114762661</v>
@@ -33742,10 +37060,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10202</v>
+        <v>11308</v>
       </c>
       <c r="B15" t="s">
-        <v>10238</v>
+        <v>11344</v>
       </c>
       <c r="C15" s="1">
         <v>111864.47984920201</v>
@@ -33766,10 +37084,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10203</v>
+        <v>11309</v>
       </c>
       <c r="B16" t="s">
-        <v>10239</v>
+        <v>11345</v>
       </c>
       <c r="C16" s="1">
         <v>101315.1098362044</v>
@@ -33792,10 +37110,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10204</v>
+        <v>11310</v>
       </c>
       <c r="B17" t="s">
-        <v>10240</v>
+        <v>11346</v>
       </c>
       <c r="C17" s="1">
         <v>526.84154559200761</v>
@@ -33816,10 +37134,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10205</v>
+        <v>11311</v>
       </c>
       <c r="B18" t="s">
-        <v>10241</v>
+        <v>11347</v>
       </c>
       <c r="C18" s="1">
         <v>1300.503467</v>
@@ -33840,10 +37158,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10206</v>
+        <v>11312</v>
       </c>
       <c r="B19" t="s">
-        <v>10242</v>
+        <v>11348</v>
       </c>
       <c r="C19" s="1">
         <v>1300.503467</v>
@@ -33862,10 +37180,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10207</v>
+        <v>11313</v>
       </c>
       <c r="B20" t="s">
-        <v>10243</v>
+        <v>11349</v>
       </c>
       <c r="C20" s="1">
         <v>16387.63379557012</v>
@@ -33888,10 +37206,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10208</v>
+        <v>11314</v>
       </c>
       <c r="B21" t="s">
-        <v>10244</v>
+        <v>11350</v>
       </c>
       <c r="C21" s="1">
         <v>97.490238000000005</v>
@@ -33910,10 +37228,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10209</v>
+        <v>11315</v>
       </c>
       <c r="B22" t="s">
-        <v>10245</v>
+        <v>11351</v>
       </c>
       <c r="C22" s="1">
         <v>1386.9169386399999</v>
@@ -33930,10 +37248,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10210</v>
+        <v>11316</v>
       </c>
       <c r="B23" t="s">
-        <v>10246</v>
+        <v>11352</v>
       </c>
       <c r="C23" s="1">
         <v>1117.864241</v>
@@ -33952,10 +37270,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10211</v>
+        <v>11317</v>
       </c>
       <c r="B24" t="s">
-        <v>10247</v>
+        <v>11353</v>
       </c>
       <c r="C24" s="1">
         <v>13785.36237793012</v>
@@ -33978,10 +37296,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10212</v>
+        <v>11318</v>
       </c>
       <c r="B25" t="s">
-        <v>10248</v>
+        <v>11354</v>
       </c>
       <c r="C25" s="1">
         <v>98850.343655568271</v>
@@ -34004,10 +37322,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10213</v>
+        <v>11319</v>
       </c>
       <c r="B26" t="s">
-        <v>10249</v>
+        <v>11355</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -34022,18 +37340,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10214</v>
+        <v>11320</v>
       </c>
       <c r="B27" t="s">
-        <v>10250</v>
+        <v>11356</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
+        <v>-25017.38878234318</v>
+      </c>
+      <c r="F27" s="1">
         <v>-25017.388782343201</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-25017.38878234318</v>
       </c>
       <c r="G27" s="1">
         <v>118456.4656790759</v>
@@ -34044,10 +37362,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10215</v>
+        <v>11321</v>
       </c>
       <c r="B28" t="s">
-        <v>10251</v>
+        <v>11357</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -34062,10 +37380,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10216</v>
+        <v>11322</v>
       </c>
       <c r="B29" t="s">
-        <v>10252</v>
+        <v>11358</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -34084,10 +37402,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10217</v>
+        <v>11323</v>
       </c>
       <c r="B30" t="s">
-        <v>10253</v>
+        <v>11359</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -34102,18 +37420,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10218</v>
+        <v>11324</v>
       </c>
       <c r="B31" t="s">
-        <v>10254</v>
+        <v>11360</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
+        <v>-25017.388782343201</v>
+      </c>
+      <c r="F31" s="1">
         <v>-25017.38878234318</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-25017.388782343201</v>
       </c>
       <c r="G31" s="1">
         <v>118456.4656790759</v>
@@ -34124,10 +37442,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10219</v>
+        <v>11325</v>
       </c>
       <c r="B32" t="s">
-        <v>10255</v>
+        <v>11361</v>
       </c>
       <c r="C32" s="1">
         <v>-3385.8935585237782</v>
@@ -34142,10 +37460,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10220</v>
+        <v>11326</v>
       </c>
       <c r="B33" t="s">
-        <v>10256</v>
+        <v>11362</v>
       </c>
       <c r="C33" s="1">
         <v>0.27703699999999998</v>
@@ -34168,10 +37486,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10221</v>
+        <v>11327</v>
       </c>
       <c r="B34" t="s">
-        <v>10257</v>
+        <v>11363</v>
       </c>
       <c r="C34" s="1">
         <v>-4009.0753441289771</v>
@@ -34194,10 +37512,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10221</v>
+        <v>11327</v>
       </c>
       <c r="B35" t="s">
-        <v>10257</v>
+        <v>11363</v>
       </c>
       <c r="C35" s="1">
         <v>-4009.0753441289712</v>
@@ -34220,10 +37538,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10222</v>
+        <v>11328</v>
       </c>
       <c r="B36" t="s">
-        <v>10258</v>
+        <v>11364</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -34238,39 +37556,39 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10223</v>
+        <v>11329</v>
       </c>
       <c r="B37" t="s">
-        <v>10259</v>
+        <v>11365</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>1378.685344355712</v>
+        <v>201604.21968480741</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="1">
+        <v>337.34758922499998</v>
+      </c>
+      <c r="H37" s="1">
+        <v>253381.7166756459</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10224</v>
+        <v>11330</v>
       </c>
       <c r="B38" t="s">
-        <v>10260</v>
+        <v>11366</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>201604.21968480741</v>
+        <v>1378.685344355712</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>337.34758922499998</v>
-      </c>
-      <c r="H38" s="1">
-        <v>253381.7166756459</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -34283,36 +37601,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10267</v>
+        <v>11373</v>
       </c>
       <c r="B1" t="s">
-        <v>10304</v>
+        <v>11410</v>
       </c>
       <c r="C1" t="s">
-        <v>10340</v>
+        <v>11446</v>
       </c>
       <c r="D1" t="s">
-        <v>10341</v>
+        <v>11447</v>
       </c>
       <c r="E1" t="s">
-        <v>10342</v>
+        <v>11448</v>
       </c>
       <c r="F1" t="s">
-        <v>10343</v>
+        <v>11449</v>
       </c>
       <c r="G1" t="s">
-        <v>10344</v>
+        <v>11450</v>
       </c>
       <c r="H1" t="s">
-        <v>10345</v>
+        <v>11451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10268</v>
+        <v>11374</v>
       </c>
       <c r="B2" t="s">
-        <v>10305</v>
+        <v>11411</v>
       </c>
       <c r="C2" s="1">
         <v>-101427.2938489076</v>
@@ -34327,10 +37645,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10269</v>
+        <v>11375</v>
       </c>
       <c r="B3" t="s">
-        <v>10306</v>
+        <v>11412</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -34349,10 +37667,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10270</v>
+        <v>11376</v>
       </c>
       <c r="B4" t="s">
-        <v>10307</v>
+        <v>11413</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -34369,10 +37687,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10271</v>
+        <v>11377</v>
       </c>
       <c r="B5" t="s">
-        <v>10308</v>
+        <v>11414</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -34385,10 +37703,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10272</v>
+        <v>11378</v>
       </c>
       <c r="B6" t="s">
-        <v>10309</v>
+        <v>11415</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -34405,10 +37723,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10273</v>
+        <v>11379</v>
       </c>
       <c r="B7" t="s">
-        <v>10310</v>
+        <v>11416</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -34421,10 +37739,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10274</v>
+        <v>11380</v>
       </c>
       <c r="B8" t="s">
-        <v>10310</v>
+        <v>11416</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -34437,10 +37755,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10275</v>
+        <v>11381</v>
       </c>
       <c r="B9" t="s">
-        <v>10311</v>
+        <v>11417</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -34453,10 +37771,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10276</v>
+        <v>11382</v>
       </c>
       <c r="B10" t="s">
-        <v>10312</v>
+        <v>11418</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -34471,10 +37789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10277</v>
+        <v>11383</v>
       </c>
       <c r="B11" t="s">
-        <v>10313</v>
+        <v>11419</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -34493,10 +37811,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10278</v>
+        <v>11384</v>
       </c>
       <c r="B12" t="s">
-        <v>10314</v>
+        <v>11420</v>
       </c>
       <c r="C12" s="1">
         <v>-92.934358778526615</v>
@@ -34515,10 +37833,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10279</v>
+        <v>11385</v>
       </c>
       <c r="B13" t="s">
-        <v>10315</v>
+        <v>11421</v>
       </c>
       <c r="C13" s="1">
         <v>162249.8021316196</v>
@@ -34541,10 +37859,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10280</v>
+        <v>11386</v>
       </c>
       <c r="B14" t="s">
-        <v>10316</v>
+        <v>11422</v>
       </c>
       <c r="C14" s="1">
         <v>43179.357846405859</v>
@@ -34567,10 +37885,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10281</v>
+        <v>11387</v>
       </c>
       <c r="B15" t="s">
-        <v>10317</v>
+        <v>11423</v>
       </c>
       <c r="C15" s="1">
         <v>119070.4442852137</v>
@@ -34591,10 +37909,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10282</v>
+        <v>11388</v>
       </c>
       <c r="B16" t="s">
-        <v>10318</v>
+        <v>11424</v>
       </c>
       <c r="C16" s="1">
         <v>111072.9372501466</v>
@@ -34617,10 +37935,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10283</v>
+        <v>11389</v>
       </c>
       <c r="B17" t="s">
-        <v>10319</v>
+        <v>11425</v>
       </c>
       <c r="C17" s="1">
         <v>455.25087191519339</v>
@@ -34641,10 +37959,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10284</v>
+        <v>11390</v>
       </c>
       <c r="B18" t="s">
-        <v>10320</v>
+        <v>11426</v>
       </c>
       <c r="C18" s="1">
         <v>1486.8528134281901</v>
@@ -34665,10 +37983,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10285</v>
+        <v>11391</v>
       </c>
       <c r="B19" t="s">
-        <v>10321</v>
+        <v>11427</v>
       </c>
       <c r="C19" s="1">
         <v>1486.8528134281901</v>
@@ -34687,10 +38005,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10286</v>
+        <v>11392</v>
       </c>
       <c r="B20" t="s">
-        <v>10322</v>
+        <v>11428</v>
       </c>
       <c r="C20" s="1">
         <v>19645.88621086465</v>
@@ -34713,10 +38031,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10287</v>
+        <v>11393</v>
       </c>
       <c r="B21" t="s">
-        <v>10323</v>
+        <v>11429</v>
       </c>
       <c r="C21" s="1">
         <v>1.3780870000000001</v>
@@ -34735,10 +38053,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10288</v>
+        <v>11394</v>
       </c>
       <c r="B22" t="s">
-        <v>10324</v>
+        <v>11430</v>
       </c>
       <c r="C22" s="1">
         <v>1680.6084285300001</v>
@@ -34755,10 +38073,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10289</v>
+        <v>11395</v>
       </c>
       <c r="B23" t="s">
-        <v>10325</v>
+        <v>11431</v>
       </c>
       <c r="C23" s="1">
         <v>1167.0419095569939</v>
@@ -34777,10 +38095,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10290</v>
+        <v>11396</v>
       </c>
       <c r="B24" t="s">
-        <v>10326</v>
+        <v>11432</v>
       </c>
       <c r="C24" s="1">
         <v>16796.857785777662</v>
@@ -34803,10 +38121,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10291</v>
+        <v>11397</v>
       </c>
       <c r="B25" t="s">
-        <v>10327</v>
+        <v>11433</v>
       </c>
       <c r="C25" s="1">
         <v>108339.94151571881</v>
@@ -34829,10 +38147,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10292</v>
+        <v>11398</v>
       </c>
       <c r="B26" t="s">
-        <v>10328</v>
+        <v>11434</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -34845,10 +38163,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10293</v>
+        <v>11399</v>
       </c>
       <c r="B27" t="s">
-        <v>10329</v>
+        <v>11435</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -34867,10 +38185,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10294</v>
+        <v>11400</v>
       </c>
       <c r="B28" t="s">
-        <v>10330</v>
+        <v>11436</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -34885,10 +38203,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10295</v>
+        <v>11401</v>
       </c>
       <c r="B29" t="s">
-        <v>10331</v>
+        <v>11437</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -34907,10 +38225,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10296</v>
+        <v>11402</v>
       </c>
       <c r="B30" t="s">
-        <v>10332</v>
+        <v>11438</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -34923,10 +38241,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10297</v>
+        <v>11403</v>
       </c>
       <c r="B31" t="s">
-        <v>10333</v>
+        <v>11439</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -34945,10 +38263,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10298</v>
+        <v>11404</v>
       </c>
       <c r="B32" t="s">
-        <v>10334</v>
+        <v>11440</v>
       </c>
       <c r="C32" s="1">
         <v>6912.6476668112009</v>
@@ -34963,10 +38281,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10299</v>
+        <v>11405</v>
       </c>
       <c r="B33" t="s">
-        <v>10335</v>
+        <v>11441</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -34987,25 +38305,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10300</v>
+        <v>11406</v>
       </c>
       <c r="B34" t="s">
-        <v>10336</v>
+        <v>11442</v>
       </c>
       <c r="C34" s="1">
         <v>5442.5976345336867</v>
       </c>
       <c r="D34" s="1">
-        <v>5442.5976345336867</v>
+        <v>5442.5976345336967</v>
       </c>
       <c r="E34" s="1">
-        <v>-49773.892247343349</v>
+        <v>-49773.892247342999</v>
       </c>
       <c r="F34" s="1">
-        <v>-49773.892247343349</v>
+        <v>-49773.892247342999</v>
       </c>
       <c r="G34" s="1">
-        <v>33283.712597372418</v>
+        <v>33283.712597372112</v>
       </c>
       <c r="H34" s="1">
         <v>33283.712597372418</v>
@@ -35013,25 +38331,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10300</v>
+        <v>11406</v>
       </c>
       <c r="B35" t="s">
-        <v>10336</v>
+        <v>11442</v>
       </c>
       <c r="C35" s="1">
         <v>5442.5976345336967</v>
       </c>
       <c r="D35" s="1">
-        <v>5442.5976345336967</v>
+        <v>5442.5976345336867</v>
       </c>
       <c r="E35" s="1">
-        <v>-49773.892247342999</v>
+        <v>-49773.892247343349</v>
       </c>
       <c r="F35" s="1">
-        <v>-49773.892247342999</v>
+        <v>-49773.892247343349</v>
       </c>
       <c r="G35" s="1">
-        <v>33283.712597372112</v>
+        <v>33283.712597372418</v>
       </c>
       <c r="H35" s="1">
         <v>33283.712597372112</v>
@@ -35039,10 +38357,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10301</v>
+        <v>11407</v>
       </c>
       <c r="B36" t="s">
-        <v>10337</v>
+        <v>11443</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -35059,10 +38377,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10302</v>
+        <v>11408</v>
       </c>
       <c r="B37" t="s">
-        <v>10338</v>
+        <v>11444</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -35075,10 +38393,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10303</v>
+        <v>11409</v>
       </c>
       <c r="B38" t="s">
-        <v>10339</v>
+        <v>11445</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -35102,36 +38420,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10346</v>
+        <v>11452</v>
       </c>
       <c r="B1" t="s">
-        <v>10383</v>
+        <v>11489</v>
       </c>
       <c r="C1" t="s">
-        <v>10419</v>
+        <v>11525</v>
       </c>
       <c r="D1" t="s">
-        <v>10420</v>
+        <v>11526</v>
       </c>
       <c r="E1" t="s">
-        <v>10421</v>
+        <v>11527</v>
       </c>
       <c r="F1" t="s">
-        <v>10422</v>
+        <v>11528</v>
       </c>
       <c r="G1" t="s">
-        <v>10423</v>
+        <v>11529</v>
       </c>
       <c r="H1" t="s">
-        <v>10424</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10347</v>
+        <v>11453</v>
       </c>
       <c r="B2" t="s">
-        <v>10384</v>
+        <v>11490</v>
       </c>
       <c r="C2" s="1">
         <v>-132325.81806931089</v>
@@ -35146,10 +38464,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10348</v>
+        <v>11454</v>
       </c>
       <c r="B3" t="s">
-        <v>10385</v>
+        <v>11491</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -35168,10 +38486,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10349</v>
+        <v>11455</v>
       </c>
       <c r="B4" t="s">
-        <v>10386</v>
+        <v>11492</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -35188,10 +38506,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10350</v>
+        <v>11456</v>
       </c>
       <c r="B5" t="s">
-        <v>10387</v>
+        <v>11493</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -35204,10 +38522,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10351</v>
+        <v>11457</v>
       </c>
       <c r="B6" t="s">
-        <v>10388</v>
+        <v>11494</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -35224,10 +38542,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10352</v>
+        <v>11458</v>
       </c>
       <c r="B7" t="s">
-        <v>10389</v>
+        <v>11495</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -35240,10 +38558,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10353</v>
+        <v>11459</v>
       </c>
       <c r="B8" t="s">
-        <v>10389</v>
+        <v>11495</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -35256,10 +38574,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10354</v>
+        <v>11460</v>
       </c>
       <c r="B9" t="s">
-        <v>10390</v>
+        <v>11496</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -35272,10 +38590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10355</v>
+        <v>11461</v>
       </c>
       <c r="B10" t="s">
-        <v>10391</v>
+        <v>11497</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -35290,10 +38608,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10356</v>
+        <v>11462</v>
       </c>
       <c r="B11" t="s">
-        <v>10392</v>
+        <v>11498</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -35312,10 +38630,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10357</v>
+        <v>11463</v>
       </c>
       <c r="B12" t="s">
-        <v>10393</v>
+        <v>11499</v>
       </c>
       <c r="C12" s="1">
         <v>-111.3731775422125</v>
@@ -35334,10 +38652,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10358</v>
+        <v>11464</v>
       </c>
       <c r="B13" t="s">
-        <v>10394</v>
+        <v>11500</v>
       </c>
       <c r="C13" s="1">
         <v>160506.74429795379</v>
@@ -35360,10 +38678,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10359</v>
+        <v>11465</v>
       </c>
       <c r="B14" t="s">
-        <v>10395</v>
+        <v>11501</v>
       </c>
       <c r="C14" s="1">
         <v>47266.390163401513</v>
@@ -35386,10 +38704,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10360</v>
+        <v>11466</v>
       </c>
       <c r="B15" t="s">
-        <v>10396</v>
+        <v>11502</v>
       </c>
       <c r="C15" s="1">
         <v>113240.3541345523</v>
@@ -35410,10 +38728,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10361</v>
+        <v>11467</v>
       </c>
       <c r="B16" t="s">
-        <v>10397</v>
+        <v>11503</v>
       </c>
       <c r="C16" s="1">
         <v>106078.98298231589</v>
@@ -35436,10 +38754,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10362</v>
+        <v>11468</v>
       </c>
       <c r="B17" t="s">
-        <v>10398</v>
+        <v>11504</v>
       </c>
       <c r="C17" s="1">
         <v>376.90302765656929</v>
@@ -35460,10 +38778,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10363</v>
+        <v>11469</v>
       </c>
       <c r="B18" t="s">
-        <v>10399</v>
+        <v>11505</v>
       </c>
       <c r="C18" s="1">
         <v>1655.657643517555</v>
@@ -35484,10 +38802,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10364</v>
+        <v>11470</v>
       </c>
       <c r="B19" t="s">
-        <v>10400</v>
+        <v>11506</v>
       </c>
       <c r="C19" s="1">
         <v>1655.657643517555</v>
@@ -35506,10 +38824,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10365</v>
+        <v>11471</v>
       </c>
       <c r="B20" t="s">
-        <v>10401</v>
+        <v>11507</v>
       </c>
       <c r="C20" s="1">
         <v>22226.602795191338</v>
@@ -35532,10 +38850,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10366</v>
+        <v>11472</v>
       </c>
       <c r="B21" t="s">
-        <v>10402</v>
+        <v>11508</v>
       </c>
       <c r="C21" s="1">
         <v>2.9676309999999999</v>
@@ -35554,10 +38872,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10367</v>
+        <v>11473</v>
       </c>
       <c r="B22" t="s">
-        <v>10403</v>
+        <v>11509</v>
       </c>
       <c r="C22" s="1">
         <v>2646.0630505200002</v>
@@ -35574,10 +38892,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10368</v>
+        <v>11474</v>
       </c>
       <c r="B23" t="s">
-        <v>10404</v>
+        <v>11510</v>
       </c>
       <c r="C23" s="1">
         <v>1452.5266412882031</v>
@@ -35596,10 +38914,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10369</v>
+        <v>11475</v>
       </c>
       <c r="B24" t="s">
-        <v>10405</v>
+        <v>11511</v>
       </c>
       <c r="C24" s="1">
         <v>18125.045472383139</v>
@@ -35622,10 +38940,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10370</v>
+        <v>11476</v>
       </c>
       <c r="B25" t="s">
-        <v>10406</v>
+        <v>11512</v>
       </c>
       <c r="C25" s="1">
         <v>103687.46021795391</v>
@@ -35648,10 +38966,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10371</v>
+        <v>11477</v>
       </c>
       <c r="B26" t="s">
-        <v>10407</v>
+        <v>11513</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -35664,10 +38982,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10372</v>
+        <v>11478</v>
       </c>
       <c r="B27" t="s">
-        <v>10408</v>
+        <v>11514</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -35675,7 +38993,7 @@
         <v>-47487.012322160852</v>
       </c>
       <c r="F27" s="1">
-        <v>-47487.012322160823</v>
+        <v>-47487.012322160852</v>
       </c>
       <c r="G27" s="1">
         <v>137422.3722114753</v>
@@ -35686,10 +39004,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10373</v>
+        <v>11479</v>
       </c>
       <c r="B28" t="s">
-        <v>10409</v>
+        <v>11515</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -35704,10 +39022,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10374</v>
+        <v>11480</v>
       </c>
       <c r="B29" t="s">
-        <v>10410</v>
+        <v>11516</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -35726,10 +39044,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10375</v>
+        <v>11481</v>
       </c>
       <c r="B30" t="s">
-        <v>10411</v>
+        <v>11517</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -35742,10 +39060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10376</v>
+        <v>11482</v>
       </c>
       <c r="B31" t="s">
-        <v>10412</v>
+        <v>11518</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -35753,7 +39071,7 @@
         <v>-47487.012322160823</v>
       </c>
       <c r="F31" s="1">
-        <v>-47487.012322160852</v>
+        <v>-47487.012322160823</v>
       </c>
       <c r="G31" s="1">
         <v>137422.3722114753</v>
@@ -35764,10 +39082,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10377</v>
+        <v>11483</v>
       </c>
       <c r="B32" t="s">
-        <v>10413</v>
+        <v>11519</v>
       </c>
       <c r="C32" s="1">
         <v>-28638.357851356981</v>
@@ -35782,10 +39100,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10378</v>
+        <v>11484</v>
       </c>
       <c r="B33" t="s">
-        <v>10414</v>
+        <v>11520</v>
       </c>
       <c r="C33" s="1">
         <v>13.58729015431644</v>
@@ -35808,10 +39126,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10379</v>
+        <v>11485</v>
       </c>
       <c r="B34" t="s">
-        <v>10415</v>
+        <v>11521</v>
       </c>
       <c r="C34" s="1">
         <v>-14516.140951382629</v>
@@ -35823,21 +39141,21 @@
         <v>-63947.039175029808</v>
       </c>
       <c r="F34" s="1">
-        <v>-63947.039175029808</v>
+        <v>-63947.039175030113</v>
       </c>
       <c r="G34" s="1">
         <v>39248.472782472993</v>
       </c>
       <c r="H34" s="1">
-        <v>39248.472782472847</v>
+        <v>39248.472782472993</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10379</v>
+        <v>11485</v>
       </c>
       <c r="B35" t="s">
-        <v>10415</v>
+        <v>11521</v>
       </c>
       <c r="C35" s="1">
         <v>-14516.15048177604</v>
@@ -35849,21 +39167,21 @@
         <v>-63947.039175030113</v>
       </c>
       <c r="F35" s="1">
-        <v>-63947.039175030113</v>
+        <v>-63947.039175029808</v>
       </c>
       <c r="G35" s="1">
         <v>39248.472782472847</v>
       </c>
       <c r="H35" s="1">
-        <v>39248.472782472993</v>
+        <v>39248.472782472847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10380</v>
+        <v>11486</v>
       </c>
       <c r="B36" t="s">
-        <v>10416</v>
+        <v>11522</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -35880,10 +39198,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10381</v>
+        <v>11487</v>
       </c>
       <c r="B37" t="s">
-        <v>10417</v>
+        <v>11523</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -35898,10 +39216,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10382</v>
+        <v>11488</v>
       </c>
       <c r="B38" t="s">
-        <v>10418</v>
+        <v>11524</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -35923,36 +39241,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10425</v>
+        <v>11531</v>
       </c>
       <c r="B1" t="s">
-        <v>10462</v>
+        <v>11568</v>
       </c>
       <c r="C1" t="s">
-        <v>10498</v>
+        <v>11604</v>
       </c>
       <c r="D1" t="s">
-        <v>10499</v>
+        <v>11605</v>
       </c>
       <c r="E1" t="s">
-        <v>10500</v>
+        <v>11606</v>
       </c>
       <c r="F1" t="s">
-        <v>10501</v>
+        <v>11607</v>
       </c>
       <c r="G1" t="s">
-        <v>10502</v>
+        <v>11608</v>
       </c>
       <c r="H1" t="s">
-        <v>10503</v>
+        <v>11609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10426</v>
+        <v>11532</v>
       </c>
       <c r="B2" t="s">
-        <v>10463</v>
+        <v>11569</v>
       </c>
       <c r="C2" s="1">
         <v>-104514.67406784389</v>
@@ -35967,10 +39285,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10427</v>
+        <v>11533</v>
       </c>
       <c r="B3" t="s">
-        <v>10464</v>
+        <v>11570</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -35989,10 +39307,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10428</v>
+        <v>11534</v>
       </c>
       <c r="B4" t="s">
-        <v>10465</v>
+        <v>11571</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -36009,10 +39327,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10429</v>
+        <v>11535</v>
       </c>
       <c r="B5" t="s">
-        <v>10466</v>
+        <v>11572</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -36025,10 +39343,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10430</v>
+        <v>11536</v>
       </c>
       <c r="B6" t="s">
-        <v>10467</v>
+        <v>11573</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -36045,10 +39363,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10431</v>
+        <v>11537</v>
       </c>
       <c r="B7" t="s">
-        <v>10468</v>
+        <v>11574</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -36061,10 +39379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10432</v>
+        <v>11538</v>
       </c>
       <c r="B8" t="s">
-        <v>10468</v>
+        <v>11574</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -36077,10 +39395,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10433</v>
+        <v>11539</v>
       </c>
       <c r="B9" t="s">
-        <v>10469</v>
+        <v>11575</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -36093,10 +39411,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10434</v>
+        <v>11540</v>
       </c>
       <c r="B10" t="s">
-        <v>10470</v>
+        <v>11576</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -36111,10 +39429,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10435</v>
+        <v>11541</v>
       </c>
       <c r="B11" t="s">
-        <v>10471</v>
+        <v>11577</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -36133,10 +39451,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10436</v>
+        <v>11542</v>
       </c>
       <c r="B12" t="s">
-        <v>10472</v>
+        <v>11578</v>
       </c>
       <c r="C12" s="1">
         <v>-149.5741136579793</v>
@@ -36155,10 +39473,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10437</v>
+        <v>11543</v>
       </c>
       <c r="B13" t="s">
-        <v>10473</v>
+        <v>11579</v>
       </c>
       <c r="C13" s="1">
         <v>151856.17438438139</v>
@@ -36181,10 +39499,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10438</v>
+        <v>11544</v>
       </c>
       <c r="B14" t="s">
-        <v>10474</v>
+        <v>11580</v>
       </c>
       <c r="C14" s="1">
         <v>54754.723496312057</v>
@@ -36207,10 +39525,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10439</v>
+        <v>11545</v>
       </c>
       <c r="B15" t="s">
-        <v>10475</v>
+        <v>11581</v>
       </c>
       <c r="C15" s="1">
         <v>97101.450888069332</v>
@@ -36229,10 +39547,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10440</v>
+        <v>11546</v>
       </c>
       <c r="B16" t="s">
-        <v>10476</v>
+        <v>11582</v>
       </c>
       <c r="C16" s="1">
         <v>121151.1679762976</v>
@@ -36255,10 +39573,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10441</v>
+        <v>11547</v>
       </c>
       <c r="B17" t="s">
-        <v>10477</v>
+        <v>11583</v>
       </c>
       <c r="C17" s="1">
         <v>829.94672213900139</v>
@@ -36279,10 +39597,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10442</v>
+        <v>11548</v>
       </c>
       <c r="B18" t="s">
-        <v>10478</v>
+        <v>11584</v>
       </c>
       <c r="C18" s="1">
         <v>1851.55709250523</v>
@@ -36303,10 +39621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10443</v>
+        <v>11549</v>
       </c>
       <c r="B19" t="s">
-        <v>10479</v>
+        <v>11585</v>
       </c>
       <c r="C19" s="1">
         <v>1851.55709250523</v>
@@ -36325,10 +39643,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10444</v>
+        <v>11550</v>
       </c>
       <c r="B20" t="s">
-        <v>10480</v>
+        <v>11586</v>
       </c>
       <c r="C20" s="1">
         <v>13110.58352570426</v>
@@ -36351,10 +39669,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10445</v>
+        <v>11551</v>
       </c>
       <c r="B21" t="s">
-        <v>10481</v>
+        <v>11587</v>
       </c>
       <c r="C21" s="1">
         <v>1.421961</v>
@@ -36373,10 +39691,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10446</v>
+        <v>11552</v>
       </c>
       <c r="B22" t="s">
-        <v>10482</v>
+        <v>11588</v>
       </c>
       <c r="C22" s="1">
         <v>2008.0292188799999</v>
@@ -36393,10 +39711,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10447</v>
+        <v>11553</v>
       </c>
       <c r="B23" t="s">
-        <v>10483</v>
+        <v>11589</v>
       </c>
       <c r="C23" s="1">
         <v>728.95224428820325</v>
@@ -36415,10 +39733,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10448</v>
+        <v>11554</v>
       </c>
       <c r="B24" t="s">
-        <v>10484</v>
+        <v>11590</v>
       </c>
       <c r="C24" s="1">
         <v>10372.18010153606</v>
@@ -36441,10 +39759,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10449</v>
+        <v>11555</v>
       </c>
       <c r="B25" t="s">
-        <v>10485</v>
+        <v>11591</v>
       </c>
       <c r="C25" s="1">
         <v>117812.0378742148</v>
@@ -36467,10 +39785,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10450</v>
+        <v>11556</v>
       </c>
       <c r="B26" t="s">
-        <v>10486</v>
+        <v>11592</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -36483,10 +39801,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10451</v>
+        <v>11557</v>
       </c>
       <c r="B27" t="s">
-        <v>10487</v>
+        <v>11593</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -36505,10 +39823,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10452</v>
+        <v>11558</v>
       </c>
       <c r="B28" t="s">
-        <v>10488</v>
+        <v>11594</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -36523,10 +39841,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10453</v>
+        <v>11559</v>
       </c>
       <c r="B29" t="s">
-        <v>10489</v>
+        <v>11595</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -36545,10 +39863,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10454</v>
+        <v>11560</v>
       </c>
       <c r="B30" t="s">
-        <v>10490</v>
+        <v>11596</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -36561,10 +39879,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10455</v>
+        <v>11561</v>
       </c>
       <c r="B31" t="s">
-        <v>10491</v>
+        <v>11597</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -36583,10 +39901,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10456</v>
+        <v>11562</v>
       </c>
       <c r="B32" t="s">
-        <v>10492</v>
+        <v>11598</v>
       </c>
       <c r="C32" s="1">
         <v>13297.36380637088</v>
@@ -36601,10 +39919,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10457</v>
+        <v>11563</v>
       </c>
       <c r="B33" t="s">
-        <v>10493</v>
+        <v>11599</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -36625,16 +39943,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10458</v>
+        <v>11564</v>
       </c>
       <c r="B34" t="s">
-        <v>10494</v>
+        <v>11600</v>
       </c>
       <c r="C34" s="1">
         <v>10171.468589380889</v>
       </c>
       <c r="D34" s="1">
-        <v>10171.468589380889</v>
+        <v>10171.459058987501</v>
       </c>
       <c r="E34" s="1">
         <v>-79545.106801385089</v>
@@ -36651,16 +39969,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10458</v>
+        <v>11564</v>
       </c>
       <c r="B35" t="s">
-        <v>10494</v>
+        <v>11600</v>
       </c>
       <c r="C35" s="1">
         <v>10171.459058987501</v>
       </c>
       <c r="D35" s="1">
-        <v>10171.459058987501</v>
+        <v>10171.468589380889</v>
       </c>
       <c r="E35" s="1">
         <v>-79545.106801385089</v>
@@ -36677,48 +39995,48 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10459</v>
+        <v>11565</v>
       </c>
       <c r="B36" t="s">
-        <v>10495</v>
+        <v>11601</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>250754.8245620098</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>442.30808405340002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>313181.58741649322</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10460</v>
+        <v>11566</v>
       </c>
       <c r="B37" t="s">
-        <v>10496</v>
+        <v>11602</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>250754.8245620098</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>442.30808405340002</v>
-      </c>
-      <c r="H37" s="1">
-        <v>313181.58741649322</v>
-      </c>
+        <v>242248.42014405999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>242248.42014405999</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10461</v>
+        <v>11567</v>
       </c>
       <c r="B38" t="s">
-        <v>10497</v>
+        <v>11603</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -36740,36 +40058,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10504</v>
+        <v>11610</v>
       </c>
       <c r="B1" t="s">
-        <v>10541</v>
+        <v>11647</v>
       </c>
       <c r="C1" t="s">
-        <v>10577</v>
+        <v>11683</v>
       </c>
       <c r="D1" t="s">
-        <v>10578</v>
+        <v>11684</v>
       </c>
       <c r="E1" t="s">
-        <v>10579</v>
+        <v>11685</v>
       </c>
       <c r="F1" t="s">
-        <v>10580</v>
+        <v>11686</v>
       </c>
       <c r="G1" t="s">
-        <v>10581</v>
+        <v>11687</v>
       </c>
       <c r="H1" t="s">
-        <v>10582</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10505</v>
+        <v>11611</v>
       </c>
       <c r="B2" t="s">
-        <v>10542</v>
+        <v>11648</v>
       </c>
       <c r="C2" s="1">
         <v>-200371.3593658637</v>
@@ -36784,10 +40102,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10506</v>
+        <v>11612</v>
       </c>
       <c r="B3" t="s">
-        <v>10543</v>
+        <v>11649</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -36806,10 +40124,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10507</v>
+        <v>11613</v>
       </c>
       <c r="B4" t="s">
-        <v>10544</v>
+        <v>11650</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -36826,10 +40144,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10508</v>
+        <v>11614</v>
       </c>
       <c r="B5" t="s">
-        <v>10545</v>
+        <v>11651</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -36842,10 +40160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10509</v>
+        <v>11615</v>
       </c>
       <c r="B6" t="s">
-        <v>10546</v>
+        <v>11652</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -36862,10 +40180,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10510</v>
+        <v>11616</v>
       </c>
       <c r="B7" t="s">
-        <v>10547</v>
+        <v>11653</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -36878,10 +40196,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10511</v>
+        <v>11617</v>
       </c>
       <c r="B8" t="s">
-        <v>10547</v>
+        <v>11653</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -36894,10 +40212,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10512</v>
+        <v>11618</v>
       </c>
       <c r="B9" t="s">
-        <v>10548</v>
+        <v>11654</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -36910,10 +40228,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10513</v>
+        <v>11619</v>
       </c>
       <c r="B10" t="s">
-        <v>10549</v>
+        <v>11655</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -36928,10 +40246,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10514</v>
+        <v>11620</v>
       </c>
       <c r="B11" t="s">
-        <v>10550</v>
+        <v>11656</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -36950,10 +40268,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10515</v>
+        <v>11621</v>
       </c>
       <c r="B12" t="s">
-        <v>10551</v>
+        <v>11657</v>
       </c>
       <c r="C12" s="1">
         <v>-155.06439238415939</v>
@@ -36972,10 +40290,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10516</v>
+        <v>11622</v>
       </c>
       <c r="B13" t="s">
-        <v>10552</v>
+        <v>11658</v>
       </c>
       <c r="C13" s="1">
         <v>314231.27904663578</v>
@@ -36998,10 +40316,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>10517</v>
+        <v>11623</v>
       </c>
       <c r="B14" t="s">
-        <v>10553</v>
+        <v>11659</v>
       </c>
       <c r="C14" s="1">
         <v>51456.424245716291</v>
@@ -37024,10 +40342,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10518</v>
+        <v>11624</v>
       </c>
       <c r="B15" t="s">
-        <v>10554</v>
+        <v>11660</v>
       </c>
       <c r="C15" s="1">
         <v>262774.85480091948</v>
@@ -37046,10 +40364,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>10519</v>
+        <v>11625</v>
       </c>
       <c r="B16" t="s">
-        <v>10555</v>
+        <v>11661</v>
       </c>
       <c r="C16" s="1">
         <v>265585.17502668808</v>
@@ -37072,10 +40390,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>10520</v>
+        <v>11626</v>
       </c>
       <c r="B17" t="s">
-        <v>10556</v>
+        <v>11662</v>
       </c>
       <c r="C17" s="1">
         <v>1300.758691809164</v>
@@ -37096,10 +40414,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>10521</v>
+        <v>11627</v>
       </c>
       <c r="B18" t="s">
-        <v>10557</v>
+        <v>11663</v>
       </c>
       <c r="C18" s="1">
         <v>2035.2769079008131</v>
@@ -37120,10 +40438,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>10522</v>
+        <v>11628</v>
       </c>
       <c r="B19" t="s">
-        <v>10558</v>
+        <v>11664</v>
       </c>
       <c r="C19" s="1">
         <v>2035.2769079008131</v>
@@ -37142,10 +40460,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10523</v>
+        <v>11629</v>
       </c>
       <c r="B20" t="s">
-        <v>10559</v>
+        <v>11665</v>
       </c>
       <c r="C20" s="1">
         <v>13142.94333128056</v>
@@ -37168,10 +40486,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>10524</v>
+        <v>11630</v>
       </c>
       <c r="B21" t="s">
-        <v>10560</v>
+        <v>11666</v>
       </c>
       <c r="C21" s="1">
         <v>1.218183</v>
@@ -37190,10 +40508,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10525</v>
+        <v>11631</v>
       </c>
       <c r="B22" t="s">
-        <v>10561</v>
+        <v>11667</v>
       </c>
       <c r="C22" s="1">
         <v>1687.2726680000001</v>
@@ -37210,10 +40528,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>10526</v>
+        <v>11632</v>
       </c>
       <c r="B23" t="s">
-        <v>10562</v>
+        <v>11668</v>
       </c>
       <c r="C23" s="1">
         <v>2336.210388476667</v>
@@ -37232,10 +40550,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>10527</v>
+        <v>11633</v>
       </c>
       <c r="B24" t="s">
-        <v>10563</v>
+        <v>11669</v>
       </c>
       <c r="C24" s="1">
         <v>9118.2420918038915</v>
@@ -37258,10 +40576,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>10528</v>
+        <v>11634</v>
       </c>
       <c r="B25" t="s">
-        <v>10564</v>
+        <v>11670</v>
       </c>
       <c r="C25" s="1">
         <v>262376.75111480377</v>
@@ -37284,10 +40602,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10529</v>
+        <v>11635</v>
       </c>
       <c r="B26" t="s">
-        <v>10565</v>
+        <v>11671</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -37300,18 +40618,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>10530</v>
+        <v>11636</v>
       </c>
       <c r="B27" t="s">
-        <v>10566</v>
+        <v>11672</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="F27" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="G27" s="1">
         <v>147140.71535390709</v>
@@ -37322,10 +40640,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10531</v>
+        <v>11637</v>
       </c>
       <c r="B28" t="s">
-        <v>10567</v>
+        <v>11673</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -37340,10 +40658,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>10532</v>
+        <v>11638</v>
       </c>
       <c r="B29" t="s">
-        <v>10568</v>
+        <v>11674</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -37362,10 +40680,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>10533</v>
+        <v>11639</v>
       </c>
       <c r="B30" t="s">
-        <v>10569</v>
+        <v>11675</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -37378,18 +40696,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>10534</v>
+        <v>11640</v>
       </c>
       <c r="B31" t="s">
-        <v>10570</v>
+        <v>11676</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="F31" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="G31" s="1">
         <v>147140.71535390709</v>
@@ -37400,10 +40718,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>10535</v>
+        <v>11641</v>
       </c>
       <c r="B32" t="s">
-        <v>10571</v>
+        <v>11677</v>
       </c>
       <c r="C32" s="1">
         <v>62005.391748940048</v>
@@ -37418,10 +40736,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>10536</v>
+        <v>11642</v>
       </c>
       <c r="B33" t="s">
-        <v>10572</v>
+        <v>11678</v>
       </c>
       <c r="C33" s="1">
         <v>86.331224277060215</v>
@@ -37444,10 +40762,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>10537</v>
+        <v>11643</v>
       </c>
       <c r="B34" t="s">
-        <v>10573</v>
+        <v>11679</v>
       </c>
       <c r="C34" s="1">
         <v>63134.524836636163</v>
@@ -37462,18 +40780,18 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G34" s="1">
-        <v>50492.474199902237</v>
+        <v>50492.474199901873</v>
       </c>
       <c r="H34" s="1">
-        <v>50492.474199902237</v>
+        <v>50492.474199901873</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>10537</v>
+        <v>11643</v>
       </c>
       <c r="B35" t="s">
-        <v>10573</v>
+        <v>11679</v>
       </c>
       <c r="C35" s="1">
         <v>63134.515306242713</v>
@@ -37488,18 +40806,18 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G35" s="1">
-        <v>50492.474199901873</v>
+        <v>50492.474199902237</v>
       </c>
       <c r="H35" s="1">
-        <v>50492.474199901873</v>
+        <v>50492.474199902237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>10538</v>
+        <v>11644</v>
       </c>
       <c r="B36" t="s">
-        <v>10574</v>
+        <v>11680</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -37516,10 +40834,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>10539</v>
+        <v>11645</v>
       </c>
       <c r="B37" t="s">
-        <v>10575</v>
+        <v>11681</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -37534,10 +40852,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>10540</v>
+        <v>11646</v>
       </c>
       <c r="B38" t="s">
-        <v>10576</v>
+        <v>11682</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>

--- a/input_data/sna_country_data/URY/cei.xlsx
+++ b/input_data/sna_country_data/URY/cei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25338" uniqueCount="15007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25912" uniqueCount="15560">
   <si>
     <t>code</t>
   </si>
@@ -45022,6 +45022,1665 @@
   </si>
   <si>
     <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
   </si>
   <si>
     <t>row_r</t>
@@ -45090,36 +46749,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14454</v>
+        <v>15007</v>
       </c>
       <c r="B1" t="s">
-        <v>14491</v>
+        <v>15044</v>
       </c>
       <c r="C1" t="s">
-        <v>14527</v>
+        <v>15080</v>
       </c>
       <c r="D1" t="s">
-        <v>14528</v>
+        <v>15081</v>
       </c>
       <c r="E1" t="s">
-        <v>14529</v>
+        <v>15082</v>
       </c>
       <c r="F1" t="s">
-        <v>14530</v>
+        <v>15083</v>
       </c>
       <c r="G1" t="s">
-        <v>14531</v>
+        <v>15084</v>
       </c>
       <c r="H1" t="s">
-        <v>14532</v>
+        <v>15085</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14455</v>
+        <v>15008</v>
       </c>
       <c r="B2" t="s">
-        <v>14492</v>
+        <v>15045</v>
       </c>
       <c r="C2" s="1">
         <v>-35345.263380289784</v>
@@ -45134,10 +46793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14456</v>
+        <v>15009</v>
       </c>
       <c r="B3" t="s">
-        <v>14493</v>
+        <v>15046</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -45156,10 +46815,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14457</v>
+        <v>15010</v>
       </c>
       <c r="B4" t="s">
-        <v>14494</v>
+        <v>15047</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -45176,10 +46835,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14458</v>
+        <v>15011</v>
       </c>
       <c r="B5" t="s">
-        <v>14495</v>
+        <v>15048</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -45196,10 +46855,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14459</v>
+        <v>15012</v>
       </c>
       <c r="B6" t="s">
-        <v>14496</v>
+        <v>15049</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -45212,10 +46871,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14460</v>
+        <v>15013</v>
       </c>
       <c r="B7" t="s">
-        <v>14497</v>
+        <v>15050</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -45232,10 +46891,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14461</v>
+        <v>15014</v>
       </c>
       <c r="B8" t="s">
-        <v>14498</v>
+        <v>15051</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -45250,10 +46909,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14462</v>
+        <v>15015</v>
       </c>
       <c r="B9" t="s">
-        <v>14498</v>
+        <v>15051</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -45266,10 +46925,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14463</v>
+        <v>15016</v>
       </c>
       <c r="B10" t="s">
-        <v>14499</v>
+        <v>15052</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -45284,10 +46943,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14464</v>
+        <v>15017</v>
       </c>
       <c r="B11" t="s">
-        <v>14500</v>
+        <v>15053</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -45302,10 +46961,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14465</v>
+        <v>15018</v>
       </c>
       <c r="B12" t="s">
-        <v>14501</v>
+        <v>15054</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -45324,10 +46983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14466</v>
+        <v>15019</v>
       </c>
       <c r="B13" t="s">
-        <v>14502</v>
+        <v>15055</v>
       </c>
       <c r="C13" s="1">
         <v>105254.84066842961</v>
@@ -45350,10 +47009,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14467</v>
+        <v>15020</v>
       </c>
       <c r="B14" t="s">
-        <v>14503</v>
+        <v>15056</v>
       </c>
       <c r="C14" s="1">
         <v>20118.629433262511</v>
@@ -45376,10 +47035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14468</v>
+        <v>15021</v>
       </c>
       <c r="B15" t="s">
-        <v>14504</v>
+        <v>15057</v>
       </c>
       <c r="C15" s="1">
         <v>85136.211235167109</v>
@@ -45402,10 +47061,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14469</v>
+        <v>15022</v>
       </c>
       <c r="B16" t="s">
-        <v>14505</v>
+        <v>15058</v>
       </c>
       <c r="C16" s="1">
         <v>77979.086634604173</v>
@@ -45428,10 +47087,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14470</v>
+        <v>15023</v>
       </c>
       <c r="B17" t="s">
-        <v>14506</v>
+        <v>15059</v>
       </c>
       <c r="C17" s="1">
         <v>708.07373372999996</v>
@@ -45452,10 +47111,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14471</v>
+        <v>15024</v>
       </c>
       <c r="B18" t="s">
-        <v>14507</v>
+        <v>15060</v>
       </c>
       <c r="C18" s="1">
         <v>708.07373372999996</v>
@@ -45472,10 +47131,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14472</v>
+        <v>15025</v>
       </c>
       <c r="B19" t="s">
-        <v>14508</v>
+        <v>15061</v>
       </c>
       <c r="C19" s="1">
         <v>2128.9819248528388</v>
@@ -45498,10 +47157,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14473</v>
+        <v>15026</v>
       </c>
       <c r="B20" t="s">
-        <v>14509</v>
+        <v>15062</v>
       </c>
       <c r="C20" s="1">
         <v>610.943299077402</v>
@@ -45518,10 +47177,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14474</v>
+        <v>15027</v>
       </c>
       <c r="B21" t="s">
-        <v>14510</v>
+        <v>15063</v>
       </c>
       <c r="C21" s="1">
         <v>476.41603700000002</v>
@@ -45540,10 +47199,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14475</v>
+        <v>15028</v>
       </c>
       <c r="B22" t="s">
-        <v>14511</v>
+        <v>15064</v>
       </c>
       <c r="C22" s="1">
         <v>1041.622588775437</v>
@@ -45566,10 +47225,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14476</v>
+        <v>15029</v>
       </c>
       <c r="B23" t="s">
-        <v>14512</v>
+        <v>15065</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -45586,10 +47245,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14477</v>
+        <v>15030</v>
       </c>
       <c r="B24" t="s">
-        <v>14513</v>
+        <v>15066</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -45606,10 +47265,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14478</v>
+        <v>15031</v>
       </c>
       <c r="B25" t="s">
-        <v>14514</v>
+        <v>15067</v>
       </c>
       <c r="C25" s="1">
         <v>75685.254770642801</v>
@@ -45632,10 +47291,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14479</v>
+        <v>15032</v>
       </c>
       <c r="B26" t="s">
-        <v>14515</v>
+        <v>15068</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -45650,10 +47309,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14480</v>
+        <v>15033</v>
       </c>
       <c r="B27" t="s">
-        <v>14516</v>
+        <v>15069</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -45661,7 +47320,7 @@
         <v>-3264.8749993161441</v>
       </c>
       <c r="F27" s="1">
-        <v>-3264.8749993161591</v>
+        <v>-3264.8749993161441</v>
       </c>
       <c r="G27" s="1">
         <v>65128.014697722727</v>
@@ -45672,10 +47331,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14481</v>
+        <v>15034</v>
       </c>
       <c r="B28" t="s">
-        <v>14517</v>
+        <v>15070</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -45690,10 +47349,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14482</v>
+        <v>15035</v>
       </c>
       <c r="B29" t="s">
-        <v>14518</v>
+        <v>15071</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -45712,10 +47371,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14483</v>
+        <v>15036</v>
       </c>
       <c r="B30" t="s">
-        <v>14519</v>
+        <v>15072</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -45730,10 +47389,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14484</v>
+        <v>15037</v>
       </c>
       <c r="B31" t="s">
-        <v>14520</v>
+        <v>15073</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -45741,7 +47400,7 @@
         <v>-3264.8749993161591</v>
       </c>
       <c r="F31" s="1">
-        <v>-3264.8749993161441</v>
+        <v>-3264.8749993161591</v>
       </c>
       <c r="G31" s="1">
         <v>65128.014697722727</v>
@@ -45752,10 +47411,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14485</v>
+        <v>15038</v>
       </c>
       <c r="B32" t="s">
-        <v>14521</v>
+        <v>15074</v>
       </c>
       <c r="C32" s="1">
         <v>40339.991390353032</v>
@@ -45770,10 +47429,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14486</v>
+        <v>15039</v>
       </c>
       <c r="B33" t="s">
-        <v>14522</v>
+        <v>15075</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -45794,10 +47453,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14487</v>
+        <v>15040</v>
       </c>
       <c r="B34" t="s">
-        <v>14523</v>
+        <v>15076</v>
       </c>
       <c r="C34" s="1">
         <v>37886.776197581872</v>
@@ -45812,18 +47471,18 @@
         <v>-25147.551874929632</v>
       </c>
       <c r="G34" s="1">
+        <v>25446.753598644718</v>
+      </c>
+      <c r="H34" s="1">
         <v>25446.753598644849</v>
-      </c>
-      <c r="H34" s="1">
-        <v>25446.753598644718</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14487</v>
+        <v>15040</v>
       </c>
       <c r="B35" t="s">
-        <v>14523</v>
+        <v>15076</v>
       </c>
       <c r="C35" s="1">
         <v>37886.776197581872</v>
@@ -45838,18 +47497,18 @@
         <v>-25147.551874929632</v>
       </c>
       <c r="G35" s="1">
+        <v>25446.753598644849</v>
+      </c>
+      <c r="H35" s="1">
         <v>25446.753598644718</v>
-      </c>
-      <c r="H35" s="1">
-        <v>25446.753598644849</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14488</v>
+        <v>15041</v>
       </c>
       <c r="B36" t="s">
-        <v>14524</v>
+        <v>15077</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -45864,10 +47523,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14489</v>
+        <v>15042</v>
       </c>
       <c r="B37" t="s">
-        <v>14525</v>
+        <v>15078</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -45880,10 +47539,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14490</v>
+        <v>15043</v>
       </c>
       <c r="B38" t="s">
-        <v>14526</v>
+        <v>15079</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -45907,36 +47566,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14533</v>
+        <v>15086</v>
       </c>
       <c r="B1" t="s">
-        <v>14570</v>
+        <v>15123</v>
       </c>
       <c r="C1" t="s">
-        <v>14606</v>
+        <v>15159</v>
       </c>
       <c r="D1" t="s">
-        <v>14607</v>
+        <v>15160</v>
       </c>
       <c r="E1" t="s">
-        <v>14608</v>
+        <v>15161</v>
       </c>
       <c r="F1" t="s">
-        <v>14609</v>
+        <v>15162</v>
       </c>
       <c r="G1" t="s">
-        <v>14610</v>
+        <v>15163</v>
       </c>
       <c r="H1" t="s">
-        <v>14611</v>
+        <v>15164</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14534</v>
+        <v>15087</v>
       </c>
       <c r="B2" t="s">
-        <v>14571</v>
+        <v>15124</v>
       </c>
       <c r="C2" s="1">
         <v>-92111.334701685584</v>
@@ -45951,10 +47610,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14535</v>
+        <v>15088</v>
       </c>
       <c r="B3" t="s">
-        <v>14572</v>
+        <v>15125</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -45973,10 +47632,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14536</v>
+        <v>15089</v>
       </c>
       <c r="B4" t="s">
-        <v>14573</v>
+        <v>15126</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -45993,10 +47652,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14537</v>
+        <v>15090</v>
       </c>
       <c r="B5" t="s">
-        <v>14574</v>
+        <v>15127</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -46013,10 +47672,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14538</v>
+        <v>15091</v>
       </c>
       <c r="B6" t="s">
-        <v>14575</v>
+        <v>15128</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -46029,10 +47688,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14539</v>
+        <v>15092</v>
       </c>
       <c r="B7" t="s">
-        <v>14576</v>
+        <v>15129</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -46049,10 +47708,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14540</v>
+        <v>15093</v>
       </c>
       <c r="B8" t="s">
-        <v>14577</v>
+        <v>15130</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -46065,10 +47724,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14541</v>
+        <v>15094</v>
       </c>
       <c r="B9" t="s">
-        <v>14577</v>
+        <v>15130</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -46081,10 +47740,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14542</v>
+        <v>15095</v>
       </c>
       <c r="B10" t="s">
-        <v>14578</v>
+        <v>15131</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -46097,10 +47756,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14543</v>
+        <v>15096</v>
       </c>
       <c r="B11" t="s">
-        <v>14579</v>
+        <v>15132</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -46115,10 +47774,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14544</v>
+        <v>15097</v>
       </c>
       <c r="B12" t="s">
-        <v>14580</v>
+        <v>15133</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -46137,10 +47796,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14545</v>
+        <v>15098</v>
       </c>
       <c r="B13" t="s">
-        <v>14581</v>
+        <v>15134</v>
       </c>
       <c r="C13" s="1">
         <v>111912.2883479437</v>
@@ -46163,10 +47822,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14546</v>
+        <v>15099</v>
       </c>
       <c r="B14" t="s">
-        <v>14582</v>
+        <v>15135</v>
       </c>
       <c r="C14" s="1">
         <v>37196.900831416431</v>
@@ -46189,10 +47848,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14547</v>
+        <v>15100</v>
       </c>
       <c r="B15" t="s">
-        <v>14583</v>
+        <v>15136</v>
       </c>
       <c r="C15" s="1">
         <v>74715.387516527291</v>
@@ -46215,10 +47874,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14548</v>
+        <v>15101</v>
       </c>
       <c r="B16" t="s">
-        <v>14584</v>
+        <v>15137</v>
       </c>
       <c r="C16" s="1">
         <v>81203.449470399617</v>
@@ -46241,10 +47900,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14549</v>
+        <v>15102</v>
       </c>
       <c r="B17" t="s">
-        <v>14585</v>
+        <v>15138</v>
       </c>
       <c r="C17" s="1">
         <v>1114.5240200000001</v>
@@ -46265,10 +47924,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14550</v>
+        <v>15103</v>
       </c>
       <c r="B18" t="s">
-        <v>14586</v>
+        <v>15139</v>
       </c>
       <c r="C18" s="1">
         <v>1114.5240200000001</v>
@@ -46287,10 +47946,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14551</v>
+        <v>15104</v>
       </c>
       <c r="B19" t="s">
-        <v>14587</v>
+        <v>15140</v>
       </c>
       <c r="C19" s="1">
         <v>17219.038211090661</v>
@@ -46313,10 +47972,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14552</v>
+        <v>15105</v>
       </c>
       <c r="B20" t="s">
-        <v>14588</v>
+        <v>15141</v>
       </c>
       <c r="C20" s="1">
         <v>98.619980999999996</v>
@@ -46335,10 +47994,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14553</v>
+        <v>15106</v>
       </c>
       <c r="B21" t="s">
-        <v>14589</v>
+        <v>15142</v>
       </c>
       <c r="C21" s="1">
         <v>1657.9772827899999</v>
@@ -46355,10 +48014,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14554</v>
+        <v>15107</v>
       </c>
       <c r="B22" t="s">
-        <v>14590</v>
+        <v>15143</v>
       </c>
       <c r="C22" s="1">
         <v>1009.104553</v>
@@ -46377,10 +48036,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14555</v>
+        <v>15108</v>
       </c>
       <c r="B23" t="s">
-        <v>14591</v>
+        <v>15144</v>
       </c>
       <c r="C23" s="1">
         <v>14453.336394300661</v>
@@ -46403,10 +48062,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14556</v>
+        <v>15109</v>
       </c>
       <c r="B24" t="s">
-        <v>14592</v>
+        <v>15145</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -46425,10 +48084,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14557</v>
+        <v>15110</v>
       </c>
       <c r="B25" t="s">
-        <v>14593</v>
+        <v>15146</v>
       </c>
       <c r="C25" s="1">
         <v>79087.001794051394</v>
@@ -46451,10 +48110,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14558</v>
+        <v>15111</v>
       </c>
       <c r="B26" t="s">
-        <v>14594</v>
+        <v>15147</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -46469,15 +48128,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14559</v>
+        <v>15112</v>
       </c>
       <c r="B27" t="s">
-        <v>14595</v>
+        <v>15148</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="F27" s="1">
         <v>-10570.43407502865</v>
@@ -46491,10 +48150,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14560</v>
+        <v>15113</v>
       </c>
       <c r="B28" t="s">
-        <v>14596</v>
+        <v>15149</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -46509,10 +48168,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14561</v>
+        <v>15114</v>
       </c>
       <c r="B29" t="s">
-        <v>14597</v>
+        <v>15150</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -46531,10 +48190,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14562</v>
+        <v>15115</v>
       </c>
       <c r="B30" t="s">
-        <v>14598</v>
+        <v>15151</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -46549,15 +48208,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14563</v>
+        <v>15116</v>
       </c>
       <c r="B31" t="s">
-        <v>14599</v>
+        <v>15152</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="F31" s="1">
         <v>-10570.434075028639</v>
@@ -46571,10 +48230,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14564</v>
+        <v>15117</v>
       </c>
       <c r="B32" t="s">
-        <v>14600</v>
+        <v>15153</v>
       </c>
       <c r="C32" s="1">
         <v>-13024.332907634191</v>
@@ -46589,10 +48248,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14565</v>
+        <v>15118</v>
       </c>
       <c r="B33" t="s">
-        <v>14601</v>
+        <v>15154</v>
       </c>
       <c r="C33" s="1">
         <v>181.0641172</v>
@@ -46615,10 +48274,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14566</v>
+        <v>15119</v>
       </c>
       <c r="B34" t="s">
-        <v>14602</v>
+        <v>15155</v>
       </c>
       <c r="C34" s="1">
         <v>-14574.43484844782</v>
@@ -46636,15 +48295,15 @@
         <v>55330.055140544151</v>
       </c>
       <c r="H34" s="1">
-        <v>55330.055140544697</v>
+        <v>55330.055140544151</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14566</v>
+        <v>15119</v>
       </c>
       <c r="B35" t="s">
-        <v>14602</v>
+        <v>15155</v>
       </c>
       <c r="C35" s="1">
         <v>-14574.434848447811</v>
@@ -46662,60 +48321,60 @@
         <v>55330.055140544697</v>
       </c>
       <c r="H35" s="1">
-        <v>55330.055140544151</v>
+        <v>55330.055140544697</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14567</v>
+        <v>15120</v>
       </c>
       <c r="B36" t="s">
-        <v>14603</v>
+        <v>15156</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>1410.7265588499999</v>
+        <v>181558.9914336357</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1">
+        <v>310.92989817709997</v>
+      </c>
+      <c r="H36" s="1">
+        <v>223683.25268700649</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14568</v>
+        <v>15121</v>
       </c>
       <c r="B37" t="s">
-        <v>14604</v>
+        <v>15157</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>181558.9914336357</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>310.92989817709997</v>
-      </c>
-      <c r="H37" s="1">
-        <v>223683.25268700649</v>
-      </c>
+        <v>147042.35994689999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>147042.21094677999</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14569</v>
+        <v>15122</v>
       </c>
       <c r="B38" t="s">
-        <v>14605</v>
+        <v>15158</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>147042.35994689999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>147042.21094677999</v>
-      </c>
+        <v>1410.7265588499999</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -46730,36 +48389,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14612</v>
+        <v>15165</v>
       </c>
       <c r="B1" t="s">
-        <v>14649</v>
+        <v>15202</v>
       </c>
       <c r="C1" t="s">
-        <v>14685</v>
+        <v>15238</v>
       </c>
       <c r="D1" t="s">
-        <v>14686</v>
+        <v>15239</v>
       </c>
       <c r="E1" t="s">
-        <v>14687</v>
+        <v>15240</v>
       </c>
       <c r="F1" t="s">
-        <v>14688</v>
+        <v>15241</v>
       </c>
       <c r="G1" t="s">
-        <v>14689</v>
+        <v>15242</v>
       </c>
       <c r="H1" t="s">
-        <v>14690</v>
+        <v>15243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14613</v>
+        <v>15166</v>
       </c>
       <c r="B2" t="s">
-        <v>14650</v>
+        <v>15203</v>
       </c>
       <c r="C2" s="1">
         <v>-102236.23721409201</v>
@@ -46774,10 +48433,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14614</v>
+        <v>15167</v>
       </c>
       <c r="B3" t="s">
-        <v>14651</v>
+        <v>15204</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -46796,10 +48455,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14615</v>
+        <v>15168</v>
       </c>
       <c r="B4" t="s">
-        <v>14652</v>
+        <v>15205</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -46816,10 +48475,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14616</v>
+        <v>15169</v>
       </c>
       <c r="B5" t="s">
-        <v>14653</v>
+        <v>15206</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -46832,10 +48491,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14617</v>
+        <v>15170</v>
       </c>
       <c r="B6" t="s">
-        <v>14654</v>
+        <v>15207</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -46852,10 +48511,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14618</v>
+        <v>15171</v>
       </c>
       <c r="B7" t="s">
-        <v>14655</v>
+        <v>15208</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -46868,10 +48527,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14619</v>
+        <v>15172</v>
       </c>
       <c r="B8" t="s">
-        <v>14655</v>
+        <v>15208</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -46884,10 +48543,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14620</v>
+        <v>15173</v>
       </c>
       <c r="B9" t="s">
-        <v>14656</v>
+        <v>15209</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -46900,10 +48559,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14621</v>
+        <v>15174</v>
       </c>
       <c r="B10" t="s">
-        <v>14657</v>
+        <v>15210</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -46918,10 +48577,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14622</v>
+        <v>15175</v>
       </c>
       <c r="B11" t="s">
-        <v>14658</v>
+        <v>15211</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -46940,10 +48599,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14623</v>
+        <v>15176</v>
       </c>
       <c r="B12" t="s">
-        <v>14659</v>
+        <v>15212</v>
       </c>
       <c r="C12" s="1">
         <v>-83.070126027215935</v>
@@ -46962,10 +48621,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14624</v>
+        <v>15177</v>
       </c>
       <c r="B13" t="s">
-        <v>14660</v>
+        <v>15213</v>
       </c>
       <c r="C13" s="1">
         <v>144279.01796396461</v>
@@ -46988,10 +48647,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14625</v>
+        <v>15178</v>
       </c>
       <c r="B14" t="s">
-        <v>14661</v>
+        <v>15214</v>
       </c>
       <c r="C14" s="1">
         <v>32414.538114762661</v>
@@ -47014,10 +48673,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14626</v>
+        <v>15179</v>
       </c>
       <c r="B15" t="s">
-        <v>14662</v>
+        <v>15215</v>
       </c>
       <c r="C15" s="1">
         <v>111864.47984920201</v>
@@ -47038,10 +48697,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14627</v>
+        <v>15180</v>
       </c>
       <c r="B16" t="s">
-        <v>14663</v>
+        <v>15216</v>
       </c>
       <c r="C16" s="1">
         <v>101315.1098362044</v>
@@ -47064,10 +48723,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14628</v>
+        <v>15181</v>
       </c>
       <c r="B17" t="s">
-        <v>14664</v>
+        <v>15217</v>
       </c>
       <c r="C17" s="1">
         <v>526.84154559200761</v>
@@ -47088,10 +48747,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14629</v>
+        <v>15182</v>
       </c>
       <c r="B18" t="s">
-        <v>14665</v>
+        <v>15218</v>
       </c>
       <c r="C18" s="1">
         <v>1300.503467</v>
@@ -47112,10 +48771,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14630</v>
+        <v>15183</v>
       </c>
       <c r="B19" t="s">
-        <v>14666</v>
+        <v>15219</v>
       </c>
       <c r="C19" s="1">
         <v>1300.503467</v>
@@ -47134,10 +48793,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14631</v>
+        <v>15184</v>
       </c>
       <c r="B20" t="s">
-        <v>14667</v>
+        <v>15220</v>
       </c>
       <c r="C20" s="1">
         <v>16387.63379557012</v>
@@ -47160,10 +48819,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14632</v>
+        <v>15185</v>
       </c>
       <c r="B21" t="s">
-        <v>14668</v>
+        <v>15221</v>
       </c>
       <c r="C21" s="1">
         <v>97.490238000000005</v>
@@ -47182,10 +48841,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14633</v>
+        <v>15186</v>
       </c>
       <c r="B22" t="s">
-        <v>14669</v>
+        <v>15222</v>
       </c>
       <c r="C22" s="1">
         <v>1386.9169386399999</v>
@@ -47202,10 +48861,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14634</v>
+        <v>15187</v>
       </c>
       <c r="B23" t="s">
-        <v>14670</v>
+        <v>15223</v>
       </c>
       <c r="C23" s="1">
         <v>1117.864241</v>
@@ -47224,10 +48883,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14635</v>
+        <v>15188</v>
       </c>
       <c r="B24" t="s">
-        <v>14671</v>
+        <v>15224</v>
       </c>
       <c r="C24" s="1">
         <v>13785.36237793012</v>
@@ -47250,10 +48909,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14636</v>
+        <v>15189</v>
       </c>
       <c r="B25" t="s">
-        <v>14672</v>
+        <v>15225</v>
       </c>
       <c r="C25" s="1">
         <v>98850.343655568271</v>
@@ -47276,10 +48935,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14637</v>
+        <v>15190</v>
       </c>
       <c r="B26" t="s">
-        <v>14673</v>
+        <v>15226</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -47294,18 +48953,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14638</v>
+        <v>15191</v>
       </c>
       <c r="B27" t="s">
-        <v>14674</v>
+        <v>15227</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
+        <v>-25017.38878234318</v>
+      </c>
+      <c r="F27" s="1">
         <v>-25017.388782343201</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-25017.38878234318</v>
       </c>
       <c r="G27" s="1">
         <v>118456.4656790759</v>
@@ -47316,10 +48975,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14639</v>
+        <v>15192</v>
       </c>
       <c r="B28" t="s">
-        <v>14675</v>
+        <v>15228</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -47334,10 +48993,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14640</v>
+        <v>15193</v>
       </c>
       <c r="B29" t="s">
-        <v>14676</v>
+        <v>15229</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -47356,10 +49015,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14641</v>
+        <v>15194</v>
       </c>
       <c r="B30" t="s">
-        <v>14677</v>
+        <v>15230</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -47374,18 +49033,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14642</v>
+        <v>15195</v>
       </c>
       <c r="B31" t="s">
-        <v>14678</v>
+        <v>15231</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
+        <v>-25017.388782343201</v>
+      </c>
+      <c r="F31" s="1">
         <v>-25017.38878234318</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-25017.388782343201</v>
       </c>
       <c r="G31" s="1">
         <v>118456.4656790759</v>
@@ -47396,10 +49055,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14643</v>
+        <v>15196</v>
       </c>
       <c r="B32" t="s">
-        <v>14679</v>
+        <v>15232</v>
       </c>
       <c r="C32" s="1">
         <v>-3385.8935585237782</v>
@@ -47414,10 +49073,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14644</v>
+        <v>15197</v>
       </c>
       <c r="B33" t="s">
-        <v>14680</v>
+        <v>15233</v>
       </c>
       <c r="C33" s="1">
         <v>0.27703699999999998</v>
@@ -47440,10 +49099,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14645</v>
+        <v>15198</v>
       </c>
       <c r="B34" t="s">
-        <v>14681</v>
+        <v>15234</v>
       </c>
       <c r="C34" s="1">
         <v>-4009.0753441289771</v>
@@ -47458,18 +49117,18 @@
         <v>-63565.818181042087</v>
       </c>
       <c r="G34" s="1">
+        <v>43782.161676834643</v>
+      </c>
+      <c r="H34" s="1">
         <v>43782.161676835007</v>
-      </c>
-      <c r="H34" s="1">
-        <v>43782.161676834643</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14645</v>
+        <v>15198</v>
       </c>
       <c r="B35" t="s">
-        <v>14681</v>
+        <v>15234</v>
       </c>
       <c r="C35" s="1">
         <v>-4009.0753441289712</v>
@@ -47484,65 +49143,65 @@
         <v>-63565.770979082881</v>
       </c>
       <c r="G35" s="1">
+        <v>43782.161676835007</v>
+      </c>
+      <c r="H35" s="1">
         <v>43782.161676834643</v>
-      </c>
-      <c r="H35" s="1">
-        <v>43782.161676835007</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14646</v>
+        <v>15199</v>
       </c>
       <c r="B36" t="s">
-        <v>14682</v>
+        <v>15235</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>1378.685344355712</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>170013.75605207999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>170013.75605207999</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14647</v>
+        <v>15200</v>
       </c>
       <c r="B37" t="s">
-        <v>14683</v>
+        <v>15236</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>170013.75605207999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>170013.75605207999</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>201604.21968480741</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>337.34758922499998</v>
+      </c>
+      <c r="H37" s="1">
+        <v>253381.7166756459</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14648</v>
+        <v>15201</v>
       </c>
       <c r="B38" t="s">
-        <v>14684</v>
+        <v>15237</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>201604.21968480741</v>
+        <v>1378.685344355712</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>337.34758922499998</v>
-      </c>
-      <c r="H38" s="1">
-        <v>253381.7166756459</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -47555,36 +49214,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14691</v>
+        <v>15244</v>
       </c>
       <c r="B1" t="s">
-        <v>14728</v>
+        <v>15281</v>
       </c>
       <c r="C1" t="s">
-        <v>14764</v>
+        <v>15317</v>
       </c>
       <c r="D1" t="s">
-        <v>14765</v>
+        <v>15318</v>
       </c>
       <c r="E1" t="s">
-        <v>14766</v>
+        <v>15319</v>
       </c>
       <c r="F1" t="s">
-        <v>14767</v>
+        <v>15320</v>
       </c>
       <c r="G1" t="s">
-        <v>14768</v>
+        <v>15321</v>
       </c>
       <c r="H1" t="s">
-        <v>14769</v>
+        <v>15322</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14692</v>
+        <v>15245</v>
       </c>
       <c r="B2" t="s">
-        <v>14729</v>
+        <v>15282</v>
       </c>
       <c r="C2" s="1">
         <v>-101427.2938489076</v>
@@ -47599,10 +49258,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14693</v>
+        <v>15246</v>
       </c>
       <c r="B3" t="s">
-        <v>14730</v>
+        <v>15283</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -47621,10 +49280,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14694</v>
+        <v>15247</v>
       </c>
       <c r="B4" t="s">
-        <v>14731</v>
+        <v>15284</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -47641,10 +49300,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14695</v>
+        <v>15248</v>
       </c>
       <c r="B5" t="s">
-        <v>14732</v>
+        <v>15285</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -47657,10 +49316,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14696</v>
+        <v>15249</v>
       </c>
       <c r="B6" t="s">
-        <v>14733</v>
+        <v>15286</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -47677,10 +49336,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14697</v>
+        <v>15250</v>
       </c>
       <c r="B7" t="s">
-        <v>14734</v>
+        <v>15287</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -47693,10 +49352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14698</v>
+        <v>15251</v>
       </c>
       <c r="B8" t="s">
-        <v>14734</v>
+        <v>15287</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -47709,10 +49368,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14699</v>
+        <v>15252</v>
       </c>
       <c r="B9" t="s">
-        <v>14735</v>
+        <v>15288</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -47725,10 +49384,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14700</v>
+        <v>15253</v>
       </c>
       <c r="B10" t="s">
-        <v>14736</v>
+        <v>15289</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -47743,10 +49402,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14701</v>
+        <v>15254</v>
       </c>
       <c r="B11" t="s">
-        <v>14737</v>
+        <v>15290</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -47765,10 +49424,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14702</v>
+        <v>15255</v>
       </c>
       <c r="B12" t="s">
-        <v>14738</v>
+        <v>15291</v>
       </c>
       <c r="C12" s="1">
         <v>-92.934358778526615</v>
@@ -47787,10 +49446,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14703</v>
+        <v>15256</v>
       </c>
       <c r="B13" t="s">
-        <v>14739</v>
+        <v>15292</v>
       </c>
       <c r="C13" s="1">
         <v>162249.8021316196</v>
@@ -47813,10 +49472,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14704</v>
+        <v>15257</v>
       </c>
       <c r="B14" t="s">
-        <v>14740</v>
+        <v>15293</v>
       </c>
       <c r="C14" s="1">
         <v>43179.357846405859</v>
@@ -47839,10 +49498,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14705</v>
+        <v>15258</v>
       </c>
       <c r="B15" t="s">
-        <v>14741</v>
+        <v>15294</v>
       </c>
       <c r="C15" s="1">
         <v>119070.4442852137</v>
@@ -47863,10 +49522,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14706</v>
+        <v>15259</v>
       </c>
       <c r="B16" t="s">
-        <v>14742</v>
+        <v>15295</v>
       </c>
       <c r="C16" s="1">
         <v>111072.9372501466</v>
@@ -47889,10 +49548,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14707</v>
+        <v>15260</v>
       </c>
       <c r="B17" t="s">
-        <v>14743</v>
+        <v>15296</v>
       </c>
       <c r="C17" s="1">
         <v>455.25087191519339</v>
@@ -47913,10 +49572,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14708</v>
+        <v>15261</v>
       </c>
       <c r="B18" t="s">
-        <v>14744</v>
+        <v>15297</v>
       </c>
       <c r="C18" s="1">
         <v>1486.8528134281901</v>
@@ -47937,10 +49596,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14709</v>
+        <v>15262</v>
       </c>
       <c r="B19" t="s">
-        <v>14745</v>
+        <v>15298</v>
       </c>
       <c r="C19" s="1">
         <v>1486.8528134281901</v>
@@ -47959,10 +49618,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14710</v>
+        <v>15263</v>
       </c>
       <c r="B20" t="s">
-        <v>14746</v>
+        <v>15299</v>
       </c>
       <c r="C20" s="1">
         <v>19645.88621086465</v>
@@ -47985,10 +49644,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14711</v>
+        <v>15264</v>
       </c>
       <c r="B21" t="s">
-        <v>14747</v>
+        <v>15300</v>
       </c>
       <c r="C21" s="1">
         <v>1.3780870000000001</v>
@@ -48007,10 +49666,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14712</v>
+        <v>15265</v>
       </c>
       <c r="B22" t="s">
-        <v>14748</v>
+        <v>15301</v>
       </c>
       <c r="C22" s="1">
         <v>1680.6084285300001</v>
@@ -48027,10 +49686,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14713</v>
+        <v>15266</v>
       </c>
       <c r="B23" t="s">
-        <v>14749</v>
+        <v>15302</v>
       </c>
       <c r="C23" s="1">
         <v>1167.0419095569939</v>
@@ -48049,10 +49708,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14714</v>
+        <v>15267</v>
       </c>
       <c r="B24" t="s">
-        <v>14750</v>
+        <v>15303</v>
       </c>
       <c r="C24" s="1">
         <v>16796.857785777662</v>
@@ -48075,10 +49734,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14715</v>
+        <v>15268</v>
       </c>
       <c r="B25" t="s">
-        <v>14751</v>
+        <v>15304</v>
       </c>
       <c r="C25" s="1">
         <v>108339.94151571881</v>
@@ -48101,10 +49760,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14716</v>
+        <v>15269</v>
       </c>
       <c r="B26" t="s">
-        <v>14752</v>
+        <v>15305</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -48117,10 +49776,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14717</v>
+        <v>15270</v>
       </c>
       <c r="B27" t="s">
-        <v>14753</v>
+        <v>15306</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -48139,10 +49798,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14718</v>
+        <v>15271</v>
       </c>
       <c r="B28" t="s">
-        <v>14754</v>
+        <v>15307</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -48157,10 +49816,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14719</v>
+        <v>15272</v>
       </c>
       <c r="B29" t="s">
-        <v>14755</v>
+        <v>15308</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -48179,10 +49838,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14720</v>
+        <v>15273</v>
       </c>
       <c r="B30" t="s">
-        <v>14756</v>
+        <v>15309</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -48195,10 +49854,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14721</v>
+        <v>15274</v>
       </c>
       <c r="B31" t="s">
-        <v>14757</v>
+        <v>15310</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -48217,10 +49876,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14722</v>
+        <v>15275</v>
       </c>
       <c r="B32" t="s">
-        <v>14758</v>
+        <v>15311</v>
       </c>
       <c r="C32" s="1">
         <v>6912.6476668112009</v>
@@ -48235,10 +49894,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14723</v>
+        <v>15276</v>
       </c>
       <c r="B33" t="s">
-        <v>14759</v>
+        <v>15312</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -48259,10 +49918,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14724</v>
+        <v>15277</v>
       </c>
       <c r="B34" t="s">
-        <v>14760</v>
+        <v>15313</v>
       </c>
       <c r="C34" s="1">
         <v>5442.5976345336867</v>
@@ -48280,15 +49939,15 @@
         <v>33283.712597372112</v>
       </c>
       <c r="H34" s="1">
-        <v>33283.712597372418</v>
+        <v>33283.712597372112</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14724</v>
+        <v>15277</v>
       </c>
       <c r="B35" t="s">
-        <v>14760</v>
+        <v>15313</v>
       </c>
       <c r="C35" s="1">
         <v>5442.5976345336967</v>
@@ -48306,60 +49965,60 @@
         <v>33283.712597372418</v>
       </c>
       <c r="H35" s="1">
-        <v>33283.712597372112</v>
+        <v>33283.712597372418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14725</v>
+        <v>15278</v>
       </c>
       <c r="B36" t="s">
-        <v>14761</v>
+        <v>15314</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>207169.67690947151</v>
-      </c>
-      <c r="F36" s="1">
-        <v>207169.67690947151</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>215925.528549476</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>381.05244255449912</v>
+      </c>
+      <c r="H36" s="1">
+        <v>271956.46735150547</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14726</v>
+        <v>15279</v>
       </c>
       <c r="B37" t="s">
-        <v>14762</v>
+        <v>15315</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>215925.528549476</v>
+        <v>1640.019891895929</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>381.05244255449912</v>
-      </c>
-      <c r="H37" s="1">
-        <v>271956.46735150547</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14727</v>
+        <v>15280</v>
       </c>
       <c r="B38" t="s">
-        <v>14763</v>
+        <v>15316</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>1640.019891895929</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>207169.67690947151</v>
+      </c>
+      <c r="F38" s="1">
+        <v>207169.67690947151</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -48374,36 +50033,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14770</v>
+        <v>15323</v>
       </c>
       <c r="B1" t="s">
-        <v>14807</v>
+        <v>15360</v>
       </c>
       <c r="C1" t="s">
-        <v>14843</v>
+        <v>15396</v>
       </c>
       <c r="D1" t="s">
-        <v>14844</v>
+        <v>15397</v>
       </c>
       <c r="E1" t="s">
-        <v>14845</v>
+        <v>15398</v>
       </c>
       <c r="F1" t="s">
-        <v>14846</v>
+        <v>15399</v>
       </c>
       <c r="G1" t="s">
-        <v>14847</v>
+        <v>15400</v>
       </c>
       <c r="H1" t="s">
-        <v>14848</v>
+        <v>15401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14771</v>
+        <v>15324</v>
       </c>
       <c r="B2" t="s">
-        <v>14808</v>
+        <v>15361</v>
       </c>
       <c r="C2" s="1">
         <v>-132325.81806931089</v>
@@ -48418,10 +50077,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14772</v>
+        <v>15325</v>
       </c>
       <c r="B3" t="s">
-        <v>14809</v>
+        <v>15362</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -48440,10 +50099,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14773</v>
+        <v>15326</v>
       </c>
       <c r="B4" t="s">
-        <v>14810</v>
+        <v>15363</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -48460,10 +50119,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14774</v>
+        <v>15327</v>
       </c>
       <c r="B5" t="s">
-        <v>14811</v>
+        <v>15364</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -48476,10 +50135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14775</v>
+        <v>15328</v>
       </c>
       <c r="B6" t="s">
-        <v>14812</v>
+        <v>15365</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -48496,10 +50155,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14776</v>
+        <v>15329</v>
       </c>
       <c r="B7" t="s">
-        <v>14813</v>
+        <v>15366</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -48512,10 +50171,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14777</v>
+        <v>15330</v>
       </c>
       <c r="B8" t="s">
-        <v>14813</v>
+        <v>15366</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -48528,10 +50187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14778</v>
+        <v>15331</v>
       </c>
       <c r="B9" t="s">
-        <v>14814</v>
+        <v>15367</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -48544,10 +50203,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14779</v>
+        <v>15332</v>
       </c>
       <c r="B10" t="s">
-        <v>14815</v>
+        <v>15368</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -48562,10 +50221,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14780</v>
+        <v>15333</v>
       </c>
       <c r="B11" t="s">
-        <v>14816</v>
+        <v>15369</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -48584,10 +50243,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14781</v>
+        <v>15334</v>
       </c>
       <c r="B12" t="s">
-        <v>14817</v>
+        <v>15370</v>
       </c>
       <c r="C12" s="1">
         <v>-111.3731775422125</v>
@@ -48606,10 +50265,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14782</v>
+        <v>15335</v>
       </c>
       <c r="B13" t="s">
-        <v>14818</v>
+        <v>15371</v>
       </c>
       <c r="C13" s="1">
         <v>160506.74429795379</v>
@@ -48632,10 +50291,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14783</v>
+        <v>15336</v>
       </c>
       <c r="B14" t="s">
-        <v>14819</v>
+        <v>15372</v>
       </c>
       <c r="C14" s="1">
         <v>47266.390163401513</v>
@@ -48658,10 +50317,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14784</v>
+        <v>15337</v>
       </c>
       <c r="B15" t="s">
-        <v>14820</v>
+        <v>15373</v>
       </c>
       <c r="C15" s="1">
         <v>113240.3541345523</v>
@@ -48682,10 +50341,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14785</v>
+        <v>15338</v>
       </c>
       <c r="B16" t="s">
-        <v>14821</v>
+        <v>15374</v>
       </c>
       <c r="C16" s="1">
         <v>106078.98298231589</v>
@@ -48708,10 +50367,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14786</v>
+        <v>15339</v>
       </c>
       <c r="B17" t="s">
-        <v>14822</v>
+        <v>15375</v>
       </c>
       <c r="C17" s="1">
         <v>376.90302765656929</v>
@@ -48732,10 +50391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14787</v>
+        <v>15340</v>
       </c>
       <c r="B18" t="s">
-        <v>14823</v>
+        <v>15376</v>
       </c>
       <c r="C18" s="1">
         <v>1655.657643517555</v>
@@ -48756,10 +50415,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14788</v>
+        <v>15341</v>
       </c>
       <c r="B19" t="s">
-        <v>14824</v>
+        <v>15377</v>
       </c>
       <c r="C19" s="1">
         <v>1655.657643517555</v>
@@ -48778,10 +50437,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14789</v>
+        <v>15342</v>
       </c>
       <c r="B20" t="s">
-        <v>14825</v>
+        <v>15378</v>
       </c>
       <c r="C20" s="1">
         <v>22226.602795191338</v>
@@ -48804,10 +50463,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14790</v>
+        <v>15343</v>
       </c>
       <c r="B21" t="s">
-        <v>14826</v>
+        <v>15379</v>
       </c>
       <c r="C21" s="1">
         <v>2.9676309999999999</v>
@@ -48826,10 +50485,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14791</v>
+        <v>15344</v>
       </c>
       <c r="B22" t="s">
-        <v>14827</v>
+        <v>15380</v>
       </c>
       <c r="C22" s="1">
         <v>2646.0630505200002</v>
@@ -48846,10 +50505,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14792</v>
+        <v>15345</v>
       </c>
       <c r="B23" t="s">
-        <v>14828</v>
+        <v>15381</v>
       </c>
       <c r="C23" s="1">
         <v>1452.5266412882031</v>
@@ -48868,10 +50527,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14793</v>
+        <v>15346</v>
       </c>
       <c r="B24" t="s">
-        <v>14829</v>
+        <v>15382</v>
       </c>
       <c r="C24" s="1">
         <v>18125.045472383139</v>
@@ -48894,10 +50553,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14794</v>
+        <v>15347</v>
       </c>
       <c r="B25" t="s">
-        <v>14830</v>
+        <v>15383</v>
       </c>
       <c r="C25" s="1">
         <v>103687.46021795391</v>
@@ -48920,10 +50579,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14795</v>
+        <v>15348</v>
       </c>
       <c r="B26" t="s">
-        <v>14831</v>
+        <v>15384</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -48936,10 +50595,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14796</v>
+        <v>15349</v>
       </c>
       <c r="B27" t="s">
-        <v>14832</v>
+        <v>15385</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -48947,7 +50606,7 @@
         <v>-47487.012322160852</v>
       </c>
       <c r="F27" s="1">
-        <v>-47487.012322160852</v>
+        <v>-47487.012322160823</v>
       </c>
       <c r="G27" s="1">
         <v>137422.3722114753</v>
@@ -48958,10 +50617,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14797</v>
+        <v>15350</v>
       </c>
       <c r="B28" t="s">
-        <v>14833</v>
+        <v>15386</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -48976,10 +50635,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14798</v>
+        <v>15351</v>
       </c>
       <c r="B29" t="s">
-        <v>14834</v>
+        <v>15387</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -48998,10 +50657,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14799</v>
+        <v>15352</v>
       </c>
       <c r="B30" t="s">
-        <v>14835</v>
+        <v>15388</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -49014,10 +50673,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14800</v>
+        <v>15353</v>
       </c>
       <c r="B31" t="s">
-        <v>14836</v>
+        <v>15389</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -49025,7 +50684,7 @@
         <v>-47487.012322160823</v>
       </c>
       <c r="F31" s="1">
-        <v>-47487.012322160823</v>
+        <v>-47487.012322160852</v>
       </c>
       <c r="G31" s="1">
         <v>137422.3722114753</v>
@@ -49036,10 +50695,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14801</v>
+        <v>15354</v>
       </c>
       <c r="B32" t="s">
-        <v>14837</v>
+        <v>15390</v>
       </c>
       <c r="C32" s="1">
         <v>-28638.357851356981</v>
@@ -49054,10 +50713,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14802</v>
+        <v>15355</v>
       </c>
       <c r="B33" t="s">
-        <v>14838</v>
+        <v>15391</v>
       </c>
       <c r="C33" s="1">
         <v>13.58729015431644</v>
@@ -49080,10 +50739,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14803</v>
+        <v>15356</v>
       </c>
       <c r="B34" t="s">
-        <v>14839</v>
+        <v>15392</v>
       </c>
       <c r="C34" s="1">
         <v>-14516.140951382629</v>
@@ -49095,21 +50754,21 @@
         <v>-63947.039175030113</v>
       </c>
       <c r="F34" s="1">
-        <v>-63947.039175030113</v>
+        <v>-63947.039175029808</v>
       </c>
       <c r="G34" s="1">
         <v>39248.472782472847</v>
       </c>
       <c r="H34" s="1">
-        <v>39248.472782472847</v>
+        <v>39248.472782472993</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14803</v>
+        <v>15356</v>
       </c>
       <c r="B35" t="s">
-        <v>14839</v>
+        <v>15392</v>
       </c>
       <c r="C35" s="1">
         <v>-14516.15048177604</v>
@@ -49121,66 +50780,66 @@
         <v>-63947.039175029808</v>
       </c>
       <c r="F35" s="1">
-        <v>-63947.039175029808</v>
+        <v>-63947.039175030113</v>
       </c>
       <c r="G35" s="1">
         <v>39248.472782472993</v>
       </c>
       <c r="H35" s="1">
-        <v>39248.472782472993</v>
+        <v>39248.472782472847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14804</v>
+        <v>15357</v>
       </c>
       <c r="B36" t="s">
-        <v>14840</v>
+        <v>15393</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>239376.743428952</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>402.67289956090139</v>
-      </c>
-      <c r="H36" s="1">
-        <v>298520.24294644757</v>
-      </c>
+        <v>200663.39336498949</v>
+      </c>
+      <c r="F36" s="1">
+        <v>200663.39336498949</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14805</v>
+        <v>15358</v>
       </c>
       <c r="B37" t="s">
-        <v>14841</v>
+        <v>15394</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>1691.532447066628</v>
+        <v>239376.743428952</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="1">
+        <v>402.67289956090139</v>
+      </c>
+      <c r="H37" s="1">
+        <v>298520.24294644757</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14806</v>
+        <v>15359</v>
       </c>
       <c r="B38" t="s">
-        <v>14842</v>
+        <v>15395</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="F38" s="1">
-        <v>200663.39336498949</v>
-      </c>
+        <v>1691.532447066628</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -49195,36 +50854,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14849</v>
+        <v>15402</v>
       </c>
       <c r="B1" t="s">
-        <v>14886</v>
+        <v>15439</v>
       </c>
       <c r="C1" t="s">
-        <v>14922</v>
+        <v>15475</v>
       </c>
       <c r="D1" t="s">
-        <v>14923</v>
+        <v>15476</v>
       </c>
       <c r="E1" t="s">
-        <v>14924</v>
+        <v>15477</v>
       </c>
       <c r="F1" t="s">
-        <v>14925</v>
+        <v>15478</v>
       </c>
       <c r="G1" t="s">
-        <v>14926</v>
+        <v>15479</v>
       </c>
       <c r="H1" t="s">
-        <v>14927</v>
+        <v>15480</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14850</v>
+        <v>15403</v>
       </c>
       <c r="B2" t="s">
-        <v>14887</v>
+        <v>15440</v>
       </c>
       <c r="C2" s="1">
         <v>-104514.67406784389</v>
@@ -49239,10 +50898,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14851</v>
+        <v>15404</v>
       </c>
       <c r="B3" t="s">
-        <v>14888</v>
+        <v>15441</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -49261,10 +50920,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14852</v>
+        <v>15405</v>
       </c>
       <c r="B4" t="s">
-        <v>14889</v>
+        <v>15442</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -49281,10 +50940,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14853</v>
+        <v>15406</v>
       </c>
       <c r="B5" t="s">
-        <v>14890</v>
+        <v>15443</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -49297,10 +50956,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14854</v>
+        <v>15407</v>
       </c>
       <c r="B6" t="s">
-        <v>14891</v>
+        <v>15444</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -49317,10 +50976,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14855</v>
+        <v>15408</v>
       </c>
       <c r="B7" t="s">
-        <v>14892</v>
+        <v>15445</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -49333,10 +50992,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14856</v>
+        <v>15409</v>
       </c>
       <c r="B8" t="s">
-        <v>14892</v>
+        <v>15445</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -49349,10 +51008,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14857</v>
+        <v>15410</v>
       </c>
       <c r="B9" t="s">
-        <v>14893</v>
+        <v>15446</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -49365,10 +51024,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14858</v>
+        <v>15411</v>
       </c>
       <c r="B10" t="s">
-        <v>14894</v>
+        <v>15447</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -49383,10 +51042,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14859</v>
+        <v>15412</v>
       </c>
       <c r="B11" t="s">
-        <v>14895</v>
+        <v>15448</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -49405,10 +51064,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14860</v>
+        <v>15413</v>
       </c>
       <c r="B12" t="s">
-        <v>14896</v>
+        <v>15449</v>
       </c>
       <c r="C12" s="1">
         <v>-149.5741136579793</v>
@@ -49427,10 +51086,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14861</v>
+        <v>15414</v>
       </c>
       <c r="B13" t="s">
-        <v>14897</v>
+        <v>15450</v>
       </c>
       <c r="C13" s="1">
         <v>151856.17438438139</v>
@@ -49453,10 +51112,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14862</v>
+        <v>15415</v>
       </c>
       <c r="B14" t="s">
-        <v>14898</v>
+        <v>15451</v>
       </c>
       <c r="C14" s="1">
         <v>54754.723496312057</v>
@@ -49479,10 +51138,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14863</v>
+        <v>15416</v>
       </c>
       <c r="B15" t="s">
-        <v>14899</v>
+        <v>15452</v>
       </c>
       <c r="C15" s="1">
         <v>97101.450888069332</v>
@@ -49501,10 +51160,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14864</v>
+        <v>15417</v>
       </c>
       <c r="B16" t="s">
-        <v>14900</v>
+        <v>15453</v>
       </c>
       <c r="C16" s="1">
         <v>121151.1679762976</v>
@@ -49527,10 +51186,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14865</v>
+        <v>15418</v>
       </c>
       <c r="B17" t="s">
-        <v>14901</v>
+        <v>15454</v>
       </c>
       <c r="C17" s="1">
         <v>829.94672213900139</v>
@@ -49551,10 +51210,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14866</v>
+        <v>15419</v>
       </c>
       <c r="B18" t="s">
-        <v>14902</v>
+        <v>15455</v>
       </c>
       <c r="C18" s="1">
         <v>1851.55709250523</v>
@@ -49575,10 +51234,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14867</v>
+        <v>15420</v>
       </c>
       <c r="B19" t="s">
-        <v>14903</v>
+        <v>15456</v>
       </c>
       <c r="C19" s="1">
         <v>1851.55709250523</v>
@@ -49597,10 +51256,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14868</v>
+        <v>15421</v>
       </c>
       <c r="B20" t="s">
-        <v>14904</v>
+        <v>15457</v>
       </c>
       <c r="C20" s="1">
         <v>13110.58352570426</v>
@@ -49623,10 +51282,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14869</v>
+        <v>15422</v>
       </c>
       <c r="B21" t="s">
-        <v>14905</v>
+        <v>15458</v>
       </c>
       <c r="C21" s="1">
         <v>1.421961</v>
@@ -49645,10 +51304,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14870</v>
+        <v>15423</v>
       </c>
       <c r="B22" t="s">
-        <v>14906</v>
+        <v>15459</v>
       </c>
       <c r="C22" s="1">
         <v>2008.0292188799999</v>
@@ -49665,10 +51324,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14871</v>
+        <v>15424</v>
       </c>
       <c r="B23" t="s">
-        <v>14907</v>
+        <v>15460</v>
       </c>
       <c r="C23" s="1">
         <v>728.95224428820325</v>
@@ -49687,10 +51346,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14872</v>
+        <v>15425</v>
       </c>
       <c r="B24" t="s">
-        <v>14908</v>
+        <v>15461</v>
       </c>
       <c r="C24" s="1">
         <v>10372.18010153606</v>
@@ -49713,10 +51372,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14873</v>
+        <v>15426</v>
       </c>
       <c r="B25" t="s">
-        <v>14909</v>
+        <v>15462</v>
       </c>
       <c r="C25" s="1">
         <v>117812.0378742148</v>
@@ -49739,10 +51398,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14874</v>
+        <v>15427</v>
       </c>
       <c r="B26" t="s">
-        <v>14910</v>
+        <v>15463</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -49755,10 +51414,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14875</v>
+        <v>15428</v>
       </c>
       <c r="B27" t="s">
-        <v>14911</v>
+        <v>15464</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -49777,10 +51436,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14876</v>
+        <v>15429</v>
       </c>
       <c r="B28" t="s">
-        <v>14912</v>
+        <v>15465</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -49795,10 +51454,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14877</v>
+        <v>15430</v>
       </c>
       <c r="B29" t="s">
-        <v>14913</v>
+        <v>15466</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -49817,10 +51476,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14878</v>
+        <v>15431</v>
       </c>
       <c r="B30" t="s">
-        <v>14914</v>
+        <v>15467</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -49833,10 +51492,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14879</v>
+        <v>15432</v>
       </c>
       <c r="B31" t="s">
-        <v>14915</v>
+        <v>15468</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -49855,10 +51514,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14880</v>
+        <v>15433</v>
       </c>
       <c r="B32" t="s">
-        <v>14916</v>
+        <v>15469</v>
       </c>
       <c r="C32" s="1">
         <v>13297.36380637088</v>
@@ -49873,10 +51532,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14881</v>
+        <v>15434</v>
       </c>
       <c r="B33" t="s">
-        <v>14917</v>
+        <v>15470</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -49897,16 +51556,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14882</v>
+        <v>15435</v>
       </c>
       <c r="B34" t="s">
-        <v>14918</v>
+        <v>15471</v>
       </c>
       <c r="C34" s="1">
         <v>10171.468589380889</v>
       </c>
       <c r="D34" s="1">
-        <v>10171.459058987501</v>
+        <v>10171.468589380889</v>
       </c>
       <c r="E34" s="1">
         <v>-79545.106801385089</v>
@@ -49923,16 +51582,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14882</v>
+        <v>15435</v>
       </c>
       <c r="B35" t="s">
-        <v>14918</v>
+        <v>15471</v>
       </c>
       <c r="C35" s="1">
         <v>10171.459058987501</v>
       </c>
       <c r="D35" s="1">
-        <v>10171.468589380889</v>
+        <v>10171.459058987501</v>
       </c>
       <c r="E35" s="1">
         <v>-79545.106801385089</v>
@@ -49949,28 +51608,30 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14883</v>
+        <v>15436</v>
       </c>
       <c r="B36" t="s">
-        <v>14919</v>
+        <v>15472</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>250754.8245620098</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>442.30808405340002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>313181.58741649322</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14884</v>
+        <v>15437</v>
       </c>
       <c r="B37" t="s">
-        <v>14920</v>
+        <v>15473</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -49983,23 +51644,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14885</v>
+        <v>15438</v>
       </c>
       <c r="B38" t="s">
-        <v>14921</v>
+        <v>15474</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>250754.8245620098</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>442.30808405340002</v>
-      </c>
-      <c r="H38" s="1">
-        <v>313181.58741649322</v>
-      </c>
+        <v>242248.42014405999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>242248.42014405999</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -50012,36 +51671,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14928</v>
+        <v>15481</v>
       </c>
       <c r="B1" t="s">
-        <v>14965</v>
+        <v>15518</v>
       </c>
       <c r="C1" t="s">
-        <v>15001</v>
+        <v>15554</v>
       </c>
       <c r="D1" t="s">
-        <v>15002</v>
+        <v>15555</v>
       </c>
       <c r="E1" t="s">
-        <v>15003</v>
+        <v>15556</v>
       </c>
       <c r="F1" t="s">
-        <v>15004</v>
+        <v>15557</v>
       </c>
       <c r="G1" t="s">
-        <v>15005</v>
+        <v>15558</v>
       </c>
       <c r="H1" t="s">
-        <v>15006</v>
+        <v>15559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14929</v>
+        <v>15482</v>
       </c>
       <c r="B2" t="s">
-        <v>14966</v>
+        <v>15519</v>
       </c>
       <c r="C2" s="1">
         <v>-200371.3593658637</v>
@@ -50056,10 +51715,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14930</v>
+        <v>15483</v>
       </c>
       <c r="B3" t="s">
-        <v>14967</v>
+        <v>15520</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -50078,10 +51737,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14931</v>
+        <v>15484</v>
       </c>
       <c r="B4" t="s">
-        <v>14968</v>
+        <v>15521</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -50098,10 +51757,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14932</v>
+        <v>15485</v>
       </c>
       <c r="B5" t="s">
-        <v>14969</v>
+        <v>15522</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -50114,10 +51773,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14933</v>
+        <v>15486</v>
       </c>
       <c r="B6" t="s">
-        <v>14970</v>
+        <v>15523</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -50134,10 +51793,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14934</v>
+        <v>15487</v>
       </c>
       <c r="B7" t="s">
-        <v>14971</v>
+        <v>15524</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -50150,10 +51809,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14935</v>
+        <v>15488</v>
       </c>
       <c r="B8" t="s">
-        <v>14971</v>
+        <v>15524</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -50166,10 +51825,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14936</v>
+        <v>15489</v>
       </c>
       <c r="B9" t="s">
-        <v>14972</v>
+        <v>15525</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -50182,10 +51841,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14937</v>
+        <v>15490</v>
       </c>
       <c r="B10" t="s">
-        <v>14973</v>
+        <v>15526</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -50200,10 +51859,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14938</v>
+        <v>15491</v>
       </c>
       <c r="B11" t="s">
-        <v>14974</v>
+        <v>15527</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -50222,10 +51881,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14939</v>
+        <v>15492</v>
       </c>
       <c r="B12" t="s">
-        <v>14975</v>
+        <v>15528</v>
       </c>
       <c r="C12" s="1">
         <v>-155.06439238415939</v>
@@ -50244,10 +51903,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>14940</v>
+        <v>15493</v>
       </c>
       <c r="B13" t="s">
-        <v>14976</v>
+        <v>15529</v>
       </c>
       <c r="C13" s="1">
         <v>314231.27904663578</v>
@@ -50270,10 +51929,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14941</v>
+        <v>15494</v>
       </c>
       <c r="B14" t="s">
-        <v>14977</v>
+        <v>15530</v>
       </c>
       <c r="C14" s="1">
         <v>51456.424245716291</v>
@@ -50296,10 +51955,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14942</v>
+        <v>15495</v>
       </c>
       <c r="B15" t="s">
-        <v>14978</v>
+        <v>15531</v>
       </c>
       <c r="C15" s="1">
         <v>262774.85480091948</v>
@@ -50318,10 +51977,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14943</v>
+        <v>15496</v>
       </c>
       <c r="B16" t="s">
-        <v>14979</v>
+        <v>15532</v>
       </c>
       <c r="C16" s="1">
         <v>265585.17502668808</v>
@@ -50344,10 +52003,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14944</v>
+        <v>15497</v>
       </c>
       <c r="B17" t="s">
-        <v>14980</v>
+        <v>15533</v>
       </c>
       <c r="C17" s="1">
         <v>1300.758691809164</v>
@@ -50368,10 +52027,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>14945</v>
+        <v>15498</v>
       </c>
       <c r="B18" t="s">
-        <v>14981</v>
+        <v>15534</v>
       </c>
       <c r="C18" s="1">
         <v>2035.2769079008131</v>
@@ -50392,10 +52051,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>14946</v>
+        <v>15499</v>
       </c>
       <c r="B19" t="s">
-        <v>14982</v>
+        <v>15535</v>
       </c>
       <c r="C19" s="1">
         <v>2035.2769079008131</v>
@@ -50414,10 +52073,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14947</v>
+        <v>15500</v>
       </c>
       <c r="B20" t="s">
-        <v>14983</v>
+        <v>15536</v>
       </c>
       <c r="C20" s="1">
         <v>13142.94333128056</v>
@@ -50440,10 +52099,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14948</v>
+        <v>15501</v>
       </c>
       <c r="B21" t="s">
-        <v>14984</v>
+        <v>15537</v>
       </c>
       <c r="C21" s="1">
         <v>1.218183</v>
@@ -50462,10 +52121,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>14949</v>
+        <v>15502</v>
       </c>
       <c r="B22" t="s">
-        <v>14985</v>
+        <v>15538</v>
       </c>
       <c r="C22" s="1">
         <v>1687.2726680000001</v>
@@ -50482,10 +52141,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>14950</v>
+        <v>15503</v>
       </c>
       <c r="B23" t="s">
-        <v>14986</v>
+        <v>15539</v>
       </c>
       <c r="C23" s="1">
         <v>2336.210388476667</v>
@@ -50504,10 +52163,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14951</v>
+        <v>15504</v>
       </c>
       <c r="B24" t="s">
-        <v>14987</v>
+        <v>15540</v>
       </c>
       <c r="C24" s="1">
         <v>9118.2420918038915</v>
@@ -50530,10 +52189,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>14952</v>
+        <v>15505</v>
       </c>
       <c r="B25" t="s">
-        <v>14988</v>
+        <v>15541</v>
       </c>
       <c r="C25" s="1">
         <v>262376.75111480377</v>
@@ -50556,10 +52215,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14953</v>
+        <v>15506</v>
       </c>
       <c r="B26" t="s">
-        <v>14989</v>
+        <v>15542</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -50572,18 +52231,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>14954</v>
+        <v>15507</v>
       </c>
       <c r="B27" t="s">
-        <v>14990</v>
+        <v>15543</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="F27" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="G27" s="1">
         <v>147140.71535390709</v>
@@ -50594,10 +52253,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>14955</v>
+        <v>15508</v>
       </c>
       <c r="B28" t="s">
-        <v>14991</v>
+        <v>15544</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -50612,10 +52271,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>14956</v>
+        <v>15509</v>
       </c>
       <c r="B29" t="s">
-        <v>14992</v>
+        <v>15545</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -50634,10 +52293,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>14957</v>
+        <v>15510</v>
       </c>
       <c r="B30" t="s">
-        <v>14993</v>
+        <v>15546</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -50650,18 +52309,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>14958</v>
+        <v>15511</v>
       </c>
       <c r="B31" t="s">
-        <v>14994</v>
+        <v>15547</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="F31" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="G31" s="1">
         <v>147140.71535390709</v>
@@ -50672,10 +52331,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>14959</v>
+        <v>15512</v>
       </c>
       <c r="B32" t="s">
-        <v>14995</v>
+        <v>15548</v>
       </c>
       <c r="C32" s="1">
         <v>62005.391748940048</v>
@@ -50690,10 +52349,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>14960</v>
+        <v>15513</v>
       </c>
       <c r="B33" t="s">
-        <v>14996</v>
+        <v>15549</v>
       </c>
       <c r="C33" s="1">
         <v>86.331224277060215</v>
@@ -50716,10 +52375,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14961</v>
+        <v>15514</v>
       </c>
       <c r="B34" t="s">
-        <v>14997</v>
+        <v>15550</v>
       </c>
       <c r="C34" s="1">
         <v>63134.524836636163</v>
@@ -50734,18 +52393,18 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G34" s="1">
+        <v>50492.474199902237</v>
+      </c>
+      <c r="H34" s="1">
         <v>50492.474199901873</v>
-      </c>
-      <c r="H34" s="1">
-        <v>50492.474199902237</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>14961</v>
+        <v>15514</v>
       </c>
       <c r="B35" t="s">
-        <v>14997</v>
+        <v>15550</v>
       </c>
       <c r="C35" s="1">
         <v>63134.515306242713</v>
@@ -50760,18 +52419,18 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G35" s="1">
+        <v>50492.474199901873</v>
+      </c>
+      <c r="H35" s="1">
         <v>50492.474199902237</v>
-      </c>
-      <c r="H35" s="1">
-        <v>50492.474199901873</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>14962</v>
+        <v>15515</v>
       </c>
       <c r="B36" t="s">
-        <v>14998</v>
+        <v>15551</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -50786,39 +52445,39 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>14963</v>
+        <v>15516</v>
       </c>
       <c r="B37" t="s">
-        <v>14999</v>
+        <v>15552</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>272538.25067318691</v>
+        <v>1891.473003789004</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>456.40441621169998</v>
-      </c>
-      <c r="H37" s="1">
-        <v>335741.85541967727</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>14964</v>
+        <v>15517</v>
       </c>
       <c r="B38" t="s">
-        <v>15000</v>
+        <v>15553</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>1891.473003789004</v>
+        <v>272538.25067318691</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="G38" s="1">
+        <v>456.40441621169998</v>
+      </c>
+      <c r="H38" s="1">
+        <v>335741.85541967727</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/input_data/sna_country_data/URY/cei.xlsx
+++ b/input_data/sna_country_data/URY/cei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30422" uniqueCount="19905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32144" uniqueCount="21564">
   <si>
     <t>code</t>
   </si>
@@ -59716,6 +59716,4983 @@
   </si>
   <si>
     <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
   </si>
   <si>
     <t>row_r</t>
@@ -59784,36 +64761,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19352</v>
+        <v>21011</v>
       </c>
       <c r="B1" t="s">
-        <v>19389</v>
+        <v>21048</v>
       </c>
       <c r="C1" t="s">
-        <v>19425</v>
+        <v>21084</v>
       </c>
       <c r="D1" t="s">
-        <v>19426</v>
+        <v>21085</v>
       </c>
       <c r="E1" t="s">
-        <v>19427</v>
+        <v>21086</v>
       </c>
       <c r="F1" t="s">
-        <v>19428</v>
+        <v>21087</v>
       </c>
       <c r="G1" t="s">
-        <v>19429</v>
+        <v>21088</v>
       </c>
       <c r="H1" t="s">
-        <v>19430</v>
+        <v>21089</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19353</v>
+        <v>21012</v>
       </c>
       <c r="B2" t="s">
-        <v>19390</v>
+        <v>21049</v>
       </c>
       <c r="C2" s="1">
         <v>-35345.263380289784</v>
@@ -59828,10 +64805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19354</v>
+        <v>21013</v>
       </c>
       <c r="B3" t="s">
-        <v>19391</v>
+        <v>21050</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -59850,10 +64827,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19355</v>
+        <v>21014</v>
       </c>
       <c r="B4" t="s">
-        <v>19392</v>
+        <v>21051</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -59870,10 +64847,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19356</v>
+        <v>21015</v>
       </c>
       <c r="B5" t="s">
-        <v>19393</v>
+        <v>21052</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -59890,10 +64867,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19357</v>
+        <v>21016</v>
       </c>
       <c r="B6" t="s">
-        <v>19394</v>
+        <v>21053</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -59906,10 +64883,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19358</v>
+        <v>21017</v>
       </c>
       <c r="B7" t="s">
-        <v>19395</v>
+        <v>21054</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -59926,10 +64903,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19359</v>
+        <v>21018</v>
       </c>
       <c r="B8" t="s">
-        <v>19396</v>
+        <v>21055</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -59944,10 +64921,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19360</v>
+        <v>21019</v>
       </c>
       <c r="B9" t="s">
-        <v>19396</v>
+        <v>21055</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -59960,10 +64937,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19361</v>
+        <v>21020</v>
       </c>
       <c r="B10" t="s">
-        <v>19397</v>
+        <v>21056</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -59978,10 +64955,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19362</v>
+        <v>21021</v>
       </c>
       <c r="B11" t="s">
-        <v>19398</v>
+        <v>21057</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -59996,10 +64973,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19363</v>
+        <v>21022</v>
       </c>
       <c r="B12" t="s">
-        <v>19399</v>
+        <v>21058</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -60018,10 +64995,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19364</v>
+        <v>21023</v>
       </c>
       <c r="B13" t="s">
-        <v>19400</v>
+        <v>21059</v>
       </c>
       <c r="C13" s="1">
         <v>105254.84066842961</v>
@@ -60044,10 +65021,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19365</v>
+        <v>21024</v>
       </c>
       <c r="B14" t="s">
-        <v>19401</v>
+        <v>21060</v>
       </c>
       <c r="C14" s="1">
         <v>20118.629433262511</v>
@@ -60070,10 +65047,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19366</v>
+        <v>21025</v>
       </c>
       <c r="B15" t="s">
-        <v>19402</v>
+        <v>21061</v>
       </c>
       <c r="C15" s="1">
         <v>85136.211235167109</v>
@@ -60096,10 +65073,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19367</v>
+        <v>21026</v>
       </c>
       <c r="B16" t="s">
-        <v>19403</v>
+        <v>21062</v>
       </c>
       <c r="C16" s="1">
         <v>77979.086634604173</v>
@@ -60122,10 +65099,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19368</v>
+        <v>21027</v>
       </c>
       <c r="B17" t="s">
-        <v>19404</v>
+        <v>21063</v>
       </c>
       <c r="C17" s="1">
         <v>708.07373372999996</v>
@@ -60146,10 +65123,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19369</v>
+        <v>21028</v>
       </c>
       <c r="B18" t="s">
-        <v>19405</v>
+        <v>21064</v>
       </c>
       <c r="C18" s="1">
         <v>708.07373372999996</v>
@@ -60166,10 +65143,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19370</v>
+        <v>21029</v>
       </c>
       <c r="B19" t="s">
-        <v>19406</v>
+        <v>21065</v>
       </c>
       <c r="C19" s="1">
         <v>2128.9819248528388</v>
@@ -60192,10 +65169,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19371</v>
+        <v>21030</v>
       </c>
       <c r="B20" t="s">
-        <v>19407</v>
+        <v>21066</v>
       </c>
       <c r="C20" s="1">
         <v>610.943299077402</v>
@@ -60212,10 +65189,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19372</v>
+        <v>21031</v>
       </c>
       <c r="B21" t="s">
-        <v>19408</v>
+        <v>21067</v>
       </c>
       <c r="C21" s="1">
         <v>476.41603700000002</v>
@@ -60234,10 +65211,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19373</v>
+        <v>21032</v>
       </c>
       <c r="B22" t="s">
-        <v>19409</v>
+        <v>21068</v>
       </c>
       <c r="C22" s="1">
         <v>1041.622588775437</v>
@@ -60260,10 +65237,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19374</v>
+        <v>21033</v>
       </c>
       <c r="B23" t="s">
-        <v>19410</v>
+        <v>21069</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -60280,10 +65257,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19375</v>
+        <v>21034</v>
       </c>
       <c r="B24" t="s">
-        <v>19411</v>
+        <v>21070</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -60300,10 +65277,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19376</v>
+        <v>21035</v>
       </c>
       <c r="B25" t="s">
-        <v>19412</v>
+        <v>21071</v>
       </c>
       <c r="C25" s="1">
         <v>75685.254770642801</v>
@@ -60326,10 +65303,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19377</v>
+        <v>21036</v>
       </c>
       <c r="B26" t="s">
-        <v>19413</v>
+        <v>21072</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -60344,10 +65321,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19378</v>
+        <v>21037</v>
       </c>
       <c r="B27" t="s">
-        <v>19414</v>
+        <v>21073</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -60366,10 +65343,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19379</v>
+        <v>21038</v>
       </c>
       <c r="B28" t="s">
-        <v>19415</v>
+        <v>21074</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -60384,10 +65361,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19380</v>
+        <v>21039</v>
       </c>
       <c r="B29" t="s">
-        <v>19416</v>
+        <v>21075</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -60406,10 +65383,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19381</v>
+        <v>21040</v>
       </c>
       <c r="B30" t="s">
-        <v>19417</v>
+        <v>21076</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -60424,10 +65401,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19382</v>
+        <v>21041</v>
       </c>
       <c r="B31" t="s">
-        <v>19418</v>
+        <v>21077</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -60446,10 +65423,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19383</v>
+        <v>21042</v>
       </c>
       <c r="B32" t="s">
-        <v>19419</v>
+        <v>21078</v>
       </c>
       <c r="C32" s="1">
         <v>40339.991390353032</v>
@@ -60464,10 +65441,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19384</v>
+        <v>21043</v>
       </c>
       <c r="B33" t="s">
-        <v>19420</v>
+        <v>21079</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -60488,10 +65465,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19385</v>
+        <v>21044</v>
       </c>
       <c r="B34" t="s">
-        <v>19421</v>
+        <v>21080</v>
       </c>
       <c r="C34" s="1">
         <v>37886.776197581872</v>
@@ -60506,7 +65483,7 @@
         <v>-25147.551874929632</v>
       </c>
       <c r="G34" s="1">
-        <v>25446.753598644718</v>
+        <v>25446.753598644849</v>
       </c>
       <c r="H34" s="1">
         <v>25446.753598644718</v>
@@ -60514,10 +65491,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19385</v>
+        <v>21044</v>
       </c>
       <c r="B35" t="s">
-        <v>19421</v>
+        <v>21080</v>
       </c>
       <c r="C35" s="1">
         <v>37886.776197581872</v>
@@ -60532,7 +65509,7 @@
         <v>-25147.551874929632</v>
       </c>
       <c r="G35" s="1">
-        <v>25446.753598644849</v>
+        <v>25446.753598644718</v>
       </c>
       <c r="H35" s="1">
         <v>25446.753598644849</v>
@@ -60540,55 +65517,55 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19386</v>
+        <v>21045</v>
       </c>
       <c r="B36" t="s">
-        <v>19422</v>
+        <v>21081</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>79482.446760280014</v>
-      </c>
-      <c r="F36" s="1">
-        <v>79482.446760280014</v>
-      </c>
+        <v>926.5806651800001</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19387</v>
+        <v>21046</v>
       </c>
       <c r="B37" t="s">
-        <v>19423</v>
+        <v>21082</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>113976.0975413</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>79482.446760280014</v>
+      </c>
+      <c r="F37" s="1">
+        <v>79482.446760280014</v>
+      </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="1">
-        <v>137582.86030768359</v>
-      </c>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19388</v>
+        <v>21047</v>
       </c>
       <c r="B38" t="s">
-        <v>19424</v>
+        <v>21083</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>926.5806651800001</v>
+        <v>113976.0975413</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>137582.86030768359</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -60601,36 +65578,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19431</v>
+        <v>21090</v>
       </c>
       <c r="B1" t="s">
-        <v>19468</v>
+        <v>21127</v>
       </c>
       <c r="C1" t="s">
-        <v>19504</v>
+        <v>21163</v>
       </c>
       <c r="D1" t="s">
-        <v>19505</v>
+        <v>21164</v>
       </c>
       <c r="E1" t="s">
-        <v>19506</v>
+        <v>21165</v>
       </c>
       <c r="F1" t="s">
-        <v>19507</v>
+        <v>21166</v>
       </c>
       <c r="G1" t="s">
-        <v>19508</v>
+        <v>21167</v>
       </c>
       <c r="H1" t="s">
-        <v>19509</v>
+        <v>21168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19432</v>
+        <v>21091</v>
       </c>
       <c r="B2" t="s">
-        <v>19469</v>
+        <v>21128</v>
       </c>
       <c r="C2" s="1">
         <v>-92111.334701685584</v>
@@ -60645,10 +65622,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19433</v>
+        <v>21092</v>
       </c>
       <c r="B3" t="s">
-        <v>19470</v>
+        <v>21129</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -60667,10 +65644,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19434</v>
+        <v>21093</v>
       </c>
       <c r="B4" t="s">
-        <v>19471</v>
+        <v>21130</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -60687,10 +65664,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19435</v>
+        <v>21094</v>
       </c>
       <c r="B5" t="s">
-        <v>19472</v>
+        <v>21131</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -60707,10 +65684,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19436</v>
+        <v>21095</v>
       </c>
       <c r="B6" t="s">
-        <v>19473</v>
+        <v>21132</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -60723,10 +65700,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19437</v>
+        <v>21096</v>
       </c>
       <c r="B7" t="s">
-        <v>19474</v>
+        <v>21133</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -60743,10 +65720,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19438</v>
+        <v>21097</v>
       </c>
       <c r="B8" t="s">
-        <v>19475</v>
+        <v>21134</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -60759,10 +65736,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19439</v>
+        <v>21098</v>
       </c>
       <c r="B9" t="s">
-        <v>19475</v>
+        <v>21134</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -60775,10 +65752,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19440</v>
+        <v>21099</v>
       </c>
       <c r="B10" t="s">
-        <v>19476</v>
+        <v>21135</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -60791,10 +65768,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19441</v>
+        <v>21100</v>
       </c>
       <c r="B11" t="s">
-        <v>19477</v>
+        <v>21136</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -60809,10 +65786,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19442</v>
+        <v>21101</v>
       </c>
       <c r="B12" t="s">
-        <v>19478</v>
+        <v>21137</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -60831,10 +65808,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19443</v>
+        <v>21102</v>
       </c>
       <c r="B13" t="s">
-        <v>19479</v>
+        <v>21138</v>
       </c>
       <c r="C13" s="1">
         <v>111912.2883479437</v>
@@ -60857,10 +65834,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19444</v>
+        <v>21103</v>
       </c>
       <c r="B14" t="s">
-        <v>19480</v>
+        <v>21139</v>
       </c>
       <c r="C14" s="1">
         <v>37196.900831416431</v>
@@ -60883,10 +65860,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19445</v>
+        <v>21104</v>
       </c>
       <c r="B15" t="s">
-        <v>19481</v>
+        <v>21140</v>
       </c>
       <c r="C15" s="1">
         <v>74715.387516527291</v>
@@ -60909,10 +65886,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19446</v>
+        <v>21105</v>
       </c>
       <c r="B16" t="s">
-        <v>19482</v>
+        <v>21141</v>
       </c>
       <c r="C16" s="1">
         <v>81203.449470399617</v>
@@ -60935,10 +65912,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19447</v>
+        <v>21106</v>
       </c>
       <c r="B17" t="s">
-        <v>19483</v>
+        <v>21142</v>
       </c>
       <c r="C17" s="1">
         <v>1114.5240200000001</v>
@@ -60959,10 +65936,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19448</v>
+        <v>21107</v>
       </c>
       <c r="B18" t="s">
-        <v>19484</v>
+        <v>21143</v>
       </c>
       <c r="C18" s="1">
         <v>1114.5240200000001</v>
@@ -60981,10 +65958,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19449</v>
+        <v>21108</v>
       </c>
       <c r="B19" t="s">
-        <v>19485</v>
+        <v>21144</v>
       </c>
       <c r="C19" s="1">
         <v>17219.038211090661</v>
@@ -61007,10 +65984,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19450</v>
+        <v>21109</v>
       </c>
       <c r="B20" t="s">
-        <v>19486</v>
+        <v>21145</v>
       </c>
       <c r="C20" s="1">
         <v>98.619980999999996</v>
@@ -61029,10 +66006,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19451</v>
+        <v>21110</v>
       </c>
       <c r="B21" t="s">
-        <v>19487</v>
+        <v>21146</v>
       </c>
       <c r="C21" s="1">
         <v>1657.9772827899999</v>
@@ -61049,10 +66026,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19452</v>
+        <v>21111</v>
       </c>
       <c r="B22" t="s">
-        <v>19488</v>
+        <v>21147</v>
       </c>
       <c r="C22" s="1">
         <v>1009.104553</v>
@@ -61071,10 +66048,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19453</v>
+        <v>21112</v>
       </c>
       <c r="B23" t="s">
-        <v>19489</v>
+        <v>21148</v>
       </c>
       <c r="C23" s="1">
         <v>14453.336394300661</v>
@@ -61097,10 +66074,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19454</v>
+        <v>21113</v>
       </c>
       <c r="B24" t="s">
-        <v>19490</v>
+        <v>21149</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -61119,10 +66096,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19455</v>
+        <v>21114</v>
       </c>
       <c r="B25" t="s">
-        <v>19491</v>
+        <v>21150</v>
       </c>
       <c r="C25" s="1">
         <v>79087.001794051394</v>
@@ -61145,10 +66122,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19456</v>
+        <v>21115</v>
       </c>
       <c r="B26" t="s">
-        <v>19492</v>
+        <v>21151</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -61163,15 +66140,15 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19457</v>
+        <v>21116</v>
       </c>
       <c r="B27" t="s">
-        <v>19493</v>
+        <v>21152</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="F27" s="1">
         <v>-10570.434075028639</v>
@@ -61185,10 +66162,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19458</v>
+        <v>21117</v>
       </c>
       <c r="B28" t="s">
-        <v>19494</v>
+        <v>21153</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -61203,10 +66180,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19459</v>
+        <v>21118</v>
       </c>
       <c r="B29" t="s">
-        <v>19495</v>
+        <v>21154</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -61225,10 +66202,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19460</v>
+        <v>21119</v>
       </c>
       <c r="B30" t="s">
-        <v>19496</v>
+        <v>21155</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -61243,15 +66220,15 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19461</v>
+        <v>21120</v>
       </c>
       <c r="B31" t="s">
-        <v>19497</v>
+        <v>21156</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="F31" s="1">
         <v>-10570.43407502865</v>
@@ -61265,10 +66242,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19462</v>
+        <v>21121</v>
       </c>
       <c r="B32" t="s">
-        <v>19498</v>
+        <v>21157</v>
       </c>
       <c r="C32" s="1">
         <v>-13024.332907634191</v>
@@ -61283,10 +66260,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19463</v>
+        <v>21122</v>
       </c>
       <c r="B33" t="s">
-        <v>19499</v>
+        <v>21158</v>
       </c>
       <c r="C33" s="1">
         <v>181.0641172</v>
@@ -61309,10 +66286,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19464</v>
+        <v>21123</v>
       </c>
       <c r="B34" t="s">
-        <v>19500</v>
+        <v>21159</v>
       </c>
       <c r="C34" s="1">
         <v>-14574.43484844782</v>
@@ -61324,7 +66301,7 @@
         <v>-66950.582658753847</v>
       </c>
       <c r="F34" s="1">
-        <v>-66950.582658753847</v>
+        <v>-66950.582658753861</v>
       </c>
       <c r="G34" s="1">
         <v>55330.055140544697</v>
@@ -61335,10 +66312,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19464</v>
+        <v>21123</v>
       </c>
       <c r="B35" t="s">
-        <v>19500</v>
+        <v>21159</v>
       </c>
       <c r="C35" s="1">
         <v>-14574.434848447811</v>
@@ -61350,7 +66327,7 @@
         <v>-66950.582658753861</v>
       </c>
       <c r="F35" s="1">
-        <v>-66950.582658753861</v>
+        <v>-66950.582658753847</v>
       </c>
       <c r="G35" s="1">
         <v>55330.055140544151</v>
@@ -61361,48 +66338,48 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19465</v>
+        <v>21124</v>
       </c>
       <c r="B36" t="s">
-        <v>19501</v>
+        <v>21160</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>181558.9914336357</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>310.92989817709997</v>
-      </c>
-      <c r="H36" s="1">
-        <v>223683.25268700649</v>
-      </c>
+        <v>147042.35994689999</v>
+      </c>
+      <c r="F36" s="1">
+        <v>147042.21094677999</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19466</v>
+        <v>21125</v>
       </c>
       <c r="B37" t="s">
-        <v>19502</v>
+        <v>21161</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>147042.35994689999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>147042.21094677999</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>181558.9914336357</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>310.92989817709997</v>
+      </c>
+      <c r="H37" s="1">
+        <v>223683.25268700649</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19467</v>
+        <v>21126</v>
       </c>
       <c r="B38" t="s">
-        <v>19503</v>
+        <v>21162</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -61424,36 +66401,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19510</v>
+        <v>21169</v>
       </c>
       <c r="B1" t="s">
-        <v>19547</v>
+        <v>21206</v>
       </c>
       <c r="C1" t="s">
-        <v>19583</v>
+        <v>21242</v>
       </c>
       <c r="D1" t="s">
-        <v>19584</v>
+        <v>21243</v>
       </c>
       <c r="E1" t="s">
-        <v>19585</v>
+        <v>21244</v>
       </c>
       <c r="F1" t="s">
-        <v>19586</v>
+        <v>21245</v>
       </c>
       <c r="G1" t="s">
-        <v>19587</v>
+        <v>21246</v>
       </c>
       <c r="H1" t="s">
-        <v>19588</v>
+        <v>21247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19511</v>
+        <v>21170</v>
       </c>
       <c r="B2" t="s">
-        <v>19548</v>
+        <v>21207</v>
       </c>
       <c r="C2" s="1">
         <v>-102236.23721409201</v>
@@ -61468,10 +66445,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19512</v>
+        <v>21171</v>
       </c>
       <c r="B3" t="s">
-        <v>19549</v>
+        <v>21208</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -61490,10 +66467,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19513</v>
+        <v>21172</v>
       </c>
       <c r="B4" t="s">
-        <v>19550</v>
+        <v>21209</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -61510,10 +66487,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19514</v>
+        <v>21173</v>
       </c>
       <c r="B5" t="s">
-        <v>19551</v>
+        <v>21210</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -61526,10 +66503,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19515</v>
+        <v>21174</v>
       </c>
       <c r="B6" t="s">
-        <v>19552</v>
+        <v>21211</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -61546,10 +66523,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19516</v>
+        <v>21175</v>
       </c>
       <c r="B7" t="s">
-        <v>19553</v>
+        <v>21212</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -61562,10 +66539,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19517</v>
+        <v>21176</v>
       </c>
       <c r="B8" t="s">
-        <v>19553</v>
+        <v>21212</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -61578,10 +66555,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19518</v>
+        <v>21177</v>
       </c>
       <c r="B9" t="s">
-        <v>19554</v>
+        <v>21213</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -61594,10 +66571,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19519</v>
+        <v>21178</v>
       </c>
       <c r="B10" t="s">
-        <v>19555</v>
+        <v>21214</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -61612,10 +66589,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19520</v>
+        <v>21179</v>
       </c>
       <c r="B11" t="s">
-        <v>19556</v>
+        <v>21215</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -61634,10 +66611,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19521</v>
+        <v>21180</v>
       </c>
       <c r="B12" t="s">
-        <v>19557</v>
+        <v>21216</v>
       </c>
       <c r="C12" s="1">
         <v>-83.070126027215935</v>
@@ -61656,10 +66633,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19522</v>
+        <v>21181</v>
       </c>
       <c r="B13" t="s">
-        <v>19558</v>
+        <v>21217</v>
       </c>
       <c r="C13" s="1">
         <v>144279.01796396461</v>
@@ -61682,10 +66659,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19523</v>
+        <v>21182</v>
       </c>
       <c r="B14" t="s">
-        <v>19559</v>
+        <v>21218</v>
       </c>
       <c r="C14" s="1">
         <v>32414.538114762661</v>
@@ -61708,10 +66685,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19524</v>
+        <v>21183</v>
       </c>
       <c r="B15" t="s">
-        <v>19560</v>
+        <v>21219</v>
       </c>
       <c r="C15" s="1">
         <v>111864.47984920201</v>
@@ -61732,10 +66709,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19525</v>
+        <v>21184</v>
       </c>
       <c r="B16" t="s">
-        <v>19561</v>
+        <v>21220</v>
       </c>
       <c r="C16" s="1">
         <v>101315.1098362044</v>
@@ -61758,10 +66735,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19526</v>
+        <v>21185</v>
       </c>
       <c r="B17" t="s">
-        <v>19562</v>
+        <v>21221</v>
       </c>
       <c r="C17" s="1">
         <v>526.84154559200761</v>
@@ -61782,10 +66759,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19527</v>
+        <v>21186</v>
       </c>
       <c r="B18" t="s">
-        <v>19563</v>
+        <v>21222</v>
       </c>
       <c r="C18" s="1">
         <v>1300.503467</v>
@@ -61806,10 +66783,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19528</v>
+        <v>21187</v>
       </c>
       <c r="B19" t="s">
-        <v>19564</v>
+        <v>21223</v>
       </c>
       <c r="C19" s="1">
         <v>1300.503467</v>
@@ -61828,10 +66805,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19529</v>
+        <v>21188</v>
       </c>
       <c r="B20" t="s">
-        <v>19565</v>
+        <v>21224</v>
       </c>
       <c r="C20" s="1">
         <v>16387.63379557012</v>
@@ -61854,10 +66831,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19530</v>
+        <v>21189</v>
       </c>
       <c r="B21" t="s">
-        <v>19566</v>
+        <v>21225</v>
       </c>
       <c r="C21" s="1">
         <v>97.490238000000005</v>
@@ -61876,10 +66853,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19531</v>
+        <v>21190</v>
       </c>
       <c r="B22" t="s">
-        <v>19567</v>
+        <v>21226</v>
       </c>
       <c r="C22" s="1">
         <v>1386.9169386399999</v>
@@ -61896,10 +66873,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19532</v>
+        <v>21191</v>
       </c>
       <c r="B23" t="s">
-        <v>19568</v>
+        <v>21227</v>
       </c>
       <c r="C23" s="1">
         <v>1117.864241</v>
@@ -61918,10 +66895,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19533</v>
+        <v>21192</v>
       </c>
       <c r="B24" t="s">
-        <v>19569</v>
+        <v>21228</v>
       </c>
       <c r="C24" s="1">
         <v>13785.36237793012</v>
@@ -61944,10 +66921,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19534</v>
+        <v>21193</v>
       </c>
       <c r="B25" t="s">
-        <v>19570</v>
+        <v>21229</v>
       </c>
       <c r="C25" s="1">
         <v>98850.343655568271</v>
@@ -61970,10 +66947,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19535</v>
+        <v>21194</v>
       </c>
       <c r="B26" t="s">
-        <v>19571</v>
+        <v>21230</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -61988,10 +66965,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19536</v>
+        <v>21195</v>
       </c>
       <c r="B27" t="s">
-        <v>19572</v>
+        <v>21231</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -61999,7 +66976,7 @@
         <v>-25017.38878234318</v>
       </c>
       <c r="F27" s="1">
-        <v>-25017.388782343201</v>
+        <v>-25017.38878234318</v>
       </c>
       <c r="G27" s="1">
         <v>118456.4656790759</v>
@@ -62010,10 +66987,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19537</v>
+        <v>21196</v>
       </c>
       <c r="B28" t="s">
-        <v>19573</v>
+        <v>21232</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -62028,10 +67005,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19538</v>
+        <v>21197</v>
       </c>
       <c r="B29" t="s">
-        <v>19574</v>
+        <v>21233</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -62050,10 +67027,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19539</v>
+        <v>21198</v>
       </c>
       <c r="B30" t="s">
-        <v>19575</v>
+        <v>21234</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -62068,10 +67045,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19540</v>
+        <v>21199</v>
       </c>
       <c r="B31" t="s">
-        <v>19576</v>
+        <v>21235</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -62079,7 +67056,7 @@
         <v>-25017.388782343201</v>
       </c>
       <c r="F31" s="1">
-        <v>-25017.38878234318</v>
+        <v>-25017.388782343201</v>
       </c>
       <c r="G31" s="1">
         <v>118456.4656790759</v>
@@ -62090,10 +67067,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19541</v>
+        <v>21200</v>
       </c>
       <c r="B32" t="s">
-        <v>19577</v>
+        <v>21236</v>
       </c>
       <c r="C32" s="1">
         <v>-3385.8935585237782</v>
@@ -62108,10 +67085,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19542</v>
+        <v>21201</v>
       </c>
       <c r="B33" t="s">
-        <v>19578</v>
+        <v>21237</v>
       </c>
       <c r="C33" s="1">
         <v>0.27703699999999998</v>
@@ -62134,10 +67111,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19543</v>
+        <v>21202</v>
       </c>
       <c r="B34" t="s">
-        <v>19579</v>
+        <v>21238</v>
       </c>
       <c r="C34" s="1">
         <v>-4009.0753441289771</v>
@@ -62149,21 +67126,21 @@
         <v>-63565.818181042087</v>
       </c>
       <c r="F34" s="1">
-        <v>-63565.770979082881</v>
+        <v>-63565.818181042087</v>
       </c>
       <c r="G34" s="1">
         <v>43782.161676835007</v>
       </c>
       <c r="H34" s="1">
-        <v>43782.161676834643</v>
+        <v>43782.161676835007</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19543</v>
+        <v>21202</v>
       </c>
       <c r="B35" t="s">
-        <v>19579</v>
+        <v>21238</v>
       </c>
       <c r="C35" s="1">
         <v>-4009.0753441289712</v>
@@ -62175,39 +67152,37 @@
         <v>-63565.770979082881</v>
       </c>
       <c r="F35" s="1">
-        <v>-63565.818181042087</v>
+        <v>-63565.770979082881</v>
       </c>
       <c r="G35" s="1">
         <v>43782.161676834643</v>
       </c>
       <c r="H35" s="1">
-        <v>43782.161676835007</v>
+        <v>43782.161676834643</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19544</v>
+        <v>21203</v>
       </c>
       <c r="B36" t="s">
-        <v>19580</v>
+        <v>21239</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>170013.75605207999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>170013.75605207999</v>
-      </c>
+        <v>1378.685344355712</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19545</v>
+        <v>21204</v>
       </c>
       <c r="B37" t="s">
-        <v>19581</v>
+        <v>21240</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -62224,17 +67199,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19546</v>
+        <v>21205</v>
       </c>
       <c r="B38" t="s">
-        <v>19582</v>
+        <v>21241</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>1378.685344355712</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>170013.75605207999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>170013.75605207999</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -62249,36 +67226,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19589</v>
+        <v>21248</v>
       </c>
       <c r="B1" t="s">
-        <v>19626</v>
+        <v>21285</v>
       </c>
       <c r="C1" t="s">
-        <v>19662</v>
+        <v>21321</v>
       </c>
       <c r="D1" t="s">
-        <v>19663</v>
+        <v>21322</v>
       </c>
       <c r="E1" t="s">
-        <v>19664</v>
+        <v>21323</v>
       </c>
       <c r="F1" t="s">
-        <v>19665</v>
+        <v>21324</v>
       </c>
       <c r="G1" t="s">
-        <v>19666</v>
+        <v>21325</v>
       </c>
       <c r="H1" t="s">
-        <v>19667</v>
+        <v>21326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19590</v>
+        <v>21249</v>
       </c>
       <c r="B2" t="s">
-        <v>19627</v>
+        <v>21286</v>
       </c>
       <c r="C2" s="1">
         <v>-101427.2938489076</v>
@@ -62293,10 +67270,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19591</v>
+        <v>21250</v>
       </c>
       <c r="B3" t="s">
-        <v>19628</v>
+        <v>21287</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -62315,10 +67292,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19592</v>
+        <v>21251</v>
       </c>
       <c r="B4" t="s">
-        <v>19629</v>
+        <v>21288</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -62335,10 +67312,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19593</v>
+        <v>21252</v>
       </c>
       <c r="B5" t="s">
-        <v>19630</v>
+        <v>21289</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -62351,10 +67328,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19594</v>
+        <v>21253</v>
       </c>
       <c r="B6" t="s">
-        <v>19631</v>
+        <v>21290</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -62371,10 +67348,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19595</v>
+        <v>21254</v>
       </c>
       <c r="B7" t="s">
-        <v>19632</v>
+        <v>21291</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -62387,10 +67364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19596</v>
+        <v>21255</v>
       </c>
       <c r="B8" t="s">
-        <v>19632</v>
+        <v>21291</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -62403,10 +67380,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19597</v>
+        <v>21256</v>
       </c>
       <c r="B9" t="s">
-        <v>19633</v>
+        <v>21292</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -62419,10 +67396,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19598</v>
+        <v>21257</v>
       </c>
       <c r="B10" t="s">
-        <v>19634</v>
+        <v>21293</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -62437,10 +67414,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19599</v>
+        <v>21258</v>
       </c>
       <c r="B11" t="s">
-        <v>19635</v>
+        <v>21294</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -62459,10 +67436,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19600</v>
+        <v>21259</v>
       </c>
       <c r="B12" t="s">
-        <v>19636</v>
+        <v>21295</v>
       </c>
       <c r="C12" s="1">
         <v>-92.934358778526615</v>
@@ -62481,10 +67458,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19601</v>
+        <v>21260</v>
       </c>
       <c r="B13" t="s">
-        <v>19637</v>
+        <v>21296</v>
       </c>
       <c r="C13" s="1">
         <v>162249.8021316196</v>
@@ -62507,10 +67484,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19602</v>
+        <v>21261</v>
       </c>
       <c r="B14" t="s">
-        <v>19638</v>
+        <v>21297</v>
       </c>
       <c r="C14" s="1">
         <v>43179.357846405859</v>
@@ -62533,10 +67510,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19603</v>
+        <v>21262</v>
       </c>
       <c r="B15" t="s">
-        <v>19639</v>
+        <v>21298</v>
       </c>
       <c r="C15" s="1">
         <v>119070.4442852137</v>
@@ -62557,10 +67534,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19604</v>
+        <v>21263</v>
       </c>
       <c r="B16" t="s">
-        <v>19640</v>
+        <v>21299</v>
       </c>
       <c r="C16" s="1">
         <v>111072.9372501466</v>
@@ -62583,10 +67560,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19605</v>
+        <v>21264</v>
       </c>
       <c r="B17" t="s">
-        <v>19641</v>
+        <v>21300</v>
       </c>
       <c r="C17" s="1">
         <v>455.25087191519339</v>
@@ -62607,10 +67584,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19606</v>
+        <v>21265</v>
       </c>
       <c r="B18" t="s">
-        <v>19642</v>
+        <v>21301</v>
       </c>
       <c r="C18" s="1">
         <v>1486.8528134281901</v>
@@ -62631,10 +67608,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19607</v>
+        <v>21266</v>
       </c>
       <c r="B19" t="s">
-        <v>19643</v>
+        <v>21302</v>
       </c>
       <c r="C19" s="1">
         <v>1486.8528134281901</v>
@@ -62653,10 +67630,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19608</v>
+        <v>21267</v>
       </c>
       <c r="B20" t="s">
-        <v>19644</v>
+        <v>21303</v>
       </c>
       <c r="C20" s="1">
         <v>19645.88621086465</v>
@@ -62679,10 +67656,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19609</v>
+        <v>21268</v>
       </c>
       <c r="B21" t="s">
-        <v>19645</v>
+        <v>21304</v>
       </c>
       <c r="C21" s="1">
         <v>1.3780870000000001</v>
@@ -62701,10 +67678,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19610</v>
+        <v>21269</v>
       </c>
       <c r="B22" t="s">
-        <v>19646</v>
+        <v>21305</v>
       </c>
       <c r="C22" s="1">
         <v>1680.6084285300001</v>
@@ -62721,10 +67698,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19611</v>
+        <v>21270</v>
       </c>
       <c r="B23" t="s">
-        <v>19647</v>
+        <v>21306</v>
       </c>
       <c r="C23" s="1">
         <v>1167.0419095569939</v>
@@ -62743,10 +67720,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19612</v>
+        <v>21271</v>
       </c>
       <c r="B24" t="s">
-        <v>19648</v>
+        <v>21307</v>
       </c>
       <c r="C24" s="1">
         <v>16796.857785777662</v>
@@ -62769,10 +67746,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19613</v>
+        <v>21272</v>
       </c>
       <c r="B25" t="s">
-        <v>19649</v>
+        <v>21308</v>
       </c>
       <c r="C25" s="1">
         <v>108339.94151571881</v>
@@ -62795,10 +67772,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19614</v>
+        <v>21273</v>
       </c>
       <c r="B26" t="s">
-        <v>19650</v>
+        <v>21309</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -62811,10 +67788,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19615</v>
+        <v>21274</v>
       </c>
       <c r="B27" t="s">
-        <v>19651</v>
+        <v>21310</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -62833,10 +67810,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19616</v>
+        <v>21275</v>
       </c>
       <c r="B28" t="s">
-        <v>19652</v>
+        <v>21311</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -62851,10 +67828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19617</v>
+        <v>21276</v>
       </c>
       <c r="B29" t="s">
-        <v>19653</v>
+        <v>21312</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -62873,10 +67850,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19618</v>
+        <v>21277</v>
       </c>
       <c r="B30" t="s">
-        <v>19654</v>
+        <v>21313</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -62889,10 +67866,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19619</v>
+        <v>21278</v>
       </c>
       <c r="B31" t="s">
-        <v>19655</v>
+        <v>21314</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -62911,10 +67888,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19620</v>
+        <v>21279</v>
       </c>
       <c r="B32" t="s">
-        <v>19656</v>
+        <v>21315</v>
       </c>
       <c r="C32" s="1">
         <v>6912.6476668112009</v>
@@ -62929,10 +67906,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19621</v>
+        <v>21280</v>
       </c>
       <c r="B33" t="s">
-        <v>19657</v>
+        <v>21316</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -62953,10 +67930,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19622</v>
+        <v>21281</v>
       </c>
       <c r="B34" t="s">
-        <v>19658</v>
+        <v>21317</v>
       </c>
       <c r="C34" s="1">
         <v>5442.5976345336867</v>
@@ -62965,13 +67942,13 @@
         <v>5442.5976345336867</v>
       </c>
       <c r="E34" s="1">
-        <v>-49773.892247343349</v>
+        <v>-49773.892247342999</v>
       </c>
       <c r="F34" s="1">
         <v>-49773.892247342999</v>
       </c>
       <c r="G34" s="1">
-        <v>33283.712597372112</v>
+        <v>33283.712597372418</v>
       </c>
       <c r="H34" s="1">
         <v>33283.712597372112</v>
@@ -62979,10 +67956,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19622</v>
+        <v>21281</v>
       </c>
       <c r="B35" t="s">
-        <v>19658</v>
+        <v>21317</v>
       </c>
       <c r="C35" s="1">
         <v>5442.5976345336967</v>
@@ -62991,13 +67968,13 @@
         <v>5442.5976345336967</v>
       </c>
       <c r="E35" s="1">
-        <v>-49773.892247342999</v>
+        <v>-49773.892247343349</v>
       </c>
       <c r="F35" s="1">
         <v>-49773.892247343349</v>
       </c>
       <c r="G35" s="1">
-        <v>33283.712597372418</v>
+        <v>33283.712597372112</v>
       </c>
       <c r="H35" s="1">
         <v>33283.712597372418</v>
@@ -63005,48 +67982,48 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19623</v>
+        <v>21282</v>
       </c>
       <c r="B36" t="s">
-        <v>19659</v>
+        <v>21318</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>215925.528549476</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>381.05244255449912</v>
-      </c>
-      <c r="H36" s="1">
-        <v>271956.46735150547</v>
-      </c>
+        <v>207169.67690947151</v>
+      </c>
+      <c r="F36" s="1">
+        <v>207169.67690947151</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19624</v>
+        <v>21283</v>
       </c>
       <c r="B37" t="s">
-        <v>19660</v>
+        <v>21319</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>207169.67690947151</v>
-      </c>
-      <c r="F37" s="1">
-        <v>207169.67690947151</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>215925.528549476</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1">
+        <v>381.05244255449912</v>
+      </c>
+      <c r="H37" s="1">
+        <v>271956.46735150547</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19625</v>
+        <v>21284</v>
       </c>
       <c r="B38" t="s">
-        <v>19661</v>
+        <v>21320</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -63068,36 +68045,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19668</v>
+        <v>21327</v>
       </c>
       <c r="B1" t="s">
-        <v>19705</v>
+        <v>21364</v>
       </c>
       <c r="C1" t="s">
-        <v>19741</v>
+        <v>21400</v>
       </c>
       <c r="D1" t="s">
-        <v>19742</v>
+        <v>21401</v>
       </c>
       <c r="E1" t="s">
-        <v>19743</v>
+        <v>21402</v>
       </c>
       <c r="F1" t="s">
-        <v>19744</v>
+        <v>21403</v>
       </c>
       <c r="G1" t="s">
-        <v>19745</v>
+        <v>21404</v>
       </c>
       <c r="H1" t="s">
-        <v>19746</v>
+        <v>21405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19669</v>
+        <v>21328</v>
       </c>
       <c r="B2" t="s">
-        <v>19706</v>
+        <v>21365</v>
       </c>
       <c r="C2" s="1">
         <v>-132325.81806931089</v>
@@ -63112,10 +68089,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19670</v>
+        <v>21329</v>
       </c>
       <c r="B3" t="s">
-        <v>19707</v>
+        <v>21366</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -63134,10 +68111,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19671</v>
+        <v>21330</v>
       </c>
       <c r="B4" t="s">
-        <v>19708</v>
+        <v>21367</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -63154,10 +68131,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19672</v>
+        <v>21331</v>
       </c>
       <c r="B5" t="s">
-        <v>19709</v>
+        <v>21368</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -63170,10 +68147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19673</v>
+        <v>21332</v>
       </c>
       <c r="B6" t="s">
-        <v>19710</v>
+        <v>21369</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -63190,10 +68167,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19674</v>
+        <v>21333</v>
       </c>
       <c r="B7" t="s">
-        <v>19711</v>
+        <v>21370</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -63206,10 +68183,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19675</v>
+        <v>21334</v>
       </c>
       <c r="B8" t="s">
-        <v>19711</v>
+        <v>21370</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -63222,10 +68199,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19676</v>
+        <v>21335</v>
       </c>
       <c r="B9" t="s">
-        <v>19712</v>
+        <v>21371</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -63238,10 +68215,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19677</v>
+        <v>21336</v>
       </c>
       <c r="B10" t="s">
-        <v>19713</v>
+        <v>21372</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -63256,10 +68233,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19678</v>
+        <v>21337</v>
       </c>
       <c r="B11" t="s">
-        <v>19714</v>
+        <v>21373</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -63278,10 +68255,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19679</v>
+        <v>21338</v>
       </c>
       <c r="B12" t="s">
-        <v>19715</v>
+        <v>21374</v>
       </c>
       <c r="C12" s="1">
         <v>-111.3731775422125</v>
@@ -63300,10 +68277,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19680</v>
+        <v>21339</v>
       </c>
       <c r="B13" t="s">
-        <v>19716</v>
+        <v>21375</v>
       </c>
       <c r="C13" s="1">
         <v>160506.74429795379</v>
@@ -63326,10 +68303,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19681</v>
+        <v>21340</v>
       </c>
       <c r="B14" t="s">
-        <v>19717</v>
+        <v>21376</v>
       </c>
       <c r="C14" s="1">
         <v>47266.390163401513</v>
@@ -63352,10 +68329,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19682</v>
+        <v>21341</v>
       </c>
       <c r="B15" t="s">
-        <v>19718</v>
+        <v>21377</v>
       </c>
       <c r="C15" s="1">
         <v>113240.3541345523</v>
@@ -63376,10 +68353,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19683</v>
+        <v>21342</v>
       </c>
       <c r="B16" t="s">
-        <v>19719</v>
+        <v>21378</v>
       </c>
       <c r="C16" s="1">
         <v>106078.98298231589</v>
@@ -63402,10 +68379,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19684</v>
+        <v>21343</v>
       </c>
       <c r="B17" t="s">
-        <v>19720</v>
+        <v>21379</v>
       </c>
       <c r="C17" s="1">
         <v>376.90302765656929</v>
@@ -63426,10 +68403,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19685</v>
+        <v>21344</v>
       </c>
       <c r="B18" t="s">
-        <v>19721</v>
+        <v>21380</v>
       </c>
       <c r="C18" s="1">
         <v>1655.657643517555</v>
@@ -63450,10 +68427,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19686</v>
+        <v>21345</v>
       </c>
       <c r="B19" t="s">
-        <v>19722</v>
+        <v>21381</v>
       </c>
       <c r="C19" s="1">
         <v>1655.657643517555</v>
@@ -63472,10 +68449,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19687</v>
+        <v>21346</v>
       </c>
       <c r="B20" t="s">
-        <v>19723</v>
+        <v>21382</v>
       </c>
       <c r="C20" s="1">
         <v>22226.602795191338</v>
@@ -63498,10 +68475,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19688</v>
+        <v>21347</v>
       </c>
       <c r="B21" t="s">
-        <v>19724</v>
+        <v>21383</v>
       </c>
       <c r="C21" s="1">
         <v>2.9676309999999999</v>
@@ -63520,10 +68497,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19689</v>
+        <v>21348</v>
       </c>
       <c r="B22" t="s">
-        <v>19725</v>
+        <v>21384</v>
       </c>
       <c r="C22" s="1">
         <v>2646.0630505200002</v>
@@ -63540,10 +68517,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19690</v>
+        <v>21349</v>
       </c>
       <c r="B23" t="s">
-        <v>19726</v>
+        <v>21385</v>
       </c>
       <c r="C23" s="1">
         <v>1452.5266412882031</v>
@@ -63562,10 +68539,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19691</v>
+        <v>21350</v>
       </c>
       <c r="B24" t="s">
-        <v>19727</v>
+        <v>21386</v>
       </c>
       <c r="C24" s="1">
         <v>18125.045472383139</v>
@@ -63588,10 +68565,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19692</v>
+        <v>21351</v>
       </c>
       <c r="B25" t="s">
-        <v>19728</v>
+        <v>21387</v>
       </c>
       <c r="C25" s="1">
         <v>103687.46021795391</v>
@@ -63614,10 +68591,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19693</v>
+        <v>21352</v>
       </c>
       <c r="B26" t="s">
-        <v>19729</v>
+        <v>21388</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -63630,18 +68607,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19694</v>
+        <v>21353</v>
       </c>
       <c r="B27" t="s">
-        <v>19730</v>
+        <v>21389</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-47487.012322160823</v>
+        <v>-47487.012322160852</v>
       </c>
       <c r="F27" s="1">
-        <v>-47487.012322160823</v>
+        <v>-47487.012322160852</v>
       </c>
       <c r="G27" s="1">
         <v>137422.3722114753</v>
@@ -63652,10 +68629,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19695</v>
+        <v>21354</v>
       </c>
       <c r="B28" t="s">
-        <v>19731</v>
+        <v>21390</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -63670,10 +68647,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19696</v>
+        <v>21355</v>
       </c>
       <c r="B29" t="s">
-        <v>19732</v>
+        <v>21391</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -63692,10 +68669,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19697</v>
+        <v>21356</v>
       </c>
       <c r="B30" t="s">
-        <v>19733</v>
+        <v>21392</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -63708,18 +68685,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19698</v>
+        <v>21357</v>
       </c>
       <c r="B31" t="s">
-        <v>19734</v>
+        <v>21393</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-47487.012322160852</v>
+        <v>-47487.012322160823</v>
       </c>
       <c r="F31" s="1">
-        <v>-47487.012322160852</v>
+        <v>-47487.012322160823</v>
       </c>
       <c r="G31" s="1">
         <v>137422.3722114753</v>
@@ -63730,10 +68707,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19699</v>
+        <v>21358</v>
       </c>
       <c r="B32" t="s">
-        <v>19735</v>
+        <v>21394</v>
       </c>
       <c r="C32" s="1">
         <v>-28638.357851356981</v>
@@ -63748,10 +68725,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19700</v>
+        <v>21359</v>
       </c>
       <c r="B33" t="s">
-        <v>19736</v>
+        <v>21395</v>
       </c>
       <c r="C33" s="1">
         <v>13.58729015431644</v>
@@ -63774,10 +68751,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19701</v>
+        <v>21360</v>
       </c>
       <c r="B34" t="s">
-        <v>19737</v>
+        <v>21396</v>
       </c>
       <c r="C34" s="1">
         <v>-14516.140951382629</v>
@@ -63786,13 +68763,13 @@
         <v>-14516.15048177604</v>
       </c>
       <c r="E34" s="1">
-        <v>-63947.039175030113</v>
+        <v>-63947.039175029808</v>
       </c>
       <c r="F34" s="1">
         <v>-63947.039175029808</v>
       </c>
       <c r="G34" s="1">
-        <v>39248.472782472847</v>
+        <v>39248.472782472993</v>
       </c>
       <c r="H34" s="1">
         <v>39248.472782472993</v>
@@ -63800,10 +68777,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19701</v>
+        <v>21360</v>
       </c>
       <c r="B35" t="s">
-        <v>19737</v>
+        <v>21396</v>
       </c>
       <c r="C35" s="1">
         <v>-14516.15048177604</v>
@@ -63812,13 +68789,13 @@
         <v>-14516.140951382629</v>
       </c>
       <c r="E35" s="1">
-        <v>-63947.039175029808</v>
+        <v>-63947.039175030113</v>
       </c>
       <c r="F35" s="1">
         <v>-63947.039175030113</v>
       </c>
       <c r="G35" s="1">
-        <v>39248.472782472993</v>
+        <v>39248.472782472847</v>
       </c>
       <c r="H35" s="1">
         <v>39248.472782472847</v>
@@ -63826,10 +68803,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19702</v>
+        <v>21361</v>
       </c>
       <c r="B36" t="s">
-        <v>19738</v>
+        <v>21397</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -63846,35 +68823,35 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19703</v>
+        <v>21362</v>
       </c>
       <c r="B37" t="s">
-        <v>19739</v>
+        <v>21398</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="F37" s="1">
-        <v>200663.39336498949</v>
-      </c>
+        <v>1691.532447066628</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19704</v>
+        <v>21363</v>
       </c>
       <c r="B38" t="s">
-        <v>19740</v>
+        <v>21399</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>1691.532447066628</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>200663.39336498949</v>
+      </c>
+      <c r="F38" s="1">
+        <v>200663.39336498949</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -63889,36 +68866,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19747</v>
+        <v>21406</v>
       </c>
       <c r="B1" t="s">
-        <v>19784</v>
+        <v>21443</v>
       </c>
       <c r="C1" t="s">
-        <v>19820</v>
+        <v>21479</v>
       </c>
       <c r="D1" t="s">
-        <v>19821</v>
+        <v>21480</v>
       </c>
       <c r="E1" t="s">
-        <v>19822</v>
+        <v>21481</v>
       </c>
       <c r="F1" t="s">
-        <v>19823</v>
+        <v>21482</v>
       </c>
       <c r="G1" t="s">
-        <v>19824</v>
+        <v>21483</v>
       </c>
       <c r="H1" t="s">
-        <v>19825</v>
+        <v>21484</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19748</v>
+        <v>21407</v>
       </c>
       <c r="B2" t="s">
-        <v>19785</v>
+        <v>21444</v>
       </c>
       <c r="C2" s="1">
         <v>-104514.67406784389</v>
@@ -63933,10 +68910,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19749</v>
+        <v>21408</v>
       </c>
       <c r="B3" t="s">
-        <v>19786</v>
+        <v>21445</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -63955,10 +68932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19750</v>
+        <v>21409</v>
       </c>
       <c r="B4" t="s">
-        <v>19787</v>
+        <v>21446</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -63975,10 +68952,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19751</v>
+        <v>21410</v>
       </c>
       <c r="B5" t="s">
-        <v>19788</v>
+        <v>21447</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -63991,10 +68968,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19752</v>
+        <v>21411</v>
       </c>
       <c r="B6" t="s">
-        <v>19789</v>
+        <v>21448</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64011,10 +68988,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19753</v>
+        <v>21412</v>
       </c>
       <c r="B7" t="s">
-        <v>19790</v>
+        <v>21449</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -64027,10 +69004,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19754</v>
+        <v>21413</v>
       </c>
       <c r="B8" t="s">
-        <v>19790</v>
+        <v>21449</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -64043,10 +69020,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19755</v>
+        <v>21414</v>
       </c>
       <c r="B9" t="s">
-        <v>19791</v>
+        <v>21450</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -64059,10 +69036,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19756</v>
+        <v>21415</v>
       </c>
       <c r="B10" t="s">
-        <v>19792</v>
+        <v>21451</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64077,10 +69054,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19757</v>
+        <v>21416</v>
       </c>
       <c r="B11" t="s">
-        <v>19793</v>
+        <v>21452</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -64099,10 +69076,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19758</v>
+        <v>21417</v>
       </c>
       <c r="B12" t="s">
-        <v>19794</v>
+        <v>21453</v>
       </c>
       <c r="C12" s="1">
         <v>-149.5741136579793</v>
@@ -64121,10 +69098,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19759</v>
+        <v>21418</v>
       </c>
       <c r="B13" t="s">
-        <v>19795</v>
+        <v>21454</v>
       </c>
       <c r="C13" s="1">
         <v>151856.17438438139</v>
@@ -64147,10 +69124,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19760</v>
+        <v>21419</v>
       </c>
       <c r="B14" t="s">
-        <v>19796</v>
+        <v>21455</v>
       </c>
       <c r="C14" s="1">
         <v>54754.723496312057</v>
@@ -64173,10 +69150,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19761</v>
+        <v>21420</v>
       </c>
       <c r="B15" t="s">
-        <v>19797</v>
+        <v>21456</v>
       </c>
       <c r="C15" s="1">
         <v>97101.450888069332</v>
@@ -64195,10 +69172,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19762</v>
+        <v>21421</v>
       </c>
       <c r="B16" t="s">
-        <v>19798</v>
+        <v>21457</v>
       </c>
       <c r="C16" s="1">
         <v>121151.1679762976</v>
@@ -64221,10 +69198,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19763</v>
+        <v>21422</v>
       </c>
       <c r="B17" t="s">
-        <v>19799</v>
+        <v>21458</v>
       </c>
       <c r="C17" s="1">
         <v>829.94672213900139</v>
@@ -64245,10 +69222,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19764</v>
+        <v>21423</v>
       </c>
       <c r="B18" t="s">
-        <v>19800</v>
+        <v>21459</v>
       </c>
       <c r="C18" s="1">
         <v>1851.55709250523</v>
@@ -64269,10 +69246,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19765</v>
+        <v>21424</v>
       </c>
       <c r="B19" t="s">
-        <v>19801</v>
+        <v>21460</v>
       </c>
       <c r="C19" s="1">
         <v>1851.55709250523</v>
@@ -64291,10 +69268,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19766</v>
+        <v>21425</v>
       </c>
       <c r="B20" t="s">
-        <v>19802</v>
+        <v>21461</v>
       </c>
       <c r="C20" s="1">
         <v>13110.58352570426</v>
@@ -64317,10 +69294,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19767</v>
+        <v>21426</v>
       </c>
       <c r="B21" t="s">
-        <v>19803</v>
+        <v>21462</v>
       </c>
       <c r="C21" s="1">
         <v>1.421961</v>
@@ -64339,10 +69316,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19768</v>
+        <v>21427</v>
       </c>
       <c r="B22" t="s">
-        <v>19804</v>
+        <v>21463</v>
       </c>
       <c r="C22" s="1">
         <v>2008.0292188799999</v>
@@ -64359,10 +69336,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19769</v>
+        <v>21428</v>
       </c>
       <c r="B23" t="s">
-        <v>19805</v>
+        <v>21464</v>
       </c>
       <c r="C23" s="1">
         <v>728.95224428820325</v>
@@ -64381,10 +69358,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19770</v>
+        <v>21429</v>
       </c>
       <c r="B24" t="s">
-        <v>19806</v>
+        <v>21465</v>
       </c>
       <c r="C24" s="1">
         <v>10372.18010153606</v>
@@ -64407,10 +69384,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19771</v>
+        <v>21430</v>
       </c>
       <c r="B25" t="s">
-        <v>19807</v>
+        <v>21466</v>
       </c>
       <c r="C25" s="1">
         <v>117812.0378742148</v>
@@ -64433,10 +69410,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19772</v>
+        <v>21431</v>
       </c>
       <c r="B26" t="s">
-        <v>19808</v>
+        <v>21467</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -64449,10 +69426,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19773</v>
+        <v>21432</v>
       </c>
       <c r="B27" t="s">
-        <v>19809</v>
+        <v>21468</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -64471,10 +69448,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19774</v>
+        <v>21433</v>
       </c>
       <c r="B28" t="s">
-        <v>19810</v>
+        <v>21469</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -64489,10 +69466,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19775</v>
+        <v>21434</v>
       </c>
       <c r="B29" t="s">
-        <v>19811</v>
+        <v>21470</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -64511,10 +69488,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19776</v>
+        <v>21435</v>
       </c>
       <c r="B30" t="s">
-        <v>19812</v>
+        <v>21471</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -64527,10 +69504,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19777</v>
+        <v>21436</v>
       </c>
       <c r="B31" t="s">
-        <v>19813</v>
+        <v>21472</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -64549,10 +69526,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19778</v>
+        <v>21437</v>
       </c>
       <c r="B32" t="s">
-        <v>19814</v>
+        <v>21473</v>
       </c>
       <c r="C32" s="1">
         <v>13297.36380637088</v>
@@ -64567,10 +69544,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19779</v>
+        <v>21438</v>
       </c>
       <c r="B33" t="s">
-        <v>19815</v>
+        <v>21474</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -64591,16 +69568,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19780</v>
+        <v>21439</v>
       </c>
       <c r="B34" t="s">
-        <v>19816</v>
+        <v>21475</v>
       </c>
       <c r="C34" s="1">
         <v>10171.468589380889</v>
       </c>
       <c r="D34" s="1">
-        <v>10171.459058987501</v>
+        <v>10171.468589380889</v>
       </c>
       <c r="E34" s="1">
         <v>-79545.106801385089</v>
@@ -64609,7 +69586,7 @@
         <v>-79545.106801385089</v>
       </c>
       <c r="G34" s="1">
-        <v>66058.729479423899</v>
+        <v>66059.10105946564</v>
       </c>
       <c r="H34" s="1">
         <v>66058.729479423899</v>
@@ -64617,16 +69594,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19780</v>
+        <v>21439</v>
       </c>
       <c r="B35" t="s">
-        <v>19816</v>
+        <v>21475</v>
       </c>
       <c r="C35" s="1">
         <v>10171.459058987501</v>
       </c>
       <c r="D35" s="1">
-        <v>10171.468589380889</v>
+        <v>10171.459058987501</v>
       </c>
       <c r="E35" s="1">
         <v>-79545.106801385089</v>
@@ -64635,7 +69612,7 @@
         <v>-79545.106801385089</v>
       </c>
       <c r="G35" s="1">
-        <v>66059.10105946564</v>
+        <v>66058.729479423899</v>
       </c>
       <c r="H35" s="1">
         <v>66059.10105946564</v>
@@ -64643,57 +69620,57 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19781</v>
+        <v>21440</v>
       </c>
       <c r="B36" t="s">
-        <v>19817</v>
+        <v>21476</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>250754.8245620098</v>
+        <v>1625.492093275358</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>442.30808405340002</v>
-      </c>
-      <c r="H36" s="1">
-        <v>313181.58741649322</v>
-      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19782</v>
+        <v>21441</v>
       </c>
       <c r="B37" t="s">
-        <v>19818</v>
+        <v>21477</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>1625.492093275358</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>242248.42014405999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>242248.42014405999</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19783</v>
+        <v>21442</v>
       </c>
       <c r="B38" t="s">
-        <v>19819</v>
+        <v>21478</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+        <v>250754.8245620098</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1">
+        <v>442.30808405340002</v>
+      </c>
+      <c r="H38" s="1">
+        <v>313181.58741649322</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
@@ -64706,36 +69683,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19826</v>
+        <v>21485</v>
       </c>
       <c r="B1" t="s">
-        <v>19863</v>
+        <v>21522</v>
       </c>
       <c r="C1" t="s">
-        <v>19899</v>
+        <v>21558</v>
       </c>
       <c r="D1" t="s">
-        <v>19900</v>
+        <v>21559</v>
       </c>
       <c r="E1" t="s">
-        <v>19901</v>
+        <v>21560</v>
       </c>
       <c r="F1" t="s">
-        <v>19902</v>
+        <v>21561</v>
       </c>
       <c r="G1" t="s">
-        <v>19903</v>
+        <v>21562</v>
       </c>
       <c r="H1" t="s">
-        <v>19904</v>
+        <v>21563</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>19827</v>
+        <v>21486</v>
       </c>
       <c r="B2" t="s">
-        <v>19864</v>
+        <v>21523</v>
       </c>
       <c r="C2" s="1">
         <v>-200371.3593658637</v>
@@ -64750,10 +69727,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19828</v>
+        <v>21487</v>
       </c>
       <c r="B3" t="s">
-        <v>19865</v>
+        <v>21524</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -64772,10 +69749,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19829</v>
+        <v>21488</v>
       </c>
       <c r="B4" t="s">
-        <v>19866</v>
+        <v>21525</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -64792,10 +69769,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19830</v>
+        <v>21489</v>
       </c>
       <c r="B5" t="s">
-        <v>19867</v>
+        <v>21526</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -64808,10 +69785,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19831</v>
+        <v>21490</v>
       </c>
       <c r="B6" t="s">
-        <v>19868</v>
+        <v>21527</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64828,10 +69805,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19832</v>
+        <v>21491</v>
       </c>
       <c r="B7" t="s">
-        <v>19869</v>
+        <v>21528</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -64844,10 +69821,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19833</v>
+        <v>21492</v>
       </c>
       <c r="B8" t="s">
-        <v>19869</v>
+        <v>21528</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -64860,10 +69837,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19834</v>
+        <v>21493</v>
       </c>
       <c r="B9" t="s">
-        <v>19870</v>
+        <v>21529</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -64876,10 +69853,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19835</v>
+        <v>21494</v>
       </c>
       <c r="B10" t="s">
-        <v>19871</v>
+        <v>21530</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64894,10 +69871,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19836</v>
+        <v>21495</v>
       </c>
       <c r="B11" t="s">
-        <v>19872</v>
+        <v>21531</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -64916,10 +69893,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19837</v>
+        <v>21496</v>
       </c>
       <c r="B12" t="s">
-        <v>19873</v>
+        <v>21532</v>
       </c>
       <c r="C12" s="1">
         <v>-155.06439238415939</v>
@@ -64938,10 +69915,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19838</v>
+        <v>21497</v>
       </c>
       <c r="B13" t="s">
-        <v>19874</v>
+        <v>21533</v>
       </c>
       <c r="C13" s="1">
         <v>314231.27904663578</v>
@@ -64964,10 +69941,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19839</v>
+        <v>21498</v>
       </c>
       <c r="B14" t="s">
-        <v>19875</v>
+        <v>21534</v>
       </c>
       <c r="C14" s="1">
         <v>51456.424245716291</v>
@@ -64990,10 +69967,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19840</v>
+        <v>21499</v>
       </c>
       <c r="B15" t="s">
-        <v>19876</v>
+        <v>21535</v>
       </c>
       <c r="C15" s="1">
         <v>262774.85480091948</v>
@@ -65012,10 +69989,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19841</v>
+        <v>21500</v>
       </c>
       <c r="B16" t="s">
-        <v>19877</v>
+        <v>21536</v>
       </c>
       <c r="C16" s="1">
         <v>265585.17502668808</v>
@@ -65038,10 +70015,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19842</v>
+        <v>21501</v>
       </c>
       <c r="B17" t="s">
-        <v>19878</v>
+        <v>21537</v>
       </c>
       <c r="C17" s="1">
         <v>1300.758691809164</v>
@@ -65062,10 +70039,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19843</v>
+        <v>21502</v>
       </c>
       <c r="B18" t="s">
-        <v>19879</v>
+        <v>21538</v>
       </c>
       <c r="C18" s="1">
         <v>2035.2769079008131</v>
@@ -65086,10 +70063,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19844</v>
+        <v>21503</v>
       </c>
       <c r="B19" t="s">
-        <v>19880</v>
+        <v>21539</v>
       </c>
       <c r="C19" s="1">
         <v>2035.2769079008131</v>
@@ -65108,10 +70085,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19845</v>
+        <v>21504</v>
       </c>
       <c r="B20" t="s">
-        <v>19881</v>
+        <v>21540</v>
       </c>
       <c r="C20" s="1">
         <v>13142.94333128056</v>
@@ -65134,10 +70111,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19846</v>
+        <v>21505</v>
       </c>
       <c r="B21" t="s">
-        <v>19882</v>
+        <v>21541</v>
       </c>
       <c r="C21" s="1">
         <v>1.218183</v>
@@ -65156,10 +70133,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>19847</v>
+        <v>21506</v>
       </c>
       <c r="B22" t="s">
-        <v>19883</v>
+        <v>21542</v>
       </c>
       <c r="C22" s="1">
         <v>1687.2726680000001</v>
@@ -65176,10 +70153,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19848</v>
+        <v>21507</v>
       </c>
       <c r="B23" t="s">
-        <v>19884</v>
+        <v>21543</v>
       </c>
       <c r="C23" s="1">
         <v>2336.210388476667</v>
@@ -65198,10 +70175,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>19849</v>
+        <v>21508</v>
       </c>
       <c r="B24" t="s">
-        <v>19885</v>
+        <v>21544</v>
       </c>
       <c r="C24" s="1">
         <v>9118.2420918038915</v>
@@ -65224,10 +70201,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>19850</v>
+        <v>21509</v>
       </c>
       <c r="B25" t="s">
-        <v>19886</v>
+        <v>21545</v>
       </c>
       <c r="C25" s="1">
         <v>262376.75111480377</v>
@@ -65250,10 +70227,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>19851</v>
+        <v>21510</v>
       </c>
       <c r="B26" t="s">
-        <v>19887</v>
+        <v>21546</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -65266,10 +70243,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19852</v>
+        <v>21511</v>
       </c>
       <c r="B27" t="s">
-        <v>19888</v>
+        <v>21547</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -65277,7 +70254,7 @@
         <v>-25100.989231280721</v>
       </c>
       <c r="F27" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="G27" s="1">
         <v>147140.71535390709</v>
@@ -65288,10 +70265,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>19853</v>
+        <v>21512</v>
       </c>
       <c r="B28" t="s">
-        <v>19889</v>
+        <v>21548</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -65306,10 +70283,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>19854</v>
+        <v>21513</v>
       </c>
       <c r="B29" t="s">
-        <v>19890</v>
+        <v>21549</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -65328,10 +70305,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19855</v>
+        <v>21514</v>
       </c>
       <c r="B30" t="s">
-        <v>19891</v>
+        <v>21550</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -65344,10 +70321,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19856</v>
+        <v>21515</v>
       </c>
       <c r="B31" t="s">
-        <v>19892</v>
+        <v>21551</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -65355,7 +70332,7 @@
         <v>-25100.98923128075</v>
       </c>
       <c r="F31" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="G31" s="1">
         <v>147140.71535390709</v>
@@ -65366,10 +70343,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>19857</v>
+        <v>21516</v>
       </c>
       <c r="B32" t="s">
-        <v>19893</v>
+        <v>21552</v>
       </c>
       <c r="C32" s="1">
         <v>62005.391748940048</v>
@@ -65384,10 +70361,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19858</v>
+        <v>21517</v>
       </c>
       <c r="B33" t="s">
-        <v>19894</v>
+        <v>21553</v>
       </c>
       <c r="C33" s="1">
         <v>86.331224277060215</v>
@@ -65410,10 +70387,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>19859</v>
+        <v>21518</v>
       </c>
       <c r="B34" t="s">
-        <v>19895</v>
+        <v>21554</v>
       </c>
       <c r="C34" s="1">
         <v>63134.524836636163</v>
@@ -65428,7 +70405,7 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G34" s="1">
-        <v>50492.474199901873</v>
+        <v>50492.474199902237</v>
       </c>
       <c r="H34" s="1">
         <v>50492.474199902237</v>
@@ -65436,10 +70413,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>19859</v>
+        <v>21518</v>
       </c>
       <c r="B35" t="s">
-        <v>19895</v>
+        <v>21554</v>
       </c>
       <c r="C35" s="1">
         <v>63134.515306242713</v>
@@ -65454,7 +70431,7 @@
         <v>-60032.164387225363</v>
       </c>
       <c r="G35" s="1">
-        <v>50492.474199902237</v>
+        <v>50492.474199901873</v>
       </c>
       <c r="H35" s="1">
         <v>50492.474199901873</v>
@@ -65462,57 +70439,57 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>19860</v>
+        <v>21519</v>
       </c>
       <c r="B36" t="s">
-        <v>19896</v>
+        <v>21555</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>264574.52162751998</v>
-      </c>
-      <c r="F36" s="1">
-        <v>264574.52162751998</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>272538.25067318691</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>456.40441621169998</v>
+      </c>
+      <c r="H36" s="1">
+        <v>335741.85541967727</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>19861</v>
+        <v>21520</v>
       </c>
       <c r="B37" t="s">
-        <v>19897</v>
+        <v>21556</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>1891.473003789004</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>264574.52162751998</v>
+      </c>
+      <c r="F37" s="1">
+        <v>264574.52162751998</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>19862</v>
+        <v>21521</v>
       </c>
       <c r="B38" t="s">
-        <v>19898</v>
+        <v>21557</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>272538.25067318691</v>
+        <v>1891.473003789004</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>456.40441621169998</v>
-      </c>
-      <c r="H38" s="1">
-        <v>335741.85541967727</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/input_data/sna_country_data/URY/cei.xlsx
+++ b/input_data/sna_country_data/URY/cei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32144" uniqueCount="21564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32718" uniqueCount="22117">
   <si>
     <t>code</t>
   </si>
@@ -64456,6 +64456,1665 @@
   </si>
   <si>
     <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transferencias de capital </t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>row_r</t>
+  </si>
+  <si>
+    <t>row_u</t>
+  </si>
+  <si>
+    <t>gg_r</t>
+  </si>
+  <si>
+    <t>gg_u</t>
+  </si>
+  <si>
+    <t>households_r</t>
+  </si>
+  <si>
+    <t>households_u</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>B.11</t>
+  </si>
+  <si>
+    <t>B.1b</t>
+  </si>
+  <si>
+    <t>D.2</t>
+  </si>
+  <si>
+    <t>D.21</t>
+  </si>
+  <si>
+    <t>D.29</t>
+  </si>
+  <si>
+    <t>(-) D.3</t>
+  </si>
+  <si>
+    <t>(-) D.31</t>
+  </si>
+  <si>
+    <t>(-) D.39</t>
+  </si>
+  <si>
+    <t>B.3b</t>
+  </si>
+  <si>
+    <t>B.2b</t>
+  </si>
+  <si>
+    <t>D.1</t>
+  </si>
+  <si>
+    <t>D.4</t>
+  </si>
+  <si>
+    <t>D.41</t>
+  </si>
+  <si>
+    <t>D.49</t>
+  </si>
+  <si>
+    <t>B.5b</t>
+  </si>
+  <si>
+    <t>D.5</t>
+  </si>
+  <si>
+    <t>D.6</t>
+  </si>
+  <si>
+    <t>D.62</t>
+  </si>
+  <si>
+    <t>D.7</t>
+  </si>
+  <si>
+    <t>D.71</t>
+  </si>
+  <si>
+    <t>D.72</t>
+  </si>
+  <si>
+    <t>D.74</t>
+  </si>
+  <si>
+    <t>D.75</t>
+  </si>
+  <si>
+    <t>B.6b</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>D.63</t>
+  </si>
+  <si>
+    <t>B.07b00</t>
+  </si>
+  <si>
+    <t>D.8</t>
+  </si>
+  <si>
+    <t>B.8B</t>
+  </si>
+  <si>
+    <t>B.12</t>
+  </si>
+  <si>
+    <t>D.9</t>
+  </si>
+  <si>
+    <t>B.9</t>
+  </si>
+  <si>
+    <t>D.61</t>
+  </si>
+  <si>
+    <t>D.76</t>
+  </si>
+  <si>
+    <t>D.73</t>
+  </si>
+  <si>
+    <t>code_long</t>
+  </si>
+  <si>
+    <t>Saldo de bienes y servicios con el exterior</t>
+  </si>
+  <si>
+    <t>Valor agregado bruto / Producto interno bruto</t>
+  </si>
+  <si>
+    <t>Impuestos sobre la producción y las importaciones</t>
+  </si>
+  <si>
+    <t>Impuestos sobre los productos</t>
+  </si>
+  <si>
+    <t>Otros impuestos sobre la producción</t>
+  </si>
+  <si>
+    <t>Subvenciones sobre los productos</t>
+  </si>
+  <si>
+    <t>Otras subvenciones a la producción</t>
+  </si>
+  <si>
+    <t>Ingreso mixto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente de explotación bruto </t>
+  </si>
+  <si>
+    <t>Remuneración de los asalariados</t>
+  </si>
+  <si>
+    <t>Renta de la propiedad</t>
+  </si>
+  <si>
+    <t>Intereses SCN</t>
+  </si>
+  <si>
+    <t>Otras rentas</t>
+  </si>
+  <si>
+    <t>Saldo de ingresos primarios, bruto / ingreso nacional bruto</t>
+  </si>
+  <si>
+    <t>Impuestos corrientes sobre el ingreso, la riqueza, etc.</t>
+  </si>
+  <si>
+    <t>Contribuciones y prestaciones sociales, excepto TSE</t>
+  </si>
+  <si>
+    <t>Prestaciones sociales distintas de las transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Otras transferencias corrientes</t>
+  </si>
+  <si>
+    <t>Primas netas de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Indemnizaciones de seguros no de vida</t>
+  </si>
+  <si>
+    <t>Cooperación internacional corriente</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes diversas</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Transferencias sociales en especie</t>
+  </si>
+  <si>
+    <t>Ingreso disponible bruto ajustado</t>
+  </si>
+  <si>
+    <t>Ajuste por la variación de los derechos de pensión</t>
+  </si>
+  <si>
+    <t>Ahorro bruto</t>
+  </si>
+  <si>
+    <t>Saldo externo corriente</t>
+  </si>
+  <si>
+    <t>Transferencias de capital</t>
+  </si>
+  <si>
+    <t>Préstamo neto (+) / Endeudamiento neto (-)</t>
+  </si>
+  <si>
+    <t>Contribuciones sociales netas</t>
+  </si>
+  <si>
+    <t>Transferencia del BCU al Gobierno</t>
+  </si>
+  <si>
+    <t>Transferencias corrientes dentro del gobierno general</t>
   </si>
   <si>
     <t>row_r</t>
@@ -64761,36 +66420,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21011</v>
+        <v>21564</v>
       </c>
       <c r="B1" t="s">
-        <v>21048</v>
+        <v>21601</v>
       </c>
       <c r="C1" t="s">
-        <v>21084</v>
+        <v>21637</v>
       </c>
       <c r="D1" t="s">
-        <v>21085</v>
+        <v>21638</v>
       </c>
       <c r="E1" t="s">
-        <v>21086</v>
+        <v>21639</v>
       </c>
       <c r="F1" t="s">
-        <v>21087</v>
+        <v>21640</v>
       </c>
       <c r="G1" t="s">
-        <v>21088</v>
+        <v>21641</v>
       </c>
       <c r="H1" t="s">
-        <v>21089</v>
+        <v>21642</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21012</v>
+        <v>21565</v>
       </c>
       <c r="B2" t="s">
-        <v>21049</v>
+        <v>21602</v>
       </c>
       <c r="C2" s="1">
         <v>-35345.263380289784</v>
@@ -64805,10 +66464,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21013</v>
+        <v>21566</v>
       </c>
       <c r="B3" t="s">
-        <v>21050</v>
+        <v>21603</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -64827,10 +66486,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21014</v>
+        <v>21567</v>
       </c>
       <c r="B4" t="s">
-        <v>21051</v>
+        <v>21604</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -64847,10 +66506,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21015</v>
+        <v>21568</v>
       </c>
       <c r="B5" t="s">
-        <v>21052</v>
+        <v>21605</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -64867,10 +66526,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21016</v>
+        <v>21569</v>
       </c>
       <c r="B6" t="s">
-        <v>21053</v>
+        <v>21606</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -64883,10 +66542,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21017</v>
+        <v>21570</v>
       </c>
       <c r="B7" t="s">
-        <v>21054</v>
+        <v>21607</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -64903,10 +66562,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21018</v>
+        <v>21571</v>
       </c>
       <c r="B8" t="s">
-        <v>21055</v>
+        <v>21608</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -64921,10 +66580,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21019</v>
+        <v>21572</v>
       </c>
       <c r="B9" t="s">
-        <v>21055</v>
+        <v>21608</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -64937,10 +66596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21020</v>
+        <v>21573</v>
       </c>
       <c r="B10" t="s">
-        <v>21056</v>
+        <v>21609</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -64955,10 +66614,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21021</v>
+        <v>21574</v>
       </c>
       <c r="B11" t="s">
-        <v>21057</v>
+        <v>21610</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -64973,10 +66632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21022</v>
+        <v>21575</v>
       </c>
       <c r="B12" t="s">
-        <v>21058</v>
+        <v>21611</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -64995,10 +66654,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21023</v>
+        <v>21576</v>
       </c>
       <c r="B13" t="s">
-        <v>21059</v>
+        <v>21612</v>
       </c>
       <c r="C13" s="1">
         <v>105254.84066842961</v>
@@ -65021,10 +66680,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21024</v>
+        <v>21577</v>
       </c>
       <c r="B14" t="s">
-        <v>21060</v>
+        <v>21613</v>
       </c>
       <c r="C14" s="1">
         <v>20118.629433262511</v>
@@ -65047,10 +66706,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21025</v>
+        <v>21578</v>
       </c>
       <c r="B15" t="s">
-        <v>21061</v>
+        <v>21614</v>
       </c>
       <c r="C15" s="1">
         <v>85136.211235167109</v>
@@ -65073,10 +66732,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21026</v>
+        <v>21579</v>
       </c>
       <c r="B16" t="s">
-        <v>21062</v>
+        <v>21615</v>
       </c>
       <c r="C16" s="1">
         <v>77979.086634604173</v>
@@ -65099,10 +66758,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21027</v>
+        <v>21580</v>
       </c>
       <c r="B17" t="s">
-        <v>21063</v>
+        <v>21616</v>
       </c>
       <c r="C17" s="1">
         <v>708.07373372999996</v>
@@ -65123,10 +66782,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21028</v>
+        <v>21581</v>
       </c>
       <c r="B18" t="s">
-        <v>21064</v>
+        <v>21617</v>
       </c>
       <c r="C18" s="1">
         <v>708.07373372999996</v>
@@ -65143,10 +66802,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21029</v>
+        <v>21582</v>
       </c>
       <c r="B19" t="s">
-        <v>21065</v>
+        <v>21618</v>
       </c>
       <c r="C19" s="1">
         <v>2128.9819248528388</v>
@@ -65169,10 +66828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21030</v>
+        <v>21583</v>
       </c>
       <c r="B20" t="s">
-        <v>21066</v>
+        <v>21619</v>
       </c>
       <c r="C20" s="1">
         <v>610.943299077402</v>
@@ -65189,10 +66848,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21031</v>
+        <v>21584</v>
       </c>
       <c r="B21" t="s">
-        <v>21067</v>
+        <v>21620</v>
       </c>
       <c r="C21" s="1">
         <v>476.41603700000002</v>
@@ -65211,10 +66870,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21032</v>
+        <v>21585</v>
       </c>
       <c r="B22" t="s">
-        <v>21068</v>
+        <v>21621</v>
       </c>
       <c r="C22" s="1">
         <v>1041.622588775437</v>
@@ -65237,10 +66896,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21033</v>
+        <v>21586</v>
       </c>
       <c r="B23" t="s">
-        <v>21069</v>
+        <v>21622</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -65257,10 +66916,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21034</v>
+        <v>21587</v>
       </c>
       <c r="B24" t="s">
-        <v>21070</v>
+        <v>21623</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -65277,10 +66936,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21035</v>
+        <v>21588</v>
       </c>
       <c r="B25" t="s">
-        <v>21071</v>
+        <v>21624</v>
       </c>
       <c r="C25" s="1">
         <v>75685.254770642801</v>
@@ -65303,10 +66962,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21036</v>
+        <v>21589</v>
       </c>
       <c r="B26" t="s">
-        <v>21072</v>
+        <v>21625</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -65321,10 +66980,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21037</v>
+        <v>21590</v>
       </c>
       <c r="B27" t="s">
-        <v>21073</v>
+        <v>21626</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -65343,10 +67002,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21038</v>
+        <v>21591</v>
       </c>
       <c r="B28" t="s">
-        <v>21074</v>
+        <v>21627</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -65361,10 +67020,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21039</v>
+        <v>21592</v>
       </c>
       <c r="B29" t="s">
-        <v>21075</v>
+        <v>21628</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -65383,10 +67042,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21040</v>
+        <v>21593</v>
       </c>
       <c r="B30" t="s">
-        <v>21076</v>
+        <v>21629</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -65401,10 +67060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21041</v>
+        <v>21594</v>
       </c>
       <c r="B31" t="s">
-        <v>21077</v>
+        <v>21630</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -65423,10 +67082,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21042</v>
+        <v>21595</v>
       </c>
       <c r="B32" t="s">
-        <v>21078</v>
+        <v>21631</v>
       </c>
       <c r="C32" s="1">
         <v>40339.991390353032</v>
@@ -65441,10 +67100,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21043</v>
+        <v>21596</v>
       </c>
       <c r="B33" t="s">
-        <v>21079</v>
+        <v>21632</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -65465,10 +67124,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21044</v>
+        <v>21597</v>
       </c>
       <c r="B34" t="s">
-        <v>21080</v>
+        <v>21633</v>
       </c>
       <c r="C34" s="1">
         <v>37886.776197581872</v>
@@ -65486,15 +67145,15 @@
         <v>25446.753598644849</v>
       </c>
       <c r="H34" s="1">
-        <v>25446.753598644718</v>
+        <v>25446.753598644849</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21044</v>
+        <v>21597</v>
       </c>
       <c r="B35" t="s">
-        <v>21080</v>
+        <v>21633</v>
       </c>
       <c r="C35" s="1">
         <v>37886.776197581872</v>
@@ -65512,31 +67171,33 @@
         <v>25446.753598644718</v>
       </c>
       <c r="H35" s="1">
-        <v>25446.753598644849</v>
+        <v>25446.753598644718</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21045</v>
+        <v>21598</v>
       </c>
       <c r="B36" t="s">
-        <v>21081</v>
+        <v>21634</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>926.5806651800001</v>
+        <v>113976.0975413</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>137582.86030768359</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21046</v>
+        <v>21599</v>
       </c>
       <c r="B37" t="s">
-        <v>21082</v>
+        <v>21635</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -65551,21 +67212,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21047</v>
+        <v>21600</v>
       </c>
       <c r="B38" t="s">
-        <v>21083</v>
+        <v>21636</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>113976.0975413</v>
+        <v>926.5806651800001</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1">
-        <v>137582.86030768359</v>
-      </c>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -65578,36 +67237,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21090</v>
+        <v>21643</v>
       </c>
       <c r="B1" t="s">
-        <v>21127</v>
+        <v>21680</v>
       </c>
       <c r="C1" t="s">
-        <v>21163</v>
+        <v>21716</v>
       </c>
       <c r="D1" t="s">
-        <v>21164</v>
+        <v>21717</v>
       </c>
       <c r="E1" t="s">
-        <v>21165</v>
+        <v>21718</v>
       </c>
       <c r="F1" t="s">
-        <v>21166</v>
+        <v>21719</v>
       </c>
       <c r="G1" t="s">
-        <v>21167</v>
+        <v>21720</v>
       </c>
       <c r="H1" t="s">
-        <v>21168</v>
+        <v>21721</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21091</v>
+        <v>21644</v>
       </c>
       <c r="B2" t="s">
-        <v>21128</v>
+        <v>21681</v>
       </c>
       <c r="C2" s="1">
         <v>-92111.334701685584</v>
@@ -65622,10 +67281,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21092</v>
+        <v>21645</v>
       </c>
       <c r="B3" t="s">
-        <v>21129</v>
+        <v>21682</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -65644,10 +67303,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21093</v>
+        <v>21646</v>
       </c>
       <c r="B4" t="s">
-        <v>21130</v>
+        <v>21683</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -65664,10 +67323,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21094</v>
+        <v>21647</v>
       </c>
       <c r="B5" t="s">
-        <v>21131</v>
+        <v>21684</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -65684,10 +67343,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21095</v>
+        <v>21648</v>
       </c>
       <c r="B6" t="s">
-        <v>21132</v>
+        <v>21685</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -65700,10 +67359,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21096</v>
+        <v>21649</v>
       </c>
       <c r="B7" t="s">
-        <v>21133</v>
+        <v>21686</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -65720,10 +67379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21097</v>
+        <v>21650</v>
       </c>
       <c r="B8" t="s">
-        <v>21134</v>
+        <v>21687</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -65736,10 +67395,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21098</v>
+        <v>21651</v>
       </c>
       <c r="B9" t="s">
-        <v>21134</v>
+        <v>21687</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -65752,10 +67411,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21099</v>
+        <v>21652</v>
       </c>
       <c r="B10" t="s">
-        <v>21135</v>
+        <v>21688</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -65768,10 +67427,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21100</v>
+        <v>21653</v>
       </c>
       <c r="B11" t="s">
-        <v>21136</v>
+        <v>21689</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -65786,10 +67445,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21101</v>
+        <v>21654</v>
       </c>
       <c r="B12" t="s">
-        <v>21137</v>
+        <v>21690</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -65808,10 +67467,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21102</v>
+        <v>21655</v>
       </c>
       <c r="B13" t="s">
-        <v>21138</v>
+        <v>21691</v>
       </c>
       <c r="C13" s="1">
         <v>111912.2883479437</v>
@@ -65834,10 +67493,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21103</v>
+        <v>21656</v>
       </c>
       <c r="B14" t="s">
-        <v>21139</v>
+        <v>21692</v>
       </c>
       <c r="C14" s="1">
         <v>37196.900831416431</v>
@@ -65860,10 +67519,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21104</v>
+        <v>21657</v>
       </c>
       <c r="B15" t="s">
-        <v>21140</v>
+        <v>21693</v>
       </c>
       <c r="C15" s="1">
         <v>74715.387516527291</v>
@@ -65886,10 +67545,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21105</v>
+        <v>21658</v>
       </c>
       <c r="B16" t="s">
-        <v>21141</v>
+        <v>21694</v>
       </c>
       <c r="C16" s="1">
         <v>81203.449470399617</v>
@@ -65912,10 +67571,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21106</v>
+        <v>21659</v>
       </c>
       <c r="B17" t="s">
-        <v>21142</v>
+        <v>21695</v>
       </c>
       <c r="C17" s="1">
         <v>1114.5240200000001</v>
@@ -65936,10 +67595,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21107</v>
+        <v>21660</v>
       </c>
       <c r="B18" t="s">
-        <v>21143</v>
+        <v>21696</v>
       </c>
       <c r="C18" s="1">
         <v>1114.5240200000001</v>
@@ -65958,10 +67617,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21108</v>
+        <v>21661</v>
       </c>
       <c r="B19" t="s">
-        <v>21144</v>
+        <v>21697</v>
       </c>
       <c r="C19" s="1">
         <v>17219.038211090661</v>
@@ -65984,10 +67643,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21109</v>
+        <v>21662</v>
       </c>
       <c r="B20" t="s">
-        <v>21145</v>
+        <v>21698</v>
       </c>
       <c r="C20" s="1">
         <v>98.619980999999996</v>
@@ -66006,10 +67665,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21110</v>
+        <v>21663</v>
       </c>
       <c r="B21" t="s">
-        <v>21146</v>
+        <v>21699</v>
       </c>
       <c r="C21" s="1">
         <v>1657.9772827899999</v>
@@ -66026,10 +67685,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21111</v>
+        <v>21664</v>
       </c>
       <c r="B22" t="s">
-        <v>21147</v>
+        <v>21700</v>
       </c>
       <c r="C22" s="1">
         <v>1009.104553</v>
@@ -66048,10 +67707,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21112</v>
+        <v>21665</v>
       </c>
       <c r="B23" t="s">
-        <v>21148</v>
+        <v>21701</v>
       </c>
       <c r="C23" s="1">
         <v>14453.336394300661</v>
@@ -66074,10 +67733,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21113</v>
+        <v>21666</v>
       </c>
       <c r="B24" t="s">
-        <v>21149</v>
+        <v>21702</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
@@ -66096,10 +67755,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21114</v>
+        <v>21667</v>
       </c>
       <c r="B25" t="s">
-        <v>21150</v>
+        <v>21703</v>
       </c>
       <c r="C25" s="1">
         <v>79087.001794051394</v>
@@ -66122,10 +67781,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21115</v>
+        <v>21668</v>
       </c>
       <c r="B26" t="s">
-        <v>21151</v>
+        <v>21704</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -66140,18 +67799,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21116</v>
+        <v>21669</v>
       </c>
       <c r="B27" t="s">
-        <v>21152</v>
+        <v>21705</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="F27" s="1">
-        <v>-10570.434075028639</v>
+        <v>-10570.43407502865</v>
       </c>
       <c r="G27" s="1">
         <v>124508.5573505638</v>
@@ -66162,10 +67821,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21117</v>
+        <v>21670</v>
       </c>
       <c r="B28" t="s">
-        <v>21153</v>
+        <v>21706</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -66180,10 +67839,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21118</v>
+        <v>21671</v>
       </c>
       <c r="B29" t="s">
-        <v>21154</v>
+        <v>21707</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -66202,10 +67861,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21119</v>
+        <v>21672</v>
       </c>
       <c r="B30" t="s">
-        <v>21155</v>
+        <v>21708</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -66220,18 +67879,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21120</v>
+        <v>21673</v>
       </c>
       <c r="B31" t="s">
-        <v>21156</v>
+        <v>21709</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="F31" s="1">
-        <v>-10570.43407502865</v>
+        <v>-10570.434075028639</v>
       </c>
       <c r="G31" s="1">
         <v>124508.5573505638</v>
@@ -66242,10 +67901,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21121</v>
+        <v>21674</v>
       </c>
       <c r="B32" t="s">
-        <v>21157</v>
+        <v>21710</v>
       </c>
       <c r="C32" s="1">
         <v>-13024.332907634191</v>
@@ -66260,10 +67919,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21122</v>
+        <v>21675</v>
       </c>
       <c r="B33" t="s">
-        <v>21158</v>
+        <v>21711</v>
       </c>
       <c r="C33" s="1">
         <v>181.0641172</v>
@@ -66286,10 +67945,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21123</v>
+        <v>21676</v>
       </c>
       <c r="B34" t="s">
-        <v>21159</v>
+        <v>21712</v>
       </c>
       <c r="C34" s="1">
         <v>-14574.43484844782</v>
@@ -66301,10 +67960,10 @@
         <v>-66950.582658753847</v>
       </c>
       <c r="F34" s="1">
-        <v>-66950.582658753861</v>
+        <v>-66950.582658753847</v>
       </c>
       <c r="G34" s="1">
-        <v>55330.055140544697</v>
+        <v>55330.055140544151</v>
       </c>
       <c r="H34" s="1">
         <v>55330.055140544697</v>
@@ -66312,10 +67971,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21123</v>
+        <v>21676</v>
       </c>
       <c r="B35" t="s">
-        <v>21159</v>
+        <v>21712</v>
       </c>
       <c r="C35" s="1">
         <v>-14574.434848447811</v>
@@ -66327,10 +67986,10 @@
         <v>-66950.582658753861</v>
       </c>
       <c r="F35" s="1">
-        <v>-66950.582658753847</v>
+        <v>-66950.582658753861</v>
       </c>
       <c r="G35" s="1">
-        <v>55330.055140544151</v>
+        <v>55330.055140544697</v>
       </c>
       <c r="H35" s="1">
         <v>55330.055140544151</v>
@@ -66338,28 +67997,26 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21124</v>
+        <v>21677</v>
       </c>
       <c r="B36" t="s">
-        <v>21160</v>
+        <v>21713</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>147042.35994689999</v>
-      </c>
-      <c r="F36" s="1">
-        <v>147042.21094677999</v>
-      </c>
+        <v>1410.7265588499999</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21125</v>
+        <v>21678</v>
       </c>
       <c r="B37" t="s">
-        <v>21161</v>
+        <v>21714</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -66376,17 +68033,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21126</v>
+        <v>21679</v>
       </c>
       <c r="B38" t="s">
-        <v>21162</v>
+        <v>21715</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>1410.7265588499999</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>147042.35994689999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>147042.21094677999</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -66401,36 +68060,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21169</v>
+        <v>21722</v>
       </c>
       <c r="B1" t="s">
-        <v>21206</v>
+        <v>21759</v>
       </c>
       <c r="C1" t="s">
-        <v>21242</v>
+        <v>21795</v>
       </c>
       <c r="D1" t="s">
-        <v>21243</v>
+        <v>21796</v>
       </c>
       <c r="E1" t="s">
-        <v>21244</v>
+        <v>21797</v>
       </c>
       <c r="F1" t="s">
-        <v>21245</v>
+        <v>21798</v>
       </c>
       <c r="G1" t="s">
-        <v>21246</v>
+        <v>21799</v>
       </c>
       <c r="H1" t="s">
-        <v>21247</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21170</v>
+        <v>21723</v>
       </c>
       <c r="B2" t="s">
-        <v>21207</v>
+        <v>21760</v>
       </c>
       <c r="C2" s="1">
         <v>-102236.23721409201</v>
@@ -66445,10 +68104,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21171</v>
+        <v>21724</v>
       </c>
       <c r="B3" t="s">
-        <v>21208</v>
+        <v>21761</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -66467,10 +68126,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21172</v>
+        <v>21725</v>
       </c>
       <c r="B4" t="s">
-        <v>21209</v>
+        <v>21762</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -66487,10 +68146,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21173</v>
+        <v>21726</v>
       </c>
       <c r="B5" t="s">
-        <v>21210</v>
+        <v>21763</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -66503,10 +68162,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21174</v>
+        <v>21727</v>
       </c>
       <c r="B6" t="s">
-        <v>21211</v>
+        <v>21764</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -66523,10 +68182,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21175</v>
+        <v>21728</v>
       </c>
       <c r="B7" t="s">
-        <v>21212</v>
+        <v>21765</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -66539,10 +68198,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21176</v>
+        <v>21729</v>
       </c>
       <c r="B8" t="s">
-        <v>21212</v>
+        <v>21765</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -66555,10 +68214,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21177</v>
+        <v>21730</v>
       </c>
       <c r="B9" t="s">
-        <v>21213</v>
+        <v>21766</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -66571,10 +68230,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21178</v>
+        <v>21731</v>
       </c>
       <c r="B10" t="s">
-        <v>21214</v>
+        <v>21767</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -66589,10 +68248,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21179</v>
+        <v>21732</v>
       </c>
       <c r="B11" t="s">
-        <v>21215</v>
+        <v>21768</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -66611,10 +68270,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21180</v>
+        <v>21733</v>
       </c>
       <c r="B12" t="s">
-        <v>21216</v>
+        <v>21769</v>
       </c>
       <c r="C12" s="1">
         <v>-83.070126027215935</v>
@@ -66633,10 +68292,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21181</v>
+        <v>21734</v>
       </c>
       <c r="B13" t="s">
-        <v>21217</v>
+        <v>21770</v>
       </c>
       <c r="C13" s="1">
         <v>144279.01796396461</v>
@@ -66659,10 +68318,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21182</v>
+        <v>21735</v>
       </c>
       <c r="B14" t="s">
-        <v>21218</v>
+        <v>21771</v>
       </c>
       <c r="C14" s="1">
         <v>32414.538114762661</v>
@@ -66685,10 +68344,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21183</v>
+        <v>21736</v>
       </c>
       <c r="B15" t="s">
-        <v>21219</v>
+        <v>21772</v>
       </c>
       <c r="C15" s="1">
         <v>111864.47984920201</v>
@@ -66709,10 +68368,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21184</v>
+        <v>21737</v>
       </c>
       <c r="B16" t="s">
-        <v>21220</v>
+        <v>21773</v>
       </c>
       <c r="C16" s="1">
         <v>101315.1098362044</v>
@@ -66735,10 +68394,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21185</v>
+        <v>21738</v>
       </c>
       <c r="B17" t="s">
-        <v>21221</v>
+        <v>21774</v>
       </c>
       <c r="C17" s="1">
         <v>526.84154559200761</v>
@@ -66759,10 +68418,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21186</v>
+        <v>21739</v>
       </c>
       <c r="B18" t="s">
-        <v>21222</v>
+        <v>21775</v>
       </c>
       <c r="C18" s="1">
         <v>1300.503467</v>
@@ -66783,10 +68442,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21187</v>
+        <v>21740</v>
       </c>
       <c r="B19" t="s">
-        <v>21223</v>
+        <v>21776</v>
       </c>
       <c r="C19" s="1">
         <v>1300.503467</v>
@@ -66805,10 +68464,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21188</v>
+        <v>21741</v>
       </c>
       <c r="B20" t="s">
-        <v>21224</v>
+        <v>21777</v>
       </c>
       <c r="C20" s="1">
         <v>16387.63379557012</v>
@@ -66831,10 +68490,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21189</v>
+        <v>21742</v>
       </c>
       <c r="B21" t="s">
-        <v>21225</v>
+        <v>21778</v>
       </c>
       <c r="C21" s="1">
         <v>97.490238000000005</v>
@@ -66853,10 +68512,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21190</v>
+        <v>21743</v>
       </c>
       <c r="B22" t="s">
-        <v>21226</v>
+        <v>21779</v>
       </c>
       <c r="C22" s="1">
         <v>1386.9169386399999</v>
@@ -66873,10 +68532,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21191</v>
+        <v>21744</v>
       </c>
       <c r="B23" t="s">
-        <v>21227</v>
+        <v>21780</v>
       </c>
       <c r="C23" s="1">
         <v>1117.864241</v>
@@ -66895,10 +68554,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21192</v>
+        <v>21745</v>
       </c>
       <c r="B24" t="s">
-        <v>21228</v>
+        <v>21781</v>
       </c>
       <c r="C24" s="1">
         <v>13785.36237793012</v>
@@ -66921,10 +68580,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21193</v>
+        <v>21746</v>
       </c>
       <c r="B25" t="s">
-        <v>21229</v>
+        <v>21782</v>
       </c>
       <c r="C25" s="1">
         <v>98850.343655568271</v>
@@ -66947,10 +68606,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21194</v>
+        <v>21747</v>
       </c>
       <c r="B26" t="s">
-        <v>21230</v>
+        <v>21783</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -66965,10 +68624,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21195</v>
+        <v>21748</v>
       </c>
       <c r="B27" t="s">
-        <v>21231</v>
+        <v>21784</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -66987,10 +68646,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21196</v>
+        <v>21749</v>
       </c>
       <c r="B28" t="s">
-        <v>21232</v>
+        <v>21785</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -67005,10 +68664,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21197</v>
+        <v>21750</v>
       </c>
       <c r="B29" t="s">
-        <v>21233</v>
+        <v>21786</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -67027,10 +68686,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21198</v>
+        <v>21751</v>
       </c>
       <c r="B30" t="s">
-        <v>21234</v>
+        <v>21787</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -67045,10 +68704,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21199</v>
+        <v>21752</v>
       </c>
       <c r="B31" t="s">
-        <v>21235</v>
+        <v>21788</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -67067,10 +68726,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21200</v>
+        <v>21753</v>
       </c>
       <c r="B32" t="s">
-        <v>21236</v>
+        <v>21789</v>
       </c>
       <c r="C32" s="1">
         <v>-3385.8935585237782</v>
@@ -67085,10 +68744,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21201</v>
+        <v>21754</v>
       </c>
       <c r="B33" t="s">
-        <v>21237</v>
+        <v>21790</v>
       </c>
       <c r="C33" s="1">
         <v>0.27703699999999998</v>
@@ -67111,16 +68770,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21202</v>
+        <v>21755</v>
       </c>
       <c r="B34" t="s">
-        <v>21238</v>
+        <v>21791</v>
       </c>
       <c r="C34" s="1">
         <v>-4009.0753441289771</v>
       </c>
       <c r="D34" s="1">
-        <v>-4009.0753441289712</v>
+        <v>-4009.0753441289771</v>
       </c>
       <c r="E34" s="1">
         <v>-63565.818181042087</v>
@@ -67129,7 +68788,7 @@
         <v>-63565.818181042087</v>
       </c>
       <c r="G34" s="1">
-        <v>43782.161676835007</v>
+        <v>43782.161676834643</v>
       </c>
       <c r="H34" s="1">
         <v>43782.161676835007</v>
@@ -67137,16 +68796,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21202</v>
+        <v>21755</v>
       </c>
       <c r="B35" t="s">
-        <v>21238</v>
+        <v>21791</v>
       </c>
       <c r="C35" s="1">
         <v>-4009.0753441289712</v>
       </c>
       <c r="D35" s="1">
-        <v>-4009.0753441289771</v>
+        <v>-4009.0753441289712</v>
       </c>
       <c r="E35" s="1">
         <v>-63565.770979082881</v>
@@ -67155,7 +68814,7 @@
         <v>-63565.770979082881</v>
       </c>
       <c r="G35" s="1">
-        <v>43782.161676834643</v>
+        <v>43782.161676835007</v>
       </c>
       <c r="H35" s="1">
         <v>43782.161676834643</v>
@@ -67163,55 +68822,55 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21203</v>
+        <v>21756</v>
       </c>
       <c r="B36" t="s">
-        <v>21239</v>
+        <v>21792</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>1378.685344355712</v>
+        <v>201604.21968480741</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1">
+        <v>337.34758922499998</v>
+      </c>
+      <c r="H36" s="1">
+        <v>253381.7166756459</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21204</v>
+        <v>21757</v>
       </c>
       <c r="B37" t="s">
-        <v>21240</v>
+        <v>21793</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>201604.21968480741</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>337.34758922499998</v>
-      </c>
-      <c r="H37" s="1">
-        <v>253381.7166756459</v>
-      </c>
+        <v>170013.75605207999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>170013.75605207999</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21205</v>
+        <v>21758</v>
       </c>
       <c r="B38" t="s">
-        <v>21241</v>
+        <v>21794</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>170013.75605207999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>170013.75605207999</v>
-      </c>
+        <v>1378.685344355712</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -67226,36 +68885,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21248</v>
+        <v>21801</v>
       </c>
       <c r="B1" t="s">
-        <v>21285</v>
+        <v>21838</v>
       </c>
       <c r="C1" t="s">
-        <v>21321</v>
+        <v>21874</v>
       </c>
       <c r="D1" t="s">
-        <v>21322</v>
+        <v>21875</v>
       </c>
       <c r="E1" t="s">
-        <v>21323</v>
+        <v>21876</v>
       </c>
       <c r="F1" t="s">
-        <v>21324</v>
+        <v>21877</v>
       </c>
       <c r="G1" t="s">
-        <v>21325</v>
+        <v>21878</v>
       </c>
       <c r="H1" t="s">
-        <v>21326</v>
+        <v>21879</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21249</v>
+        <v>21802</v>
       </c>
       <c r="B2" t="s">
-        <v>21286</v>
+        <v>21839</v>
       </c>
       <c r="C2" s="1">
         <v>-101427.2938489076</v>
@@ -67270,10 +68929,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21250</v>
+        <v>21803</v>
       </c>
       <c r="B3" t="s">
-        <v>21287</v>
+        <v>21840</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -67292,10 +68951,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21251</v>
+        <v>21804</v>
       </c>
       <c r="B4" t="s">
-        <v>21288</v>
+        <v>21841</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -67312,10 +68971,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21252</v>
+        <v>21805</v>
       </c>
       <c r="B5" t="s">
-        <v>21289</v>
+        <v>21842</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -67328,10 +68987,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21253</v>
+        <v>21806</v>
       </c>
       <c r="B6" t="s">
-        <v>21290</v>
+        <v>21843</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -67348,10 +69007,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21254</v>
+        <v>21807</v>
       </c>
       <c r="B7" t="s">
-        <v>21291</v>
+        <v>21844</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -67364,10 +69023,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21255</v>
+        <v>21808</v>
       </c>
       <c r="B8" t="s">
-        <v>21291</v>
+        <v>21844</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -67380,10 +69039,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21256</v>
+        <v>21809</v>
       </c>
       <c r="B9" t="s">
-        <v>21292</v>
+        <v>21845</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -67396,10 +69055,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21257</v>
+        <v>21810</v>
       </c>
       <c r="B10" t="s">
-        <v>21293</v>
+        <v>21846</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -67414,10 +69073,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21258</v>
+        <v>21811</v>
       </c>
       <c r="B11" t="s">
-        <v>21294</v>
+        <v>21847</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -67436,10 +69095,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21259</v>
+        <v>21812</v>
       </c>
       <c r="B12" t="s">
-        <v>21295</v>
+        <v>21848</v>
       </c>
       <c r="C12" s="1">
         <v>-92.934358778526615</v>
@@ -67458,10 +69117,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21260</v>
+        <v>21813</v>
       </c>
       <c r="B13" t="s">
-        <v>21296</v>
+        <v>21849</v>
       </c>
       <c r="C13" s="1">
         <v>162249.8021316196</v>
@@ -67484,10 +69143,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21261</v>
+        <v>21814</v>
       </c>
       <c r="B14" t="s">
-        <v>21297</v>
+        <v>21850</v>
       </c>
       <c r="C14" s="1">
         <v>43179.357846405859</v>
@@ -67510,10 +69169,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21262</v>
+        <v>21815</v>
       </c>
       <c r="B15" t="s">
-        <v>21298</v>
+        <v>21851</v>
       </c>
       <c r="C15" s="1">
         <v>119070.4442852137</v>
@@ -67534,10 +69193,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21263</v>
+        <v>21816</v>
       </c>
       <c r="B16" t="s">
-        <v>21299</v>
+        <v>21852</v>
       </c>
       <c r="C16" s="1">
         <v>111072.9372501466</v>
@@ -67560,10 +69219,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21264</v>
+        <v>21817</v>
       </c>
       <c r="B17" t="s">
-        <v>21300</v>
+        <v>21853</v>
       </c>
       <c r="C17" s="1">
         <v>455.25087191519339</v>
@@ -67584,10 +69243,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21265</v>
+        <v>21818</v>
       </c>
       <c r="B18" t="s">
-        <v>21301</v>
+        <v>21854</v>
       </c>
       <c r="C18" s="1">
         <v>1486.8528134281901</v>
@@ -67608,10 +69267,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21266</v>
+        <v>21819</v>
       </c>
       <c r="B19" t="s">
-        <v>21302</v>
+        <v>21855</v>
       </c>
       <c r="C19" s="1">
         <v>1486.8528134281901</v>
@@ -67630,10 +69289,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21267</v>
+        <v>21820</v>
       </c>
       <c r="B20" t="s">
-        <v>21303</v>
+        <v>21856</v>
       </c>
       <c r="C20" s="1">
         <v>19645.88621086465</v>
@@ -67656,10 +69315,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21268</v>
+        <v>21821</v>
       </c>
       <c r="B21" t="s">
-        <v>21304</v>
+        <v>21857</v>
       </c>
       <c r="C21" s="1">
         <v>1.3780870000000001</v>
@@ -67678,10 +69337,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21269</v>
+        <v>21822</v>
       </c>
       <c r="B22" t="s">
-        <v>21305</v>
+        <v>21858</v>
       </c>
       <c r="C22" s="1">
         <v>1680.6084285300001</v>
@@ -67698,10 +69357,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21270</v>
+        <v>21823</v>
       </c>
       <c r="B23" t="s">
-        <v>21306</v>
+        <v>21859</v>
       </c>
       <c r="C23" s="1">
         <v>1167.0419095569939</v>
@@ -67720,10 +69379,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21271</v>
+        <v>21824</v>
       </c>
       <c r="B24" t="s">
-        <v>21307</v>
+        <v>21860</v>
       </c>
       <c r="C24" s="1">
         <v>16796.857785777662</v>
@@ -67746,10 +69405,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21272</v>
+        <v>21825</v>
       </c>
       <c r="B25" t="s">
-        <v>21308</v>
+        <v>21861</v>
       </c>
       <c r="C25" s="1">
         <v>108339.94151571881</v>
@@ -67772,10 +69431,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21273</v>
+        <v>21826</v>
       </c>
       <c r="B26" t="s">
-        <v>21309</v>
+        <v>21862</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -67788,10 +69447,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21274</v>
+        <v>21827</v>
       </c>
       <c r="B27" t="s">
-        <v>21310</v>
+        <v>21863</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -67810,10 +69469,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21275</v>
+        <v>21828</v>
       </c>
       <c r="B28" t="s">
-        <v>21311</v>
+        <v>21864</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -67828,10 +69487,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21276</v>
+        <v>21829</v>
       </c>
       <c r="B29" t="s">
-        <v>21312</v>
+        <v>21865</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -67850,10 +69509,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21277</v>
+        <v>21830</v>
       </c>
       <c r="B30" t="s">
-        <v>21313</v>
+        <v>21866</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -67866,10 +69525,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21278</v>
+        <v>21831</v>
       </c>
       <c r="B31" t="s">
-        <v>21314</v>
+        <v>21867</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -67888,10 +69547,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21279</v>
+        <v>21832</v>
       </c>
       <c r="B32" t="s">
-        <v>21315</v>
+        <v>21868</v>
       </c>
       <c r="C32" s="1">
         <v>6912.6476668112009</v>
@@ -67906,10 +69565,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21280</v>
+        <v>21833</v>
       </c>
       <c r="B33" t="s">
-        <v>21316</v>
+        <v>21869</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -67930,100 +69589,100 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21281</v>
+        <v>21834</v>
       </c>
       <c r="B34" t="s">
-        <v>21317</v>
+        <v>21870</v>
       </c>
       <c r="C34" s="1">
         <v>5442.5976345336867</v>
       </c>
       <c r="D34" s="1">
-        <v>5442.5976345336867</v>
+        <v>5442.5976345336967</v>
       </c>
       <c r="E34" s="1">
-        <v>-49773.892247342999</v>
+        <v>-49773.892247343349</v>
       </c>
       <c r="F34" s="1">
-        <v>-49773.892247342999</v>
+        <v>-49773.892247343349</v>
       </c>
       <c r="G34" s="1">
         <v>33283.712597372418</v>
       </c>
       <c r="H34" s="1">
-        <v>33283.712597372112</v>
+        <v>33283.712597372418</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21281</v>
+        <v>21834</v>
       </c>
       <c r="B35" t="s">
-        <v>21317</v>
+        <v>21870</v>
       </c>
       <c r="C35" s="1">
         <v>5442.5976345336967</v>
       </c>
       <c r="D35" s="1">
-        <v>5442.5976345336967</v>
+        <v>5442.5976345336867</v>
       </c>
       <c r="E35" s="1">
-        <v>-49773.892247343349</v>
+        <v>-49773.892247342999</v>
       </c>
       <c r="F35" s="1">
-        <v>-49773.892247343349</v>
+        <v>-49773.892247342999</v>
       </c>
       <c r="G35" s="1">
         <v>33283.712597372112</v>
       </c>
       <c r="H35" s="1">
-        <v>33283.712597372418</v>
+        <v>33283.712597372112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21282</v>
+        <v>21835</v>
       </c>
       <c r="B36" t="s">
-        <v>21318</v>
+        <v>21871</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>207169.67690947151</v>
-      </c>
-      <c r="F36" s="1">
-        <v>207169.67690947151</v>
-      </c>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>215925.528549476</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1">
+        <v>381.05244255449912</v>
+      </c>
+      <c r="H36" s="1">
+        <v>271956.46735150547</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21283</v>
+        <v>21836</v>
       </c>
       <c r="B37" t="s">
-        <v>21319</v>
+        <v>21872</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>215925.528549476</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1">
-        <v>381.05244255449912</v>
-      </c>
-      <c r="H37" s="1">
-        <v>271956.46735150547</v>
-      </c>
+        <v>207169.67690947151</v>
+      </c>
+      <c r="F37" s="1">
+        <v>207169.67690947151</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21284</v>
+        <v>21837</v>
       </c>
       <c r="B38" t="s">
-        <v>21320</v>
+        <v>21873</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -68045,36 +69704,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21327</v>
+        <v>21880</v>
       </c>
       <c r="B1" t="s">
-        <v>21364</v>
+        <v>21917</v>
       </c>
       <c r="C1" t="s">
-        <v>21400</v>
+        <v>21953</v>
       </c>
       <c r="D1" t="s">
-        <v>21401</v>
+        <v>21954</v>
       </c>
       <c r="E1" t="s">
-        <v>21402</v>
+        <v>21955</v>
       </c>
       <c r="F1" t="s">
-        <v>21403</v>
+        <v>21956</v>
       </c>
       <c r="G1" t="s">
-        <v>21404</v>
+        <v>21957</v>
       </c>
       <c r="H1" t="s">
-        <v>21405</v>
+        <v>21958</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21328</v>
+        <v>21881</v>
       </c>
       <c r="B2" t="s">
-        <v>21365</v>
+        <v>21918</v>
       </c>
       <c r="C2" s="1">
         <v>-132325.81806931089</v>
@@ -68089,10 +69748,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21329</v>
+        <v>21882</v>
       </c>
       <c r="B3" t="s">
-        <v>21366</v>
+        <v>21919</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -68111,10 +69770,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21330</v>
+        <v>21883</v>
       </c>
       <c r="B4" t="s">
-        <v>21367</v>
+        <v>21920</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -68131,10 +69790,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21331</v>
+        <v>21884</v>
       </c>
       <c r="B5" t="s">
-        <v>21368</v>
+        <v>21921</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -68147,10 +69806,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21332</v>
+        <v>21885</v>
       </c>
       <c r="B6" t="s">
-        <v>21369</v>
+        <v>21922</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -68167,10 +69826,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21333</v>
+        <v>21886</v>
       </c>
       <c r="B7" t="s">
-        <v>21370</v>
+        <v>21923</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -68183,10 +69842,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21334</v>
+        <v>21887</v>
       </c>
       <c r="B8" t="s">
-        <v>21370</v>
+        <v>21923</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -68199,10 +69858,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21335</v>
+        <v>21888</v>
       </c>
       <c r="B9" t="s">
-        <v>21371</v>
+        <v>21924</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -68215,10 +69874,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21336</v>
+        <v>21889</v>
       </c>
       <c r="B10" t="s">
-        <v>21372</v>
+        <v>21925</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -68233,10 +69892,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21337</v>
+        <v>21890</v>
       </c>
       <c r="B11" t="s">
-        <v>21373</v>
+        <v>21926</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -68255,10 +69914,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21338</v>
+        <v>21891</v>
       </c>
       <c r="B12" t="s">
-        <v>21374</v>
+        <v>21927</v>
       </c>
       <c r="C12" s="1">
         <v>-111.3731775422125</v>
@@ -68277,10 +69936,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21339</v>
+        <v>21892</v>
       </c>
       <c r="B13" t="s">
-        <v>21375</v>
+        <v>21928</v>
       </c>
       <c r="C13" s="1">
         <v>160506.74429795379</v>
@@ -68303,10 +69962,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21340</v>
+        <v>21893</v>
       </c>
       <c r="B14" t="s">
-        <v>21376</v>
+        <v>21929</v>
       </c>
       <c r="C14" s="1">
         <v>47266.390163401513</v>
@@ -68329,10 +69988,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21341</v>
+        <v>21894</v>
       </c>
       <c r="B15" t="s">
-        <v>21377</v>
+        <v>21930</v>
       </c>
       <c r="C15" s="1">
         <v>113240.3541345523</v>
@@ -68353,10 +70012,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21342</v>
+        <v>21895</v>
       </c>
       <c r="B16" t="s">
-        <v>21378</v>
+        <v>21931</v>
       </c>
       <c r="C16" s="1">
         <v>106078.98298231589</v>
@@ -68379,10 +70038,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21343</v>
+        <v>21896</v>
       </c>
       <c r="B17" t="s">
-        <v>21379</v>
+        <v>21932</v>
       </c>
       <c r="C17" s="1">
         <v>376.90302765656929</v>
@@ -68403,10 +70062,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21344</v>
+        <v>21897</v>
       </c>
       <c r="B18" t="s">
-        <v>21380</v>
+        <v>21933</v>
       </c>
       <c r="C18" s="1">
         <v>1655.657643517555</v>
@@ -68427,10 +70086,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21345</v>
+        <v>21898</v>
       </c>
       <c r="B19" t="s">
-        <v>21381</v>
+        <v>21934</v>
       </c>
       <c r="C19" s="1">
         <v>1655.657643517555</v>
@@ -68449,10 +70108,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21346</v>
+        <v>21899</v>
       </c>
       <c r="B20" t="s">
-        <v>21382</v>
+        <v>21935</v>
       </c>
       <c r="C20" s="1">
         <v>22226.602795191338</v>
@@ -68475,10 +70134,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21347</v>
+        <v>21900</v>
       </c>
       <c r="B21" t="s">
-        <v>21383</v>
+        <v>21936</v>
       </c>
       <c r="C21" s="1">
         <v>2.9676309999999999</v>
@@ -68497,10 +70156,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21348</v>
+        <v>21901</v>
       </c>
       <c r="B22" t="s">
-        <v>21384</v>
+        <v>21937</v>
       </c>
       <c r="C22" s="1">
         <v>2646.0630505200002</v>
@@ -68517,10 +70176,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21349</v>
+        <v>21902</v>
       </c>
       <c r="B23" t="s">
-        <v>21385</v>
+        <v>21938</v>
       </c>
       <c r="C23" s="1">
         <v>1452.5266412882031</v>
@@ -68539,10 +70198,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21350</v>
+        <v>21903</v>
       </c>
       <c r="B24" t="s">
-        <v>21386</v>
+        <v>21939</v>
       </c>
       <c r="C24" s="1">
         <v>18125.045472383139</v>
@@ -68565,10 +70224,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21351</v>
+        <v>21904</v>
       </c>
       <c r="B25" t="s">
-        <v>21387</v>
+        <v>21940</v>
       </c>
       <c r="C25" s="1">
         <v>103687.46021795391</v>
@@ -68591,10 +70250,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21352</v>
+        <v>21905</v>
       </c>
       <c r="B26" t="s">
-        <v>21388</v>
+        <v>21941</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -68607,10 +70266,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21353</v>
+        <v>21906</v>
       </c>
       <c r="B27" t="s">
-        <v>21389</v>
+        <v>21942</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -68618,7 +70277,7 @@
         <v>-47487.012322160852</v>
       </c>
       <c r="F27" s="1">
-        <v>-47487.012322160852</v>
+        <v>-47487.012322160823</v>
       </c>
       <c r="G27" s="1">
         <v>137422.3722114753</v>
@@ -68629,10 +70288,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21354</v>
+        <v>21907</v>
       </c>
       <c r="B28" t="s">
-        <v>21390</v>
+        <v>21943</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -68647,10 +70306,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21355</v>
+        <v>21908</v>
       </c>
       <c r="B29" t="s">
-        <v>21391</v>
+        <v>21944</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -68669,10 +70328,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21356</v>
+        <v>21909</v>
       </c>
       <c r="B30" t="s">
-        <v>21392</v>
+        <v>21945</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -68685,10 +70344,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21357</v>
+        <v>21910</v>
       </c>
       <c r="B31" t="s">
-        <v>21393</v>
+        <v>21946</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -68696,7 +70355,7 @@
         <v>-47487.012322160823</v>
       </c>
       <c r="F31" s="1">
-        <v>-47487.012322160823</v>
+        <v>-47487.012322160852</v>
       </c>
       <c r="G31" s="1">
         <v>137422.3722114753</v>
@@ -68707,10 +70366,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21358</v>
+        <v>21911</v>
       </c>
       <c r="B32" t="s">
-        <v>21394</v>
+        <v>21947</v>
       </c>
       <c r="C32" s="1">
         <v>-28638.357851356981</v>
@@ -68725,10 +70384,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21359</v>
+        <v>21912</v>
       </c>
       <c r="B33" t="s">
-        <v>21395</v>
+        <v>21948</v>
       </c>
       <c r="C33" s="1">
         <v>13.58729015431644</v>
@@ -68751,107 +70410,107 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21360</v>
+        <v>21913</v>
       </c>
       <c r="B34" t="s">
-        <v>21396</v>
+        <v>21949</v>
       </c>
       <c r="C34" s="1">
         <v>-14516.140951382629</v>
       </c>
       <c r="D34" s="1">
-        <v>-14516.15048177604</v>
+        <v>-14516.140951382629</v>
       </c>
       <c r="E34" s="1">
-        <v>-63947.039175029808</v>
+        <v>-63947.039175030113</v>
       </c>
       <c r="F34" s="1">
-        <v>-63947.039175029808</v>
+        <v>-63947.039175030113</v>
       </c>
       <c r="G34" s="1">
         <v>39248.472782472993</v>
       </c>
       <c r="H34" s="1">
-        <v>39248.472782472993</v>
+        <v>39248.472782472847</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21360</v>
+        <v>21913</v>
       </c>
       <c r="B35" t="s">
-        <v>21396</v>
+        <v>21949</v>
       </c>
       <c r="C35" s="1">
         <v>-14516.15048177604</v>
       </c>
       <c r="D35" s="1">
-        <v>-14516.140951382629</v>
+        <v>-14516.15048177604</v>
       </c>
       <c r="E35" s="1">
-        <v>-63947.039175030113</v>
+        <v>-63947.039175029808</v>
       </c>
       <c r="F35" s="1">
-        <v>-63947.039175030113</v>
+        <v>-63947.039175029808</v>
       </c>
       <c r="G35" s="1">
         <v>39248.472782472847</v>
       </c>
       <c r="H35" s="1">
-        <v>39248.472782472847</v>
+        <v>39248.472782472993</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21361</v>
+        <v>21914</v>
       </c>
       <c r="B36" t="s">
-        <v>21397</v>
+        <v>21950</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>239376.743428952</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1">
-        <v>402.67289956090139</v>
-      </c>
-      <c r="H36" s="1">
-        <v>298520.24294644757</v>
-      </c>
+        <v>200663.39336498949</v>
+      </c>
+      <c r="F36" s="1">
+        <v>200663.39336498949</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21362</v>
+        <v>21915</v>
       </c>
       <c r="B37" t="s">
-        <v>21398</v>
+        <v>21951</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>1691.532447066628</v>
+        <v>239376.743428952</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="G37" s="1">
+        <v>402.67289956090139</v>
+      </c>
+      <c r="H37" s="1">
+        <v>298520.24294644757</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21363</v>
+        <v>21916</v>
       </c>
       <c r="B38" t="s">
-        <v>21399</v>
+        <v>21952</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>200663.39336498949</v>
-      </c>
-      <c r="F38" s="1">
-        <v>200663.39336498949</v>
-      </c>
+        <v>1691.532447066628</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -68866,36 +70525,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21406</v>
+        <v>21959</v>
       </c>
       <c r="B1" t="s">
-        <v>21443</v>
+        <v>21996</v>
       </c>
       <c r="C1" t="s">
-        <v>21479</v>
+        <v>22032</v>
       </c>
       <c r="D1" t="s">
-        <v>21480</v>
+        <v>22033</v>
       </c>
       <c r="E1" t="s">
-        <v>21481</v>
+        <v>22034</v>
       </c>
       <c r="F1" t="s">
-        <v>21482</v>
+        <v>22035</v>
       </c>
       <c r="G1" t="s">
-        <v>21483</v>
+        <v>22036</v>
       </c>
       <c r="H1" t="s">
-        <v>21484</v>
+        <v>22037</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21407</v>
+        <v>21960</v>
       </c>
       <c r="B2" t="s">
-        <v>21444</v>
+        <v>21997</v>
       </c>
       <c r="C2" s="1">
         <v>-104514.67406784389</v>
@@ -68910,10 +70569,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21408</v>
+        <v>21961</v>
       </c>
       <c r="B3" t="s">
-        <v>21445</v>
+        <v>21998</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -68932,10 +70591,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21409</v>
+        <v>21962</v>
       </c>
       <c r="B4" t="s">
-        <v>21446</v>
+        <v>21999</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -68952,10 +70611,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21410</v>
+        <v>21963</v>
       </c>
       <c r="B5" t="s">
-        <v>21447</v>
+        <v>22000</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -68968,10 +70627,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21411</v>
+        <v>21964</v>
       </c>
       <c r="B6" t="s">
-        <v>21448</v>
+        <v>22001</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -68988,10 +70647,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21412</v>
+        <v>21965</v>
       </c>
       <c r="B7" t="s">
-        <v>21449</v>
+        <v>22002</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -69004,10 +70663,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21413</v>
+        <v>21966</v>
       </c>
       <c r="B8" t="s">
-        <v>21449</v>
+        <v>22002</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -69020,10 +70679,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21414</v>
+        <v>21967</v>
       </c>
       <c r="B9" t="s">
-        <v>21450</v>
+        <v>22003</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -69036,10 +70695,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21415</v>
+        <v>21968</v>
       </c>
       <c r="B10" t="s">
-        <v>21451</v>
+        <v>22004</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -69054,10 +70713,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21416</v>
+        <v>21969</v>
       </c>
       <c r="B11" t="s">
-        <v>21452</v>
+        <v>22005</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -69076,10 +70735,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21417</v>
+        <v>21970</v>
       </c>
       <c r="B12" t="s">
-        <v>21453</v>
+        <v>22006</v>
       </c>
       <c r="C12" s="1">
         <v>-149.5741136579793</v>
@@ -69098,10 +70757,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21418</v>
+        <v>21971</v>
       </c>
       <c r="B13" t="s">
-        <v>21454</v>
+        <v>22007</v>
       </c>
       <c r="C13" s="1">
         <v>151856.17438438139</v>
@@ -69124,10 +70783,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21419</v>
+        <v>21972</v>
       </c>
       <c r="B14" t="s">
-        <v>21455</v>
+        <v>22008</v>
       </c>
       <c r="C14" s="1">
         <v>54754.723496312057</v>
@@ -69150,10 +70809,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21420</v>
+        <v>21973</v>
       </c>
       <c r="B15" t="s">
-        <v>21456</v>
+        <v>22009</v>
       </c>
       <c r="C15" s="1">
         <v>97101.450888069332</v>
@@ -69172,10 +70831,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21421</v>
+        <v>21974</v>
       </c>
       <c r="B16" t="s">
-        <v>21457</v>
+        <v>22010</v>
       </c>
       <c r="C16" s="1">
         <v>121151.1679762976</v>
@@ -69198,10 +70857,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21422</v>
+        <v>21975</v>
       </c>
       <c r="B17" t="s">
-        <v>21458</v>
+        <v>22011</v>
       </c>
       <c r="C17" s="1">
         <v>829.94672213900139</v>
@@ -69222,10 +70881,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21423</v>
+        <v>21976</v>
       </c>
       <c r="B18" t="s">
-        <v>21459</v>
+        <v>22012</v>
       </c>
       <c r="C18" s="1">
         <v>1851.55709250523</v>
@@ -69246,10 +70905,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21424</v>
+        <v>21977</v>
       </c>
       <c r="B19" t="s">
-        <v>21460</v>
+        <v>22013</v>
       </c>
       <c r="C19" s="1">
         <v>1851.55709250523</v>
@@ -69268,10 +70927,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21425</v>
+        <v>21978</v>
       </c>
       <c r="B20" t="s">
-        <v>21461</v>
+        <v>22014</v>
       </c>
       <c r="C20" s="1">
         <v>13110.58352570426</v>
@@ -69294,10 +70953,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21426</v>
+        <v>21979</v>
       </c>
       <c r="B21" t="s">
-        <v>21462</v>
+        <v>22015</v>
       </c>
       <c r="C21" s="1">
         <v>1.421961</v>
@@ -69316,10 +70975,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21427</v>
+        <v>21980</v>
       </c>
       <c r="B22" t="s">
-        <v>21463</v>
+        <v>22016</v>
       </c>
       <c r="C22" s="1">
         <v>2008.0292188799999</v>
@@ -69336,10 +70995,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21428</v>
+        <v>21981</v>
       </c>
       <c r="B23" t="s">
-        <v>21464</v>
+        <v>22017</v>
       </c>
       <c r="C23" s="1">
         <v>728.95224428820325</v>
@@ -69358,10 +71017,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21429</v>
+        <v>21982</v>
       </c>
       <c r="B24" t="s">
-        <v>21465</v>
+        <v>22018</v>
       </c>
       <c r="C24" s="1">
         <v>10372.18010153606</v>
@@ -69384,10 +71043,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21430</v>
+        <v>21983</v>
       </c>
       <c r="B25" t="s">
-        <v>21466</v>
+        <v>22019</v>
       </c>
       <c r="C25" s="1">
         <v>117812.0378742148</v>
@@ -69410,10 +71069,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21431</v>
+        <v>21984</v>
       </c>
       <c r="B26" t="s">
-        <v>21467</v>
+        <v>22020</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -69426,10 +71085,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21432</v>
+        <v>21985</v>
       </c>
       <c r="B27" t="s">
-        <v>21468</v>
+        <v>22021</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -69448,10 +71107,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21433</v>
+        <v>21986</v>
       </c>
       <c r="B28" t="s">
-        <v>21469</v>
+        <v>22022</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -69466,10 +71125,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21434</v>
+        <v>21987</v>
       </c>
       <c r="B29" t="s">
-        <v>21470</v>
+        <v>22023</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -69488,10 +71147,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21435</v>
+        <v>21988</v>
       </c>
       <c r="B30" t="s">
-        <v>21471</v>
+        <v>22024</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -69504,10 +71163,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21436</v>
+        <v>21989</v>
       </c>
       <c r="B31" t="s">
-        <v>21472</v>
+        <v>22025</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -69526,10 +71185,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21437</v>
+        <v>21990</v>
       </c>
       <c r="B32" t="s">
-        <v>21473</v>
+        <v>22026</v>
       </c>
       <c r="C32" s="1">
         <v>13297.36380637088</v>
@@ -69544,10 +71203,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21438</v>
+        <v>21991</v>
       </c>
       <c r="B33" t="s">
-        <v>21474</v>
+        <v>22027</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1">
@@ -69568,16 +71227,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21439</v>
+        <v>21992</v>
       </c>
       <c r="B34" t="s">
-        <v>21475</v>
+        <v>22028</v>
       </c>
       <c r="C34" s="1">
         <v>10171.468589380889</v>
       </c>
       <c r="D34" s="1">
-        <v>10171.468589380889</v>
+        <v>10171.459058987501</v>
       </c>
       <c r="E34" s="1">
         <v>-79545.106801385089</v>
@@ -69586,7 +71245,7 @@
         <v>-79545.106801385089</v>
       </c>
       <c r="G34" s="1">
-        <v>66059.10105946564</v>
+        <v>66058.729479423899</v>
       </c>
       <c r="H34" s="1">
         <v>66058.729479423899</v>
@@ -69594,16 +71253,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21439</v>
+        <v>21992</v>
       </c>
       <c r="B35" t="s">
-        <v>21475</v>
+        <v>22028</v>
       </c>
       <c r="C35" s="1">
         <v>10171.459058987501</v>
       </c>
       <c r="D35" s="1">
-        <v>10171.459058987501</v>
+        <v>10171.468589380889</v>
       </c>
       <c r="E35" s="1">
         <v>-79545.106801385089</v>
@@ -69612,7 +71271,7 @@
         <v>-79545.106801385089</v>
       </c>
       <c r="G35" s="1">
-        <v>66058.729479423899</v>
+        <v>66059.10105946564</v>
       </c>
       <c r="H35" s="1">
         <v>66059.10105946564</v>
@@ -69620,57 +71279,57 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21440</v>
+        <v>21993</v>
       </c>
       <c r="B36" t="s">
-        <v>21476</v>
+        <v>22029</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>1625.492093275358</v>
+        <v>250754.8245620098</v>
       </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="G36" s="1">
+        <v>442.30808405340002</v>
+      </c>
+      <c r="H36" s="1">
+        <v>313181.58741649322</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21441</v>
+        <v>21994</v>
       </c>
       <c r="B37" t="s">
-        <v>21477</v>
+        <v>22030</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>242248.42014405999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>242248.42014405999</v>
-      </c>
+        <v>1625.492093275358</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21442</v>
+        <v>21995</v>
       </c>
       <c r="B38" t="s">
-        <v>21478</v>
+        <v>22031</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>250754.8245620098</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1">
-        <v>442.30808405340002</v>
-      </c>
-      <c r="H38" s="1">
-        <v>313181.58741649322</v>
-      </c>
+        <v>242248.42014405999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>242248.42014405999</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
 </worksheet>
@@ -69683,36 +71342,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21485</v>
+        <v>22038</v>
       </c>
       <c r="B1" t="s">
-        <v>21522</v>
+        <v>22075</v>
       </c>
       <c r="C1" t="s">
-        <v>21558</v>
+        <v>22111</v>
       </c>
       <c r="D1" t="s">
-        <v>21559</v>
+        <v>22112</v>
       </c>
       <c r="E1" t="s">
-        <v>21560</v>
+        <v>22113</v>
       </c>
       <c r="F1" t="s">
-        <v>21561</v>
+        <v>22114</v>
       </c>
       <c r="G1" t="s">
-        <v>21562</v>
+        <v>22115</v>
       </c>
       <c r="H1" t="s">
-        <v>21563</v>
+        <v>22116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>21486</v>
+        <v>22039</v>
       </c>
       <c r="B2" t="s">
-        <v>21523</v>
+        <v>22076</v>
       </c>
       <c r="C2" s="1">
         <v>-200371.3593658637</v>
@@ -69727,10 +71386,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21487</v>
+        <v>22040</v>
       </c>
       <c r="B3" t="s">
-        <v>21524</v>
+        <v>22077</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -69749,10 +71408,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21488</v>
+        <v>22041</v>
       </c>
       <c r="B4" t="s">
-        <v>21525</v>
+        <v>22078</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -69769,10 +71428,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21489</v>
+        <v>22042</v>
       </c>
       <c r="B5" t="s">
-        <v>21526</v>
+        <v>22079</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -69785,10 +71444,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21490</v>
+        <v>22043</v>
       </c>
       <c r="B6" t="s">
-        <v>21527</v>
+        <v>22080</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -69805,10 +71464,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21491</v>
+        <v>22044</v>
       </c>
       <c r="B7" t="s">
-        <v>21528</v>
+        <v>22081</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -69821,10 +71480,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21492</v>
+        <v>22045</v>
       </c>
       <c r="B8" t="s">
-        <v>21528</v>
+        <v>22081</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -69837,10 +71496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21493</v>
+        <v>22046</v>
       </c>
       <c r="B9" t="s">
-        <v>21529</v>
+        <v>22082</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -69853,10 +71512,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21494</v>
+        <v>22047</v>
       </c>
       <c r="B10" t="s">
-        <v>21530</v>
+        <v>22083</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -69871,10 +71530,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21495</v>
+        <v>22048</v>
       </c>
       <c r="B11" t="s">
-        <v>21531</v>
+        <v>22084</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -69893,10 +71552,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21496</v>
+        <v>22049</v>
       </c>
       <c r="B12" t="s">
-        <v>21532</v>
+        <v>22085</v>
       </c>
       <c r="C12" s="1">
         <v>-155.06439238415939</v>
@@ -69915,10 +71574,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21497</v>
+        <v>22050</v>
       </c>
       <c r="B13" t="s">
-        <v>21533</v>
+        <v>22086</v>
       </c>
       <c r="C13" s="1">
         <v>314231.27904663578</v>
@@ -69941,10 +71600,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21498</v>
+        <v>22051</v>
       </c>
       <c r="B14" t="s">
-        <v>21534</v>
+        <v>22087</v>
       </c>
       <c r="C14" s="1">
         <v>51456.424245716291</v>
@@ -69967,10 +71626,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21499</v>
+        <v>22052</v>
       </c>
       <c r="B15" t="s">
-        <v>21535</v>
+        <v>22088</v>
       </c>
       <c r="C15" s="1">
         <v>262774.85480091948</v>
@@ -69989,10 +71648,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21500</v>
+        <v>22053</v>
       </c>
       <c r="B16" t="s">
-        <v>21536</v>
+        <v>22089</v>
       </c>
       <c r="C16" s="1">
         <v>265585.17502668808</v>
@@ -70015,10 +71674,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21501</v>
+        <v>22054</v>
       </c>
       <c r="B17" t="s">
-        <v>21537</v>
+        <v>22090</v>
       </c>
       <c r="C17" s="1">
         <v>1300.758691809164</v>
@@ -70039,10 +71698,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21502</v>
+        <v>22055</v>
       </c>
       <c r="B18" t="s">
-        <v>21538</v>
+        <v>22091</v>
       </c>
       <c r="C18" s="1">
         <v>2035.2769079008131</v>
@@ -70063,10 +71722,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21503</v>
+        <v>22056</v>
       </c>
       <c r="B19" t="s">
-        <v>21539</v>
+        <v>22092</v>
       </c>
       <c r="C19" s="1">
         <v>2035.2769079008131</v>
@@ -70085,10 +71744,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21504</v>
+        <v>22057</v>
       </c>
       <c r="B20" t="s">
-        <v>21540</v>
+        <v>22093</v>
       </c>
       <c r="C20" s="1">
         <v>13142.94333128056</v>
@@ -70111,10 +71770,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21505</v>
+        <v>22058</v>
       </c>
       <c r="B21" t="s">
-        <v>21541</v>
+        <v>22094</v>
       </c>
       <c r="C21" s="1">
         <v>1.218183</v>
@@ -70133,10 +71792,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21506</v>
+        <v>22059</v>
       </c>
       <c r="B22" t="s">
-        <v>21542</v>
+        <v>22095</v>
       </c>
       <c r="C22" s="1">
         <v>1687.2726680000001</v>
@@ -70153,10 +71812,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21507</v>
+        <v>22060</v>
       </c>
       <c r="B23" t="s">
-        <v>21543</v>
+        <v>22096</v>
       </c>
       <c r="C23" s="1">
         <v>2336.210388476667</v>
@@ -70175,10 +71834,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21508</v>
+        <v>22061</v>
       </c>
       <c r="B24" t="s">
-        <v>21544</v>
+        <v>22097</v>
       </c>
       <c r="C24" s="1">
         <v>9118.2420918038915</v>
@@ -70201,10 +71860,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21509</v>
+        <v>22062</v>
       </c>
       <c r="B25" t="s">
-        <v>21545</v>
+        <v>22098</v>
       </c>
       <c r="C25" s="1">
         <v>262376.75111480377</v>
@@ -70227,10 +71886,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21510</v>
+        <v>22063</v>
       </c>
       <c r="B26" t="s">
-        <v>21546</v>
+        <v>22099</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -70243,18 +71902,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21511</v>
+        <v>22064</v>
       </c>
       <c r="B27" t="s">
-        <v>21547</v>
+        <v>22100</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="F27" s="1">
-        <v>-25100.989231280721</v>
+        <v>-25100.98923128075</v>
       </c>
       <c r="G27" s="1">
         <v>147140.71535390709</v>
@@ -70265,10 +71924,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21512</v>
+        <v>22065</v>
       </c>
       <c r="B28" t="s">
-        <v>21548</v>
+        <v>22101</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -70283,10 +71942,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21513</v>
+        <v>22066</v>
       </c>
       <c r="B29" t="s">
-        <v>21549</v>
+        <v>22102</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -70305,10 +71964,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>21514</v>
+        <v>22067</v>
       </c>
       <c r="B30" t="s">
-        <v>21550</v>
+        <v>22103</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -70321,18 +71980,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21515</v>
+        <v>22068</v>
       </c>
       <c r="B31" t="s">
-        <v>21551</v>
+        <v>22104</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="F31" s="1">
-        <v>-25100.98923128075</v>
+        <v>-25100.989231280721</v>
       </c>
       <c r="G31" s="1">
         <v>147140.71535390709</v>
@@ -70343,10 +72002,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21516</v>
+        <v>22069</v>
       </c>
       <c r="B32" t="s">
-        <v>21552</v>
+        <v>22105</v>
       </c>
       <c r="C32" s="1">
         <v>62005.391748940048</v>
@@ -70361,10 +72020,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21517</v>
+        <v>22070</v>
       </c>
       <c r="B33" t="s">
-        <v>21553</v>
+        <v>22106</v>
       </c>
       <c r="C33" s="1">
         <v>86.331224277060215</v>
@@ -70387,16 +72046,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21518</v>
+        <v>22071</v>
       </c>
       <c r="B34" t="s">
-        <v>21554</v>
+        <v>22107</v>
       </c>
       <c r="C34" s="1">
         <v>63134.524836636163</v>
       </c>
       <c r="D34" s="1">
-        <v>63134.524836636163</v>
+        <v>63134.515306242713</v>
       </c>
       <c r="E34" s="1">
         <v>-60032.164387225363</v>
@@ -70413,16 +72072,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21518</v>
+        <v>22071</v>
       </c>
       <c r="B35" t="s">
-        <v>21554</v>
+        <v>22107</v>
       </c>
       <c r="C35" s="1">
         <v>63134.515306242713</v>
       </c>
       <c r="D35" s="1">
-        <v>63134.515306242713</v>
+        <v>63134.524836636163</v>
       </c>
       <c r="E35" s="1">
         <v>-60032.164387225363</v>
@@ -70439,10 +72098,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21519</v>
+        <v>22072</v>
       </c>
       <c r="B36" t="s">
-        <v>21555</v>
+        <v>22108</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -70459,10 +72118,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21520</v>
+        <v>22073</v>
       </c>
       <c r="B37" t="s">
-        <v>21556</v>
+        <v>22109</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -70477,10 +72136,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>21521</v>
+        <v>22074</v>
       </c>
       <c r="B38" t="s">
-        <v>21557</v>
+        <v>22110</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
